--- a/artefacts/Planilha de Roteiro de testes - Community Center API.xlsx
+++ b/artefacts/Planilha de Roteiro de testes - Community Center API.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ernan\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6838A97-954E-400D-AC79-39553A976DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Página1" sheetId="1" r:id="rId4"/>
+    <sheet name="Página1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -338,29 +347,29 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -371,7 +380,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -387,54 +396,70 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -624,32 +649,42 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="13.63"/>
-    <col customWidth="1" min="2" max="2" width="60.25"/>
-    <col customWidth="1" min="3" max="3" width="41.63"/>
-    <col customWidth="1" min="4" max="4" width="43.38"/>
-    <col customWidth="1" min="5" max="5" width="39.0"/>
-    <col customWidth="1" min="6" max="6" width="7.5"/>
-    <col customWidth="1" min="7" max="25" width="20.38"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="60.28515625" customWidth="1"/>
+    <col min="3" max="3" width="41.5703125" customWidth="1"/>
+    <col min="4" max="4" width="43.42578125" customWidth="1"/>
+    <col min="5" max="5" width="39" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="25" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -670,8 +705,8 @@
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
     </row>
-    <row r="2">
-      <c r="A2" s="3"/>
+    <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -697,10 +732,15 @@
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
     </row>
-    <row r="3">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -721,10 +761,15 @@
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
     </row>
-    <row r="4">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
         <v>2</v>
       </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -745,8 +790,8 @@
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
     </row>
-    <row r="5">
-      <c r="A5" s="3"/>
+    <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -772,23 +817,23 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
     </row>
-    <row r="6">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G6" s="2"/>
@@ -811,10 +856,15 @@
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
     </row>
-    <row r="7">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
         <v>9</v>
       </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -835,23 +885,23 @@
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
     </row>
-    <row r="8">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="6" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="2"/>
@@ -874,23 +924,23 @@
       <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
     </row>
-    <row r="9">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="6" t="s">
         <v>15</v>
       </c>
       <c r="G9" s="2"/>
@@ -913,23 +963,23 @@
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
     </row>
-    <row r="10">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G10" s="2"/>
@@ -952,23 +1002,23 @@
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
     </row>
-    <row r="11">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G11" s="2"/>
@@ -991,10 +1041,15 @@
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
     </row>
-    <row r="12">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
         <v>29</v>
       </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -1015,23 +1070,23 @@
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
     </row>
-    <row r="13">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="6" t="s">
         <v>15</v>
       </c>
       <c r="G13" s="2"/>
@@ -1054,23 +1109,23 @@
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
     </row>
-    <row r="14">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G14" s="2"/>
@@ -1093,23 +1148,23 @@
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
     </row>
-    <row r="15">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="6" t="s">
         <v>15</v>
       </c>
       <c r="G15" s="2"/>
@@ -1132,10 +1187,15 @@
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
     </row>
-    <row r="16">
-      <c r="A16" s="6" t="s">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
         <v>45</v>
       </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -1156,23 +1216,23 @@
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
     </row>
-    <row r="17">
-      <c r="A17" s="6" t="s">
+    <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="6" t="s">
         <v>15</v>
       </c>
       <c r="G17" s="2"/>
@@ -1195,23 +1255,23 @@
       <c r="X17" s="2"/>
       <c r="Y17" s="2"/>
     </row>
-    <row r="18">
-      <c r="A18" s="6" t="s">
+    <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G18" s="2"/>
@@ -1234,23 +1294,23 @@
       <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
     </row>
-    <row r="19">
-      <c r="A19" s="6" t="s">
+    <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="6" t="s">
         <v>15</v>
       </c>
       <c r="G19" s="2"/>
@@ -1273,10 +1333,15 @@
       <c r="X19" s="2"/>
       <c r="Y19" s="2"/>
     </row>
-    <row r="20">
-      <c r="A20" s="6" t="s">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
         <v>60</v>
       </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -1297,23 +1362,23 @@
       <c r="X20" s="2"/>
       <c r="Y20" s="2"/>
     </row>
-    <row r="21">
-      <c r="A21" s="6" t="s">
+    <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="6" t="s">
         <v>15</v>
       </c>
       <c r="G21" s="2"/>
@@ -1336,23 +1401,23 @@
       <c r="X21" s="2"/>
       <c r="Y21" s="2"/>
     </row>
-    <row r="22">
-      <c r="A22" s="6" t="s">
+    <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="6" t="s">
         <v>15</v>
       </c>
       <c r="G22" s="2"/>
@@ -1375,10 +1440,15 @@
       <c r="X22" s="2"/>
       <c r="Y22" s="2"/>
     </row>
-    <row r="23">
-      <c r="A23" s="6" t="s">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
         <v>71</v>
       </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -1399,23 +1469,23 @@
       <c r="X23" s="2"/>
       <c r="Y23" s="2"/>
     </row>
-    <row r="24">
-      <c r="A24" s="6" t="s">
+    <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="6" t="s">
         <v>15</v>
       </c>
       <c r="G24" s="2"/>
@@ -1438,23 +1508,23 @@
       <c r="X24" s="2"/>
       <c r="Y24" s="2"/>
     </row>
-    <row r="25">
-      <c r="A25" s="6" t="s">
+    <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="6" t="s">
         <v>15</v>
       </c>
       <c r="G25" s="2"/>
@@ -1477,23 +1547,23 @@
       <c r="X25" s="2"/>
       <c r="Y25" s="2"/>
     </row>
-    <row r="26">
-      <c r="A26" s="6" t="s">
+    <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="6" t="s">
         <v>15</v>
       </c>
       <c r="G26" s="2"/>
@@ -1516,10 +1586,15 @@
       <c r="X26" s="2"/>
       <c r="Y26" s="2"/>
     </row>
-    <row r="27">
-      <c r="A27" s="6" t="s">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A27" s="10" t="s">
         <v>86</v>
       </c>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
@@ -1540,23 +1615,23 @@
       <c r="X27" s="2"/>
       <c r="Y27" s="2"/>
     </row>
-    <row r="28">
-      <c r="A28" s="6" t="s">
+    <row r="28" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="6" t="s">
         <v>15</v>
       </c>
       <c r="G28" s="2"/>
@@ -1579,10 +1654,15 @@
       <c r="X28" s="2"/>
       <c r="Y28" s="2"/>
     </row>
-    <row r="29">
-      <c r="A29" s="6" t="s">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A29" s="10" t="s">
         <v>92</v>
       </c>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
@@ -1603,23 +1683,23 @@
       <c r="X29" s="2"/>
       <c r="Y29" s="2"/>
     </row>
-    <row r="30">
-      <c r="A30" s="6" t="s">
+    <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F30" s="8" t="s">
+      <c r="F30" s="6" t="s">
         <v>15</v>
       </c>
       <c r="G30" s="2"/>
@@ -1642,10 +1722,15 @@
       <c r="X30" s="2"/>
       <c r="Y30" s="2"/>
     </row>
-    <row r="31">
-      <c r="A31" s="6" t="s">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A31" s="10" t="s">
         <v>98</v>
       </c>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
@@ -1666,23 +1751,23 @@
       <c r="X31" s="2"/>
       <c r="Y31" s="2"/>
     </row>
-    <row r="32">
-      <c r="A32" s="6" t="s">
+    <row r="32" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="F32" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G32" s="2"/>
@@ -1705,17 +1790,19 @@
       <c r="X32" s="2"/>
       <c r="Y32" s="2"/>
     </row>
-    <row r="33">
-      <c r="A33" s="6" t="s">
+    <row r="33" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="F33" s="8" t="s">
+      <c r="F33" s="6" t="s">
         <v>15</v>
       </c>
       <c r="G33" s="2"/>
@@ -1738,7 +1825,7 @@
       <c r="X33" s="2"/>
       <c r="Y33" s="2"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1765,7 +1852,7 @@
       <c r="X34" s="2"/>
       <c r="Y34" s="2"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1792,7 +1879,7 @@
       <c r="X35" s="2"/>
       <c r="Y35" s="2"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1819,7 +1906,7 @@
       <c r="X36" s="2"/>
       <c r="Y36" s="2"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1846,7 +1933,7 @@
       <c r="X37" s="2"/>
       <c r="Y37" s="2"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1873,7 +1960,7 @@
       <c r="X38" s="2"/>
       <c r="Y38" s="2"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1900,7 +1987,7 @@
       <c r="X39" s="2"/>
       <c r="Y39" s="2"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1927,7 +2014,7 @@
       <c r="X40" s="2"/>
       <c r="Y40" s="2"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -1954,7 +2041,7 @@
       <c r="X41" s="2"/>
       <c r="Y41" s="2"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -1981,7 +2068,7 @@
       <c r="X42" s="2"/>
       <c r="Y42" s="2"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -2008,7 +2095,7 @@
       <c r="X43" s="2"/>
       <c r="Y43" s="2"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -2035,7 +2122,7 @@
       <c r="X44" s="2"/>
       <c r="Y44" s="2"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -2062,7 +2149,7 @@
       <c r="X45" s="2"/>
       <c r="Y45" s="2"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -2089,7 +2176,7 @@
       <c r="X46" s="2"/>
       <c r="Y46" s="2"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -2116,7 +2203,7 @@
       <c r="X47" s="2"/>
       <c r="Y47" s="2"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -2143,7 +2230,7 @@
       <c r="X48" s="2"/>
       <c r="Y48" s="2"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -2170,7 +2257,7 @@
       <c r="X49" s="2"/>
       <c r="Y49" s="2"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -2197,7 +2284,7 @@
       <c r="X50" s="2"/>
       <c r="Y50" s="2"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -2224,7 +2311,7 @@
       <c r="X51" s="2"/>
       <c r="Y51" s="2"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -2251,7 +2338,7 @@
       <c r="X52" s="2"/>
       <c r="Y52" s="2"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -2278,7 +2365,7 @@
       <c r="X53" s="2"/>
       <c r="Y53" s="2"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -2305,7 +2392,7 @@
       <c r="X54" s="2"/>
       <c r="Y54" s="2"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -2332,7 +2419,7 @@
       <c r="X55" s="2"/>
       <c r="Y55" s="2"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -2359,7 +2446,7 @@
       <c r="X56" s="2"/>
       <c r="Y56" s="2"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -2386,7 +2473,7 @@
       <c r="X57" s="2"/>
       <c r="Y57" s="2"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -2413,7 +2500,7 @@
       <c r="X58" s="2"/>
       <c r="Y58" s="2"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -2440,7 +2527,7 @@
       <c r="X59" s="2"/>
       <c r="Y59" s="2"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -2467,7 +2554,7 @@
       <c r="X60" s="2"/>
       <c r="Y60" s="2"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -2494,7 +2581,7 @@
       <c r="X61" s="2"/>
       <c r="Y61" s="2"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -2521,7 +2608,7 @@
       <c r="X62" s="2"/>
       <c r="Y62" s="2"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -2548,7 +2635,7 @@
       <c r="X63" s="2"/>
       <c r="Y63" s="2"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -2575,7 +2662,7 @@
       <c r="X64" s="2"/>
       <c r="Y64" s="2"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -2602,7 +2689,7 @@
       <c r="X65" s="2"/>
       <c r="Y65" s="2"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -2629,7 +2716,7 @@
       <c r="X66" s="2"/>
       <c r="Y66" s="2"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -2656,7 +2743,7 @@
       <c r="X67" s="2"/>
       <c r="Y67" s="2"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -2683,7 +2770,7 @@
       <c r="X68" s="2"/>
       <c r="Y68" s="2"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -2710,7 +2797,7 @@
       <c r="X69" s="2"/>
       <c r="Y69" s="2"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -2737,7 +2824,7 @@
       <c r="X70" s="2"/>
       <c r="Y70" s="2"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -2764,7 +2851,7 @@
       <c r="X71" s="2"/>
       <c r="Y71" s="2"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -2791,7 +2878,7 @@
       <c r="X72" s="2"/>
       <c r="Y72" s="2"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -2818,7 +2905,7 @@
       <c r="X73" s="2"/>
       <c r="Y73" s="2"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -2845,7 +2932,7 @@
       <c r="X74" s="2"/>
       <c r="Y74" s="2"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -2872,7 +2959,7 @@
       <c r="X75" s="2"/>
       <c r="Y75" s="2"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -2899,7 +2986,7 @@
       <c r="X76" s="2"/>
       <c r="Y76" s="2"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -2926,7 +3013,7 @@
       <c r="X77" s="2"/>
       <c r="Y77" s="2"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -2953,7 +3040,7 @@
       <c r="X78" s="2"/>
       <c r="Y78" s="2"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -2980,7 +3067,7 @@
       <c r="X79" s="2"/>
       <c r="Y79" s="2"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -3007,7 +3094,7 @@
       <c r="X80" s="2"/>
       <c r="Y80" s="2"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -3034,7 +3121,7 @@
       <c r="X81" s="2"/>
       <c r="Y81" s="2"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -3061,7 +3148,7 @@
       <c r="X82" s="2"/>
       <c r="Y82" s="2"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -3088,7 +3175,7 @@
       <c r="X83" s="2"/>
       <c r="Y83" s="2"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -3115,7 +3202,7 @@
       <c r="X84" s="2"/>
       <c r="Y84" s="2"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -3142,7 +3229,7 @@
       <c r="X85" s="2"/>
       <c r="Y85" s="2"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -3169,7 +3256,7 @@
       <c r="X86" s="2"/>
       <c r="Y86" s="2"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -3196,7 +3283,7 @@
       <c r="X87" s="2"/>
       <c r="Y87" s="2"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -3223,7 +3310,7 @@
       <c r="X88" s="2"/>
       <c r="Y88" s="2"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -3250,7 +3337,7 @@
       <c r="X89" s="2"/>
       <c r="Y89" s="2"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -3277,7 +3364,7 @@
       <c r="X90" s="2"/>
       <c r="Y90" s="2"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -3304,7 +3391,7 @@
       <c r="X91" s="2"/>
       <c r="Y91" s="2"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -3331,7 +3418,7 @@
       <c r="X92" s="2"/>
       <c r="Y92" s="2"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -3358,7 +3445,7 @@
       <c r="X93" s="2"/>
       <c r="Y93" s="2"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -3385,7 +3472,7 @@
       <c r="X94" s="2"/>
       <c r="Y94" s="2"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -3412,7 +3499,7 @@
       <c r="X95" s="2"/>
       <c r="Y95" s="2"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -3439,7 +3526,7 @@
       <c r="X96" s="2"/>
       <c r="Y96" s="2"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -3466,7 +3553,7 @@
       <c r="X97" s="2"/>
       <c r="Y97" s="2"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -3493,7 +3580,7 @@
       <c r="X98" s="2"/>
       <c r="Y98" s="2"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -3520,7 +3607,7 @@
       <c r="X99" s="2"/>
       <c r="Y99" s="2"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -3547,7 +3634,7 @@
       <c r="X100" s="2"/>
       <c r="Y100" s="2"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -3574,7 +3661,7 @@
       <c r="X101" s="2"/>
       <c r="Y101" s="2"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -3601,7 +3688,7 @@
       <c r="X102" s="2"/>
       <c r="Y102" s="2"/>
     </row>
-    <row r="103">
+    <row r="103" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -3628,7 +3715,7 @@
       <c r="X103" s="2"/>
       <c r="Y103" s="2"/>
     </row>
-    <row r="104">
+    <row r="104" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -3655,7 +3742,7 @@
       <c r="X104" s="2"/>
       <c r="Y104" s="2"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -3682,7 +3769,7 @@
       <c r="X105" s="2"/>
       <c r="Y105" s="2"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -3709,7 +3796,7 @@
       <c r="X106" s="2"/>
       <c r="Y106" s="2"/>
     </row>
-    <row r="107">
+    <row r="107" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -3736,7 +3823,7 @@
       <c r="X107" s="2"/>
       <c r="Y107" s="2"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -3763,7 +3850,7 @@
       <c r="X108" s="2"/>
       <c r="Y108" s="2"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -3790,7 +3877,7 @@
       <c r="X109" s="2"/>
       <c r="Y109" s="2"/>
     </row>
-    <row r="110">
+    <row r="110" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -3817,7 +3904,7 @@
       <c r="X110" s="2"/>
       <c r="Y110" s="2"/>
     </row>
-    <row r="111">
+    <row r="111" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -3844,7 +3931,7 @@
       <c r="X111" s="2"/>
       <c r="Y111" s="2"/>
     </row>
-    <row r="112">
+    <row r="112" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -3871,7 +3958,7 @@
       <c r="X112" s="2"/>
       <c r="Y112" s="2"/>
     </row>
-    <row r="113">
+    <row r="113" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -3898,7 +3985,7 @@
       <c r="X113" s="2"/>
       <c r="Y113" s="2"/>
     </row>
-    <row r="114">
+    <row r="114" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -3925,7 +4012,7 @@
       <c r="X114" s="2"/>
       <c r="Y114" s="2"/>
     </row>
-    <row r="115">
+    <row r="115" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -3952,7 +4039,7 @@
       <c r="X115" s="2"/>
       <c r="Y115" s="2"/>
     </row>
-    <row r="116">
+    <row r="116" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -3979,7 +4066,7 @@
       <c r="X116" s="2"/>
       <c r="Y116" s="2"/>
     </row>
-    <row r="117">
+    <row r="117" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -4006,7 +4093,7 @@
       <c r="X117" s="2"/>
       <c r="Y117" s="2"/>
     </row>
-    <row r="118">
+    <row r="118" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -4033,7 +4120,7 @@
       <c r="X118" s="2"/>
       <c r="Y118" s="2"/>
     </row>
-    <row r="119">
+    <row r="119" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -4060,7 +4147,7 @@
       <c r="X119" s="2"/>
       <c r="Y119" s="2"/>
     </row>
-    <row r="120">
+    <row r="120" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -4087,7 +4174,7 @@
       <c r="X120" s="2"/>
       <c r="Y120" s="2"/>
     </row>
-    <row r="121">
+    <row r="121" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -4114,7 +4201,7 @@
       <c r="X121" s="2"/>
       <c r="Y121" s="2"/>
     </row>
-    <row r="122">
+    <row r="122" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -4141,7 +4228,7 @@
       <c r="X122" s="2"/>
       <c r="Y122" s="2"/>
     </row>
-    <row r="123">
+    <row r="123" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -4168,7 +4255,7 @@
       <c r="X123" s="2"/>
       <c r="Y123" s="2"/>
     </row>
-    <row r="124">
+    <row r="124" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -4195,7 +4282,7 @@
       <c r="X124" s="2"/>
       <c r="Y124" s="2"/>
     </row>
-    <row r="125">
+    <row r="125" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -4222,7 +4309,7 @@
       <c r="X125" s="2"/>
       <c r="Y125" s="2"/>
     </row>
-    <row r="126">
+    <row r="126" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -4249,7 +4336,7 @@
       <c r="X126" s="2"/>
       <c r="Y126" s="2"/>
     </row>
-    <row r="127">
+    <row r="127" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -4276,7 +4363,7 @@
       <c r="X127" s="2"/>
       <c r="Y127" s="2"/>
     </row>
-    <row r="128">
+    <row r="128" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -4303,7 +4390,7 @@
       <c r="X128" s="2"/>
       <c r="Y128" s="2"/>
     </row>
-    <row r="129">
+    <row r="129" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -4330,7 +4417,7 @@
       <c r="X129" s="2"/>
       <c r="Y129" s="2"/>
     </row>
-    <row r="130">
+    <row r="130" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -4357,7 +4444,7 @@
       <c r="X130" s="2"/>
       <c r="Y130" s="2"/>
     </row>
-    <row r="131">
+    <row r="131" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -4384,7 +4471,7 @@
       <c r="X131" s="2"/>
       <c r="Y131" s="2"/>
     </row>
-    <row r="132">
+    <row r="132" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -4411,7 +4498,7 @@
       <c r="X132" s="2"/>
       <c r="Y132" s="2"/>
     </row>
-    <row r="133">
+    <row r="133" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -4438,7 +4525,7 @@
       <c r="X133" s="2"/>
       <c r="Y133" s="2"/>
     </row>
-    <row r="134">
+    <row r="134" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -4465,7 +4552,7 @@
       <c r="X134" s="2"/>
       <c r="Y134" s="2"/>
     </row>
-    <row r="135">
+    <row r="135" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -4492,7 +4579,7 @@
       <c r="X135" s="2"/>
       <c r="Y135" s="2"/>
     </row>
-    <row r="136">
+    <row r="136" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -4519,7 +4606,7 @@
       <c r="X136" s="2"/>
       <c r="Y136" s="2"/>
     </row>
-    <row r="137">
+    <row r="137" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -4546,7 +4633,7 @@
       <c r="X137" s="2"/>
       <c r="Y137" s="2"/>
     </row>
-    <row r="138">
+    <row r="138" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -4573,7 +4660,7 @@
       <c r="X138" s="2"/>
       <c r="Y138" s="2"/>
     </row>
-    <row r="139">
+    <row r="139" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -4600,7 +4687,7 @@
       <c r="X139" s="2"/>
       <c r="Y139" s="2"/>
     </row>
-    <row r="140">
+    <row r="140" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -4627,7 +4714,7 @@
       <c r="X140" s="2"/>
       <c r="Y140" s="2"/>
     </row>
-    <row r="141">
+    <row r="141" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -4654,7 +4741,7 @@
       <c r="X141" s="2"/>
       <c r="Y141" s="2"/>
     </row>
-    <row r="142">
+    <row r="142" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -4681,7 +4768,7 @@
       <c r="X142" s="2"/>
       <c r="Y142" s="2"/>
     </row>
-    <row r="143">
+    <row r="143" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -4708,7 +4795,7 @@
       <c r="X143" s="2"/>
       <c r="Y143" s="2"/>
     </row>
-    <row r="144">
+    <row r="144" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -4735,7 +4822,7 @@
       <c r="X144" s="2"/>
       <c r="Y144" s="2"/>
     </row>
-    <row r="145">
+    <row r="145" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -4762,7 +4849,7 @@
       <c r="X145" s="2"/>
       <c r="Y145" s="2"/>
     </row>
-    <row r="146">
+    <row r="146" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -4789,7 +4876,7 @@
       <c r="X146" s="2"/>
       <c r="Y146" s="2"/>
     </row>
-    <row r="147">
+    <row r="147" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -4816,7 +4903,7 @@
       <c r="X147" s="2"/>
       <c r="Y147" s="2"/>
     </row>
-    <row r="148">
+    <row r="148" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -4843,7 +4930,7 @@
       <c r="X148" s="2"/>
       <c r="Y148" s="2"/>
     </row>
-    <row r="149">
+    <row r="149" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -4870,7 +4957,7 @@
       <c r="X149" s="2"/>
       <c r="Y149" s="2"/>
     </row>
-    <row r="150">
+    <row r="150" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -4897,7 +4984,7 @@
       <c r="X150" s="2"/>
       <c r="Y150" s="2"/>
     </row>
-    <row r="151">
+    <row r="151" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -4924,7 +5011,7 @@
       <c r="X151" s="2"/>
       <c r="Y151" s="2"/>
     </row>
-    <row r="152">
+    <row r="152" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -4951,7 +5038,7 @@
       <c r="X152" s="2"/>
       <c r="Y152" s="2"/>
     </row>
-    <row r="153">
+    <row r="153" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -4978,7 +5065,7 @@
       <c r="X153" s="2"/>
       <c r="Y153" s="2"/>
     </row>
-    <row r="154">
+    <row r="154" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -5005,7 +5092,7 @@
       <c r="X154" s="2"/>
       <c r="Y154" s="2"/>
     </row>
-    <row r="155">
+    <row r="155" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -5032,7 +5119,7 @@
       <c r="X155" s="2"/>
       <c r="Y155" s="2"/>
     </row>
-    <row r="156">
+    <row r="156" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -5059,7 +5146,7 @@
       <c r="X156" s="2"/>
       <c r="Y156" s="2"/>
     </row>
-    <row r="157">
+    <row r="157" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -5086,7 +5173,7 @@
       <c r="X157" s="2"/>
       <c r="Y157" s="2"/>
     </row>
-    <row r="158">
+    <row r="158" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -5113,7 +5200,7 @@
       <c r="X158" s="2"/>
       <c r="Y158" s="2"/>
     </row>
-    <row r="159">
+    <row r="159" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -5140,7 +5227,7 @@
       <c r="X159" s="2"/>
       <c r="Y159" s="2"/>
     </row>
-    <row r="160">
+    <row r="160" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -5167,7 +5254,7 @@
       <c r="X160" s="2"/>
       <c r="Y160" s="2"/>
     </row>
-    <row r="161">
+    <row r="161" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -5194,7 +5281,7 @@
       <c r="X161" s="2"/>
       <c r="Y161" s="2"/>
     </row>
-    <row r="162">
+    <row r="162" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -5221,7 +5308,7 @@
       <c r="X162" s="2"/>
       <c r="Y162" s="2"/>
     </row>
-    <row r="163">
+    <row r="163" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -5248,7 +5335,7 @@
       <c r="X163" s="2"/>
       <c r="Y163" s="2"/>
     </row>
-    <row r="164">
+    <row r="164" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -5275,7 +5362,7 @@
       <c r="X164" s="2"/>
       <c r="Y164" s="2"/>
     </row>
-    <row r="165">
+    <row r="165" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -5302,7 +5389,7 @@
       <c r="X165" s="2"/>
       <c r="Y165" s="2"/>
     </row>
-    <row r="166">
+    <row r="166" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -5329,7 +5416,7 @@
       <c r="X166" s="2"/>
       <c r="Y166" s="2"/>
     </row>
-    <row r="167">
+    <row r="167" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -5356,7 +5443,7 @@
       <c r="X167" s="2"/>
       <c r="Y167" s="2"/>
     </row>
-    <row r="168">
+    <row r="168" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -5383,7 +5470,7 @@
       <c r="X168" s="2"/>
       <c r="Y168" s="2"/>
     </row>
-    <row r="169">
+    <row r="169" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -5410,7 +5497,7 @@
       <c r="X169" s="2"/>
       <c r="Y169" s="2"/>
     </row>
-    <row r="170">
+    <row r="170" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -5437,7 +5524,7 @@
       <c r="X170" s="2"/>
       <c r="Y170" s="2"/>
     </row>
-    <row r="171">
+    <row r="171" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -5464,7 +5551,7 @@
       <c r="X171" s="2"/>
       <c r="Y171" s="2"/>
     </row>
-    <row r="172">
+    <row r="172" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -5491,7 +5578,7 @@
       <c r="X172" s="2"/>
       <c r="Y172" s="2"/>
     </row>
-    <row r="173">
+    <row r="173" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -5518,7 +5605,7 @@
       <c r="X173" s="2"/>
       <c r="Y173" s="2"/>
     </row>
-    <row r="174">
+    <row r="174" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -5545,7 +5632,7 @@
       <c r="X174" s="2"/>
       <c r="Y174" s="2"/>
     </row>
-    <row r="175">
+    <row r="175" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -5572,7 +5659,7 @@
       <c r="X175" s="2"/>
       <c r="Y175" s="2"/>
     </row>
-    <row r="176">
+    <row r="176" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -5599,7 +5686,7 @@
       <c r="X176" s="2"/>
       <c r="Y176" s="2"/>
     </row>
-    <row r="177">
+    <row r="177" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -5626,7 +5713,7 @@
       <c r="X177" s="2"/>
       <c r="Y177" s="2"/>
     </row>
-    <row r="178">
+    <row r="178" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -5653,7 +5740,7 @@
       <c r="X178" s="2"/>
       <c r="Y178" s="2"/>
     </row>
-    <row r="179">
+    <row r="179" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -5680,7 +5767,7 @@
       <c r="X179" s="2"/>
       <c r="Y179" s="2"/>
     </row>
-    <row r="180">
+    <row r="180" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -5707,7 +5794,7 @@
       <c r="X180" s="2"/>
       <c r="Y180" s="2"/>
     </row>
-    <row r="181">
+    <row r="181" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -5734,7 +5821,7 @@
       <c r="X181" s="2"/>
       <c r="Y181" s="2"/>
     </row>
-    <row r="182">
+    <row r="182" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -5761,7 +5848,7 @@
       <c r="X182" s="2"/>
       <c r="Y182" s="2"/>
     </row>
-    <row r="183">
+    <row r="183" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -5788,7 +5875,7 @@
       <c r="X183" s="2"/>
       <c r="Y183" s="2"/>
     </row>
-    <row r="184">
+    <row r="184" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -5815,7 +5902,7 @@
       <c r="X184" s="2"/>
       <c r="Y184" s="2"/>
     </row>
-    <row r="185">
+    <row r="185" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -5842,7 +5929,7 @@
       <c r="X185" s="2"/>
       <c r="Y185" s="2"/>
     </row>
-    <row r="186">
+    <row r="186" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -5869,7 +5956,7 @@
       <c r="X186" s="2"/>
       <c r="Y186" s="2"/>
     </row>
-    <row r="187">
+    <row r="187" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -5896,7 +5983,7 @@
       <c r="X187" s="2"/>
       <c r="Y187" s="2"/>
     </row>
-    <row r="188">
+    <row r="188" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -5923,7 +6010,7 @@
       <c r="X188" s="2"/>
       <c r="Y188" s="2"/>
     </row>
-    <row r="189">
+    <row r="189" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -5950,7 +6037,7 @@
       <c r="X189" s="2"/>
       <c r="Y189" s="2"/>
     </row>
-    <row r="190">
+    <row r="190" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -5977,7 +6064,7 @@
       <c r="X190" s="2"/>
       <c r="Y190" s="2"/>
     </row>
-    <row r="191">
+    <row r="191" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -6004,7 +6091,7 @@
       <c r="X191" s="2"/>
       <c r="Y191" s="2"/>
     </row>
-    <row r="192">
+    <row r="192" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -6031,7 +6118,7 @@
       <c r="X192" s="2"/>
       <c r="Y192" s="2"/>
     </row>
-    <row r="193">
+    <row r="193" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -6058,7 +6145,7 @@
       <c r="X193" s="2"/>
       <c r="Y193" s="2"/>
     </row>
-    <row r="194">
+    <row r="194" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -6085,7 +6172,7 @@
       <c r="X194" s="2"/>
       <c r="Y194" s="2"/>
     </row>
-    <row r="195">
+    <row r="195" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -6112,7 +6199,7 @@
       <c r="X195" s="2"/>
       <c r="Y195" s="2"/>
     </row>
-    <row r="196">
+    <row r="196" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -6139,7 +6226,7 @@
       <c r="X196" s="2"/>
       <c r="Y196" s="2"/>
     </row>
-    <row r="197">
+    <row r="197" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -6166,7 +6253,7 @@
       <c r="X197" s="2"/>
       <c r="Y197" s="2"/>
     </row>
-    <row r="198">
+    <row r="198" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -6193,7 +6280,7 @@
       <c r="X198" s="2"/>
       <c r="Y198" s="2"/>
     </row>
-    <row r="199">
+    <row r="199" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -6220,7 +6307,7 @@
       <c r="X199" s="2"/>
       <c r="Y199" s="2"/>
     </row>
-    <row r="200">
+    <row r="200" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -6247,7 +6334,7 @@
       <c r="X200" s="2"/>
       <c r="Y200" s="2"/>
     </row>
-    <row r="201">
+    <row r="201" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -6274,7 +6361,7 @@
       <c r="X201" s="2"/>
       <c r="Y201" s="2"/>
     </row>
-    <row r="202">
+    <row r="202" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -6301,7 +6388,7 @@
       <c r="X202" s="2"/>
       <c r="Y202" s="2"/>
     </row>
-    <row r="203">
+    <row r="203" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -6328,7 +6415,7 @@
       <c r="X203" s="2"/>
       <c r="Y203" s="2"/>
     </row>
-    <row r="204">
+    <row r="204" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -6355,7 +6442,7 @@
       <c r="X204" s="2"/>
       <c r="Y204" s="2"/>
     </row>
-    <row r="205">
+    <row r="205" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -6382,7 +6469,7 @@
       <c r="X205" s="2"/>
       <c r="Y205" s="2"/>
     </row>
-    <row r="206">
+    <row r="206" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -6409,7 +6496,7 @@
       <c r="X206" s="2"/>
       <c r="Y206" s="2"/>
     </row>
-    <row r="207">
+    <row r="207" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -6436,7 +6523,7 @@
       <c r="X207" s="2"/>
       <c r="Y207" s="2"/>
     </row>
-    <row r="208">
+    <row r="208" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -6463,7 +6550,7 @@
       <c r="X208" s="2"/>
       <c r="Y208" s="2"/>
     </row>
-    <row r="209">
+    <row r="209" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -6490,7 +6577,7 @@
       <c r="X209" s="2"/>
       <c r="Y209" s="2"/>
     </row>
-    <row r="210">
+    <row r="210" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -6517,7 +6604,7 @@
       <c r="X210" s="2"/>
       <c r="Y210" s="2"/>
     </row>
-    <row r="211">
+    <row r="211" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -6544,7 +6631,7 @@
       <c r="X211" s="2"/>
       <c r="Y211" s="2"/>
     </row>
-    <row r="212">
+    <row r="212" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -6571,7 +6658,7 @@
       <c r="X212" s="2"/>
       <c r="Y212" s="2"/>
     </row>
-    <row r="213">
+    <row r="213" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -6598,7 +6685,7 @@
       <c r="X213" s="2"/>
       <c r="Y213" s="2"/>
     </row>
-    <row r="214">
+    <row r="214" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -6625,7 +6712,7 @@
       <c r="X214" s="2"/>
       <c r="Y214" s="2"/>
     </row>
-    <row r="215">
+    <row r="215" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -6652,7 +6739,7 @@
       <c r="X215" s="2"/>
       <c r="Y215" s="2"/>
     </row>
-    <row r="216">
+    <row r="216" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -6679,7 +6766,7 @@
       <c r="X216" s="2"/>
       <c r="Y216" s="2"/>
     </row>
-    <row r="217">
+    <row r="217" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -6706,7 +6793,7 @@
       <c r="X217" s="2"/>
       <c r="Y217" s="2"/>
     </row>
-    <row r="218">
+    <row r="218" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -6733,7 +6820,7 @@
       <c r="X218" s="2"/>
       <c r="Y218" s="2"/>
     </row>
-    <row r="219">
+    <row r="219" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -6760,7 +6847,7 @@
       <c r="X219" s="2"/>
       <c r="Y219" s="2"/>
     </row>
-    <row r="220">
+    <row r="220" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -6787,7 +6874,7 @@
       <c r="X220" s="2"/>
       <c r="Y220" s="2"/>
     </row>
-    <row r="221">
+    <row r="221" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
@@ -6814,7 +6901,7 @@
       <c r="X221" s="2"/>
       <c r="Y221" s="2"/>
     </row>
-    <row r="222">
+    <row r="222" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
@@ -6841,7 +6928,7 @@
       <c r="X222" s="2"/>
       <c r="Y222" s="2"/>
     </row>
-    <row r="223">
+    <row r="223" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -6868,7 +6955,7 @@
       <c r="X223" s="2"/>
       <c r="Y223" s="2"/>
     </row>
-    <row r="224">
+    <row r="224" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
@@ -6895,7 +6982,7 @@
       <c r="X224" s="2"/>
       <c r="Y224" s="2"/>
     </row>
-    <row r="225">
+    <row r="225" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
@@ -6922,7 +7009,7 @@
       <c r="X225" s="2"/>
       <c r="Y225" s="2"/>
     </row>
-    <row r="226">
+    <row r="226" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
@@ -6949,7 +7036,7 @@
       <c r="X226" s="2"/>
       <c r="Y226" s="2"/>
     </row>
-    <row r="227">
+    <row r="227" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
@@ -6976,7 +7063,7 @@
       <c r="X227" s="2"/>
       <c r="Y227" s="2"/>
     </row>
-    <row r="228">
+    <row r="228" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
@@ -7003,7 +7090,7 @@
       <c r="X228" s="2"/>
       <c r="Y228" s="2"/>
     </row>
-    <row r="229">
+    <row r="229" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
@@ -7030,7 +7117,7 @@
       <c r="X229" s="2"/>
       <c r="Y229" s="2"/>
     </row>
-    <row r="230">
+    <row r="230" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -7057,7 +7144,7 @@
       <c r="X230" s="2"/>
       <c r="Y230" s="2"/>
     </row>
-    <row r="231">
+    <row r="231" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -7084,7 +7171,7 @@
       <c r="X231" s="2"/>
       <c r="Y231" s="2"/>
     </row>
-    <row r="232">
+    <row r="232" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
@@ -7111,7 +7198,7 @@
       <c r="X232" s="2"/>
       <c r="Y232" s="2"/>
     </row>
-    <row r="233">
+    <row r="233" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
@@ -7138,7 +7225,7 @@
       <c r="X233" s="2"/>
       <c r="Y233" s="2"/>
     </row>
-    <row r="234">
+    <row r="234" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
@@ -7165,7 +7252,7 @@
       <c r="X234" s="2"/>
       <c r="Y234" s="2"/>
     </row>
-    <row r="235">
+    <row r="235" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
@@ -7192,7 +7279,7 @@
       <c r="X235" s="2"/>
       <c r="Y235" s="2"/>
     </row>
-    <row r="236">
+    <row r="236" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
@@ -7219,7 +7306,7 @@
       <c r="X236" s="2"/>
       <c r="Y236" s="2"/>
     </row>
-    <row r="237">
+    <row r="237" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -7246,7 +7333,7 @@
       <c r="X237" s="2"/>
       <c r="Y237" s="2"/>
     </row>
-    <row r="238">
+    <row r="238" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
@@ -7273,7 +7360,7 @@
       <c r="X238" s="2"/>
       <c r="Y238" s="2"/>
     </row>
-    <row r="239">
+    <row r="239" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
@@ -7300,7 +7387,7 @@
       <c r="X239" s="2"/>
       <c r="Y239" s="2"/>
     </row>
-    <row r="240">
+    <row r="240" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
@@ -7327,7 +7414,7 @@
       <c r="X240" s="2"/>
       <c r="Y240" s="2"/>
     </row>
-    <row r="241">
+    <row r="241" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
@@ -7354,7 +7441,7 @@
       <c r="X241" s="2"/>
       <c r="Y241" s="2"/>
     </row>
-    <row r="242">
+    <row r="242" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
@@ -7381,7 +7468,7 @@
       <c r="X242" s="2"/>
       <c r="Y242" s="2"/>
     </row>
-    <row r="243">
+    <row r="243" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
@@ -7408,7 +7495,7 @@
       <c r="X243" s="2"/>
       <c r="Y243" s="2"/>
     </row>
-    <row r="244">
+    <row r="244" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
@@ -7435,7 +7522,7 @@
       <c r="X244" s="2"/>
       <c r="Y244" s="2"/>
     </row>
-    <row r="245">
+    <row r="245" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A245" s="2"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
@@ -7462,7 +7549,7 @@
       <c r="X245" s="2"/>
       <c r="Y245" s="2"/>
     </row>
-    <row r="246">
+    <row r="246" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
@@ -7489,7 +7576,7 @@
       <c r="X246" s="2"/>
       <c r="Y246" s="2"/>
     </row>
-    <row r="247">
+    <row r="247" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
@@ -7516,7 +7603,7 @@
       <c r="X247" s="2"/>
       <c r="Y247" s="2"/>
     </row>
-    <row r="248">
+    <row r="248" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
@@ -7543,7 +7630,7 @@
       <c r="X248" s="2"/>
       <c r="Y248" s="2"/>
     </row>
-    <row r="249">
+    <row r="249" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
@@ -7570,7 +7657,7 @@
       <c r="X249" s="2"/>
       <c r="Y249" s="2"/>
     </row>
-    <row r="250">
+    <row r="250" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
@@ -7597,7 +7684,7 @@
       <c r="X250" s="2"/>
       <c r="Y250" s="2"/>
     </row>
-    <row r="251">
+    <row r="251" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
@@ -7624,7 +7711,7 @@
       <c r="X251" s="2"/>
       <c r="Y251" s="2"/>
     </row>
-    <row r="252">
+    <row r="252" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
@@ -7651,7 +7738,7 @@
       <c r="X252" s="2"/>
       <c r="Y252" s="2"/>
     </row>
-    <row r="253">
+    <row r="253" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
@@ -7678,7 +7765,7 @@
       <c r="X253" s="2"/>
       <c r="Y253" s="2"/>
     </row>
-    <row r="254">
+    <row r="254" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
@@ -7705,7 +7792,7 @@
       <c r="X254" s="2"/>
       <c r="Y254" s="2"/>
     </row>
-    <row r="255">
+    <row r="255" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
@@ -7732,7 +7819,7 @@
       <c r="X255" s="2"/>
       <c r="Y255" s="2"/>
     </row>
-    <row r="256">
+    <row r="256" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
@@ -7759,7 +7846,7 @@
       <c r="X256" s="2"/>
       <c r="Y256" s="2"/>
     </row>
-    <row r="257">
+    <row r="257" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
@@ -7786,7 +7873,7 @@
       <c r="X257" s="2"/>
       <c r="Y257" s="2"/>
     </row>
-    <row r="258">
+    <row r="258" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A258" s="2"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
@@ -7813,7 +7900,7 @@
       <c r="X258" s="2"/>
       <c r="Y258" s="2"/>
     </row>
-    <row r="259">
+    <row r="259" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
@@ -7840,7 +7927,7 @@
       <c r="X259" s="2"/>
       <c r="Y259" s="2"/>
     </row>
-    <row r="260">
+    <row r="260" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
@@ -7867,7 +7954,7 @@
       <c r="X260" s="2"/>
       <c r="Y260" s="2"/>
     </row>
-    <row r="261">
+    <row r="261" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A261" s="2"/>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
@@ -7894,7 +7981,7 @@
       <c r="X261" s="2"/>
       <c r="Y261" s="2"/>
     </row>
-    <row r="262">
+    <row r="262" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A262" s="2"/>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
@@ -7921,7 +8008,7 @@
       <c r="X262" s="2"/>
       <c r="Y262" s="2"/>
     </row>
-    <row r="263">
+    <row r="263" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A263" s="2"/>
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
@@ -7948,7 +8035,7 @@
       <c r="X263" s="2"/>
       <c r="Y263" s="2"/>
     </row>
-    <row r="264">
+    <row r="264" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
@@ -7975,7 +8062,7 @@
       <c r="X264" s="2"/>
       <c r="Y264" s="2"/>
     </row>
-    <row r="265">
+    <row r="265" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A265" s="2"/>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
@@ -8002,7 +8089,7 @@
       <c r="X265" s="2"/>
       <c r="Y265" s="2"/>
     </row>
-    <row r="266">
+    <row r="266" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A266" s="2"/>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
@@ -8029,7 +8116,7 @@
       <c r="X266" s="2"/>
       <c r="Y266" s="2"/>
     </row>
-    <row r="267">
+    <row r="267" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A267" s="2"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
@@ -8056,7 +8143,7 @@
       <c r="X267" s="2"/>
       <c r="Y267" s="2"/>
     </row>
-    <row r="268">
+    <row r="268" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A268" s="2"/>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
@@ -8083,7 +8170,7 @@
       <c r="X268" s="2"/>
       <c r="Y268" s="2"/>
     </row>
-    <row r="269">
+    <row r="269" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A269" s="2"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
@@ -8110,7 +8197,7 @@
       <c r="X269" s="2"/>
       <c r="Y269" s="2"/>
     </row>
-    <row r="270">
+    <row r="270" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A270" s="2"/>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
@@ -8137,7 +8224,7 @@
       <c r="X270" s="2"/>
       <c r="Y270" s="2"/>
     </row>
-    <row r="271">
+    <row r="271" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A271" s="2"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
@@ -8164,7 +8251,7 @@
       <c r="X271" s="2"/>
       <c r="Y271" s="2"/>
     </row>
-    <row r="272">
+    <row r="272" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A272" s="2"/>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
@@ -8191,7 +8278,7 @@
       <c r="X272" s="2"/>
       <c r="Y272" s="2"/>
     </row>
-    <row r="273">
+    <row r="273" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A273" s="2"/>
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
@@ -8218,7 +8305,7 @@
       <c r="X273" s="2"/>
       <c r="Y273" s="2"/>
     </row>
-    <row r="274">
+    <row r="274" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A274" s="2"/>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
@@ -8245,7 +8332,7 @@
       <c r="X274" s="2"/>
       <c r="Y274" s="2"/>
     </row>
-    <row r="275">
+    <row r="275" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A275" s="2"/>
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
@@ -8272,7 +8359,7 @@
       <c r="X275" s="2"/>
       <c r="Y275" s="2"/>
     </row>
-    <row r="276">
+    <row r="276" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A276" s="2"/>
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
@@ -8299,7 +8386,7 @@
       <c r="X276" s="2"/>
       <c r="Y276" s="2"/>
     </row>
-    <row r="277">
+    <row r="277" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A277" s="2"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
@@ -8326,7 +8413,7 @@
       <c r="X277" s="2"/>
       <c r="Y277" s="2"/>
     </row>
-    <row r="278">
+    <row r="278" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A278" s="2"/>
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
@@ -8353,7 +8440,7 @@
       <c r="X278" s="2"/>
       <c r="Y278" s="2"/>
     </row>
-    <row r="279">
+    <row r="279" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
@@ -8380,7 +8467,7 @@
       <c r="X279" s="2"/>
       <c r="Y279" s="2"/>
     </row>
-    <row r="280">
+    <row r="280" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
@@ -8407,7 +8494,7 @@
       <c r="X280" s="2"/>
       <c r="Y280" s="2"/>
     </row>
-    <row r="281">
+    <row r="281" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
@@ -8434,7 +8521,7 @@
       <c r="X281" s="2"/>
       <c r="Y281" s="2"/>
     </row>
-    <row r="282">
+    <row r="282" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
@@ -8461,7 +8548,7 @@
       <c r="X282" s="2"/>
       <c r="Y282" s="2"/>
     </row>
-    <row r="283">
+    <row r="283" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A283" s="2"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
@@ -8488,7 +8575,7 @@
       <c r="X283" s="2"/>
       <c r="Y283" s="2"/>
     </row>
-    <row r="284">
+    <row r="284" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
@@ -8515,7 +8602,7 @@
       <c r="X284" s="2"/>
       <c r="Y284" s="2"/>
     </row>
-    <row r="285">
+    <row r="285" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A285" s="2"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
@@ -8542,7 +8629,7 @@
       <c r="X285" s="2"/>
       <c r="Y285" s="2"/>
     </row>
-    <row r="286">
+    <row r="286" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A286" s="2"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
@@ -8569,7 +8656,7 @@
       <c r="X286" s="2"/>
       <c r="Y286" s="2"/>
     </row>
-    <row r="287">
+    <row r="287" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A287" s="2"/>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
@@ -8596,7 +8683,7 @@
       <c r="X287" s="2"/>
       <c r="Y287" s="2"/>
     </row>
-    <row r="288">
+    <row r="288" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A288" s="2"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
@@ -8623,7 +8710,7 @@
       <c r="X288" s="2"/>
       <c r="Y288" s="2"/>
     </row>
-    <row r="289">
+    <row r="289" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
@@ -8650,7 +8737,7 @@
       <c r="X289" s="2"/>
       <c r="Y289" s="2"/>
     </row>
-    <row r="290">
+    <row r="290" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A290" s="2"/>
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
@@ -8677,7 +8764,7 @@
       <c r="X290" s="2"/>
       <c r="Y290" s="2"/>
     </row>
-    <row r="291">
+    <row r="291" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A291" s="2"/>
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
@@ -8704,7 +8791,7 @@
       <c r="X291" s="2"/>
       <c r="Y291" s="2"/>
     </row>
-    <row r="292">
+    <row r="292" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A292" s="2"/>
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
@@ -8731,7 +8818,7 @@
       <c r="X292" s="2"/>
       <c r="Y292" s="2"/>
     </row>
-    <row r="293">
+    <row r="293" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A293" s="2"/>
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
@@ -8758,7 +8845,7 @@
       <c r="X293" s="2"/>
       <c r="Y293" s="2"/>
     </row>
-    <row r="294">
+    <row r="294" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A294" s="2"/>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
@@ -8785,7 +8872,7 @@
       <c r="X294" s="2"/>
       <c r="Y294" s="2"/>
     </row>
-    <row r="295">
+    <row r="295" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
@@ -8812,7 +8899,7 @@
       <c r="X295" s="2"/>
       <c r="Y295" s="2"/>
     </row>
-    <row r="296">
+    <row r="296" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A296" s="2"/>
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
@@ -8839,7 +8926,7 @@
       <c r="X296" s="2"/>
       <c r="Y296" s="2"/>
     </row>
-    <row r="297">
+    <row r="297" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A297" s="2"/>
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
@@ -8866,7 +8953,7 @@
       <c r="X297" s="2"/>
       <c r="Y297" s="2"/>
     </row>
-    <row r="298">
+    <row r="298" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A298" s="2"/>
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
@@ -8893,7 +8980,7 @@
       <c r="X298" s="2"/>
       <c r="Y298" s="2"/>
     </row>
-    <row r="299">
+    <row r="299" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A299" s="2"/>
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
@@ -8920,7 +9007,7 @@
       <c r="X299" s="2"/>
       <c r="Y299" s="2"/>
     </row>
-    <row r="300">
+    <row r="300" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A300" s="2"/>
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
@@ -8947,7 +9034,7 @@
       <c r="X300" s="2"/>
       <c r="Y300" s="2"/>
     </row>
-    <row r="301">
+    <row r="301" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A301" s="2"/>
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
@@ -8974,7 +9061,7 @@
       <c r="X301" s="2"/>
       <c r="Y301" s="2"/>
     </row>
-    <row r="302">
+    <row r="302" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A302" s="2"/>
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
@@ -9001,7 +9088,7 @@
       <c r="X302" s="2"/>
       <c r="Y302" s="2"/>
     </row>
-    <row r="303">
+    <row r="303" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A303" s="2"/>
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
@@ -9028,7 +9115,7 @@
       <c r="X303" s="2"/>
       <c r="Y303" s="2"/>
     </row>
-    <row r="304">
+    <row r="304" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A304" s="2"/>
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
@@ -9055,7 +9142,7 @@
       <c r="X304" s="2"/>
       <c r="Y304" s="2"/>
     </row>
-    <row r="305">
+    <row r="305" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A305" s="2"/>
       <c r="B305" s="2"/>
       <c r="C305" s="2"/>
@@ -9082,7 +9169,7 @@
       <c r="X305" s="2"/>
       <c r="Y305" s="2"/>
     </row>
-    <row r="306">
+    <row r="306" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A306" s="2"/>
       <c r="B306" s="2"/>
       <c r="C306" s="2"/>
@@ -9109,7 +9196,7 @@
       <c r="X306" s="2"/>
       <c r="Y306" s="2"/>
     </row>
-    <row r="307">
+    <row r="307" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A307" s="2"/>
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
@@ -9136,7 +9223,7 @@
       <c r="X307" s="2"/>
       <c r="Y307" s="2"/>
     </row>
-    <row r="308">
+    <row r="308" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A308" s="2"/>
       <c r="B308" s="2"/>
       <c r="C308" s="2"/>
@@ -9163,7 +9250,7 @@
       <c r="X308" s="2"/>
       <c r="Y308" s="2"/>
     </row>
-    <row r="309">
+    <row r="309" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A309" s="2"/>
       <c r="B309" s="2"/>
       <c r="C309" s="2"/>
@@ -9190,7 +9277,7 @@
       <c r="X309" s="2"/>
       <c r="Y309" s="2"/>
     </row>
-    <row r="310">
+    <row r="310" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A310" s="2"/>
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
@@ -9217,7 +9304,7 @@
       <c r="X310" s="2"/>
       <c r="Y310" s="2"/>
     </row>
-    <row r="311">
+    <row r="311" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A311" s="2"/>
       <c r="B311" s="2"/>
       <c r="C311" s="2"/>
@@ -9244,7 +9331,7 @@
       <c r="X311" s="2"/>
       <c r="Y311" s="2"/>
     </row>
-    <row r="312">
+    <row r="312" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A312" s="2"/>
       <c r="B312" s="2"/>
       <c r="C312" s="2"/>
@@ -9271,7 +9358,7 @@
       <c r="X312" s="2"/>
       <c r="Y312" s="2"/>
     </row>
-    <row r="313">
+    <row r="313" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A313" s="2"/>
       <c r="B313" s="2"/>
       <c r="C313" s="2"/>
@@ -9298,7 +9385,7 @@
       <c r="X313" s="2"/>
       <c r="Y313" s="2"/>
     </row>
-    <row r="314">
+    <row r="314" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A314" s="2"/>
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
@@ -9325,7 +9412,7 @@
       <c r="X314" s="2"/>
       <c r="Y314" s="2"/>
     </row>
-    <row r="315">
+    <row r="315" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A315" s="2"/>
       <c r="B315" s="2"/>
       <c r="C315" s="2"/>
@@ -9352,7 +9439,7 @@
       <c r="X315" s="2"/>
       <c r="Y315" s="2"/>
     </row>
-    <row r="316">
+    <row r="316" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A316" s="2"/>
       <c r="B316" s="2"/>
       <c r="C316" s="2"/>
@@ -9379,7 +9466,7 @@
       <c r="X316" s="2"/>
       <c r="Y316" s="2"/>
     </row>
-    <row r="317">
+    <row r="317" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A317" s="2"/>
       <c r="B317" s="2"/>
       <c r="C317" s="2"/>
@@ -9406,7 +9493,7 @@
       <c r="X317" s="2"/>
       <c r="Y317" s="2"/>
     </row>
-    <row r="318">
+    <row r="318" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A318" s="2"/>
       <c r="B318" s="2"/>
       <c r="C318" s="2"/>
@@ -9433,7 +9520,7 @@
       <c r="X318" s="2"/>
       <c r="Y318" s="2"/>
     </row>
-    <row r="319">
+    <row r="319" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A319" s="2"/>
       <c r="B319" s="2"/>
       <c r="C319" s="2"/>
@@ -9460,7 +9547,7 @@
       <c r="X319" s="2"/>
       <c r="Y319" s="2"/>
     </row>
-    <row r="320">
+    <row r="320" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A320" s="2"/>
       <c r="B320" s="2"/>
       <c r="C320" s="2"/>
@@ -9487,7 +9574,7 @@
       <c r="X320" s="2"/>
       <c r="Y320" s="2"/>
     </row>
-    <row r="321">
+    <row r="321" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A321" s="2"/>
       <c r="B321" s="2"/>
       <c r="C321" s="2"/>
@@ -9514,7 +9601,7 @@
       <c r="X321" s="2"/>
       <c r="Y321" s="2"/>
     </row>
-    <row r="322">
+    <row r="322" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A322" s="2"/>
       <c r="B322" s="2"/>
       <c r="C322" s="2"/>
@@ -9541,7 +9628,7 @@
       <c r="X322" s="2"/>
       <c r="Y322" s="2"/>
     </row>
-    <row r="323">
+    <row r="323" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A323" s="2"/>
       <c r="B323" s="2"/>
       <c r="C323" s="2"/>
@@ -9568,7 +9655,7 @@
       <c r="X323" s="2"/>
       <c r="Y323" s="2"/>
     </row>
-    <row r="324">
+    <row r="324" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A324" s="2"/>
       <c r="B324" s="2"/>
       <c r="C324" s="2"/>
@@ -9595,7 +9682,7 @@
       <c r="X324" s="2"/>
       <c r="Y324" s="2"/>
     </row>
-    <row r="325">
+    <row r="325" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A325" s="2"/>
       <c r="B325" s="2"/>
       <c r="C325" s="2"/>
@@ -9622,7 +9709,7 @@
       <c r="X325" s="2"/>
       <c r="Y325" s="2"/>
     </row>
-    <row r="326">
+    <row r="326" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A326" s="2"/>
       <c r="B326" s="2"/>
       <c r="C326" s="2"/>
@@ -9649,7 +9736,7 @@
       <c r="X326" s="2"/>
       <c r="Y326" s="2"/>
     </row>
-    <row r="327">
+    <row r="327" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A327" s="2"/>
       <c r="B327" s="2"/>
       <c r="C327" s="2"/>
@@ -9676,7 +9763,7 @@
       <c r="X327" s="2"/>
       <c r="Y327" s="2"/>
     </row>
-    <row r="328">
+    <row r="328" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A328" s="2"/>
       <c r="B328" s="2"/>
       <c r="C328" s="2"/>
@@ -9703,7 +9790,7 @@
       <c r="X328" s="2"/>
       <c r="Y328" s="2"/>
     </row>
-    <row r="329">
+    <row r="329" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A329" s="2"/>
       <c r="B329" s="2"/>
       <c r="C329" s="2"/>
@@ -9730,7 +9817,7 @@
       <c r="X329" s="2"/>
       <c r="Y329" s="2"/>
     </row>
-    <row r="330">
+    <row r="330" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A330" s="2"/>
       <c r="B330" s="2"/>
       <c r="C330" s="2"/>
@@ -9757,7 +9844,7 @@
       <c r="X330" s="2"/>
       <c r="Y330" s="2"/>
     </row>
-    <row r="331">
+    <row r="331" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A331" s="2"/>
       <c r="B331" s="2"/>
       <c r="C331" s="2"/>
@@ -9784,7 +9871,7 @@
       <c r="X331" s="2"/>
       <c r="Y331" s="2"/>
     </row>
-    <row r="332">
+    <row r="332" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A332" s="2"/>
       <c r="B332" s="2"/>
       <c r="C332" s="2"/>
@@ -9811,7 +9898,7 @@
       <c r="X332" s="2"/>
       <c r="Y332" s="2"/>
     </row>
-    <row r="333">
+    <row r="333" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A333" s="2"/>
       <c r="B333" s="2"/>
       <c r="C333" s="2"/>
@@ -9838,7 +9925,7 @@
       <c r="X333" s="2"/>
       <c r="Y333" s="2"/>
     </row>
-    <row r="334">
+    <row r="334" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A334" s="2"/>
       <c r="B334" s="2"/>
       <c r="C334" s="2"/>
@@ -9865,7 +9952,7 @@
       <c r="X334" s="2"/>
       <c r="Y334" s="2"/>
     </row>
-    <row r="335">
+    <row r="335" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A335" s="2"/>
       <c r="B335" s="2"/>
       <c r="C335" s="2"/>
@@ -9892,7 +9979,7 @@
       <c r="X335" s="2"/>
       <c r="Y335" s="2"/>
     </row>
-    <row r="336">
+    <row r="336" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A336" s="2"/>
       <c r="B336" s="2"/>
       <c r="C336" s="2"/>
@@ -9919,7 +10006,7 @@
       <c r="X336" s="2"/>
       <c r="Y336" s="2"/>
     </row>
-    <row r="337">
+    <row r="337" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A337" s="2"/>
       <c r="B337" s="2"/>
       <c r="C337" s="2"/>
@@ -9946,7 +10033,7 @@
       <c r="X337" s="2"/>
       <c r="Y337" s="2"/>
     </row>
-    <row r="338">
+    <row r="338" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A338" s="2"/>
       <c r="B338" s="2"/>
       <c r="C338" s="2"/>
@@ -9973,7 +10060,7 @@
       <c r="X338" s="2"/>
       <c r="Y338" s="2"/>
     </row>
-    <row r="339">
+    <row r="339" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A339" s="2"/>
       <c r="B339" s="2"/>
       <c r="C339" s="2"/>
@@ -10000,7 +10087,7 @@
       <c r="X339" s="2"/>
       <c r="Y339" s="2"/>
     </row>
-    <row r="340">
+    <row r="340" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A340" s="2"/>
       <c r="B340" s="2"/>
       <c r="C340" s="2"/>
@@ -10027,7 +10114,7 @@
       <c r="X340" s="2"/>
       <c r="Y340" s="2"/>
     </row>
-    <row r="341">
+    <row r="341" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A341" s="2"/>
       <c r="B341" s="2"/>
       <c r="C341" s="2"/>
@@ -10054,7 +10141,7 @@
       <c r="X341" s="2"/>
       <c r="Y341" s="2"/>
     </row>
-    <row r="342">
+    <row r="342" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A342" s="2"/>
       <c r="B342" s="2"/>
       <c r="C342" s="2"/>
@@ -10081,7 +10168,7 @@
       <c r="X342" s="2"/>
       <c r="Y342" s="2"/>
     </row>
-    <row r="343">
+    <row r="343" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A343" s="2"/>
       <c r="B343" s="2"/>
       <c r="C343" s="2"/>
@@ -10108,7 +10195,7 @@
       <c r="X343" s="2"/>
       <c r="Y343" s="2"/>
     </row>
-    <row r="344">
+    <row r="344" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A344" s="2"/>
       <c r="B344" s="2"/>
       <c r="C344" s="2"/>
@@ -10135,7 +10222,7 @@
       <c r="X344" s="2"/>
       <c r="Y344" s="2"/>
     </row>
-    <row r="345">
+    <row r="345" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A345" s="2"/>
       <c r="B345" s="2"/>
       <c r="C345" s="2"/>
@@ -10162,7 +10249,7 @@
       <c r="X345" s="2"/>
       <c r="Y345" s="2"/>
     </row>
-    <row r="346">
+    <row r="346" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A346" s="2"/>
       <c r="B346" s="2"/>
       <c r="C346" s="2"/>
@@ -10189,7 +10276,7 @@
       <c r="X346" s="2"/>
       <c r="Y346" s="2"/>
     </row>
-    <row r="347">
+    <row r="347" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A347" s="2"/>
       <c r="B347" s="2"/>
       <c r="C347" s="2"/>
@@ -10216,7 +10303,7 @@
       <c r="X347" s="2"/>
       <c r="Y347" s="2"/>
     </row>
-    <row r="348">
+    <row r="348" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A348" s="2"/>
       <c r="B348" s="2"/>
       <c r="C348" s="2"/>
@@ -10243,7 +10330,7 @@
       <c r="X348" s="2"/>
       <c r="Y348" s="2"/>
     </row>
-    <row r="349">
+    <row r="349" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A349" s="2"/>
       <c r="B349" s="2"/>
       <c r="C349" s="2"/>
@@ -10270,7 +10357,7 @@
       <c r="X349" s="2"/>
       <c r="Y349" s="2"/>
     </row>
-    <row r="350">
+    <row r="350" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A350" s="2"/>
       <c r="B350" s="2"/>
       <c r="C350" s="2"/>
@@ -10297,7 +10384,7 @@
       <c r="X350" s="2"/>
       <c r="Y350" s="2"/>
     </row>
-    <row r="351">
+    <row r="351" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A351" s="2"/>
       <c r="B351" s="2"/>
       <c r="C351" s="2"/>
@@ -10324,7 +10411,7 @@
       <c r="X351" s="2"/>
       <c r="Y351" s="2"/>
     </row>
-    <row r="352">
+    <row r="352" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A352" s="2"/>
       <c r="B352" s="2"/>
       <c r="C352" s="2"/>
@@ -10351,7 +10438,7 @@
       <c r="X352" s="2"/>
       <c r="Y352" s="2"/>
     </row>
-    <row r="353">
+    <row r="353" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A353" s="2"/>
       <c r="B353" s="2"/>
       <c r="C353" s="2"/>
@@ -10378,7 +10465,7 @@
       <c r="X353" s="2"/>
       <c r="Y353" s="2"/>
     </row>
-    <row r="354">
+    <row r="354" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A354" s="2"/>
       <c r="B354" s="2"/>
       <c r="C354" s="2"/>
@@ -10405,7 +10492,7 @@
       <c r="X354" s="2"/>
       <c r="Y354" s="2"/>
     </row>
-    <row r="355">
+    <row r="355" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A355" s="2"/>
       <c r="B355" s="2"/>
       <c r="C355" s="2"/>
@@ -10432,7 +10519,7 @@
       <c r="X355" s="2"/>
       <c r="Y355" s="2"/>
     </row>
-    <row r="356">
+    <row r="356" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A356" s="2"/>
       <c r="B356" s="2"/>
       <c r="C356" s="2"/>
@@ -10459,7 +10546,7 @@
       <c r="X356" s="2"/>
       <c r="Y356" s="2"/>
     </row>
-    <row r="357">
+    <row r="357" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A357" s="2"/>
       <c r="B357" s="2"/>
       <c r="C357" s="2"/>
@@ -10486,7 +10573,7 @@
       <c r="X357" s="2"/>
       <c r="Y357" s="2"/>
     </row>
-    <row r="358">
+    <row r="358" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A358" s="2"/>
       <c r="B358" s="2"/>
       <c r="C358" s="2"/>
@@ -10513,7 +10600,7 @@
       <c r="X358" s="2"/>
       <c r="Y358" s="2"/>
     </row>
-    <row r="359">
+    <row r="359" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A359" s="2"/>
       <c r="B359" s="2"/>
       <c r="C359" s="2"/>
@@ -10540,7 +10627,7 @@
       <c r="X359" s="2"/>
       <c r="Y359" s="2"/>
     </row>
-    <row r="360">
+    <row r="360" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A360" s="2"/>
       <c r="B360" s="2"/>
       <c r="C360" s="2"/>
@@ -10567,7 +10654,7 @@
       <c r="X360" s="2"/>
       <c r="Y360" s="2"/>
     </row>
-    <row r="361">
+    <row r="361" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A361" s="2"/>
       <c r="B361" s="2"/>
       <c r="C361" s="2"/>
@@ -10594,7 +10681,7 @@
       <c r="X361" s="2"/>
       <c r="Y361" s="2"/>
     </row>
-    <row r="362">
+    <row r="362" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A362" s="2"/>
       <c r="B362" s="2"/>
       <c r="C362" s="2"/>
@@ -10621,7 +10708,7 @@
       <c r="X362" s="2"/>
       <c r="Y362" s="2"/>
     </row>
-    <row r="363">
+    <row r="363" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A363" s="2"/>
       <c r="B363" s="2"/>
       <c r="C363" s="2"/>
@@ -10648,7 +10735,7 @@
       <c r="X363" s="2"/>
       <c r="Y363" s="2"/>
     </row>
-    <row r="364">
+    <row r="364" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A364" s="2"/>
       <c r="B364" s="2"/>
       <c r="C364" s="2"/>
@@ -10675,7 +10762,7 @@
       <c r="X364" s="2"/>
       <c r="Y364" s="2"/>
     </row>
-    <row r="365">
+    <row r="365" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A365" s="2"/>
       <c r="B365" s="2"/>
       <c r="C365" s="2"/>
@@ -10702,7 +10789,7 @@
       <c r="X365" s="2"/>
       <c r="Y365" s="2"/>
     </row>
-    <row r="366">
+    <row r="366" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A366" s="2"/>
       <c r="B366" s="2"/>
       <c r="C366" s="2"/>
@@ -10729,7 +10816,7 @@
       <c r="X366" s="2"/>
       <c r="Y366" s="2"/>
     </row>
-    <row r="367">
+    <row r="367" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A367" s="2"/>
       <c r="B367" s="2"/>
       <c r="C367" s="2"/>
@@ -10756,7 +10843,7 @@
       <c r="X367" s="2"/>
       <c r="Y367" s="2"/>
     </row>
-    <row r="368">
+    <row r="368" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A368" s="2"/>
       <c r="B368" s="2"/>
       <c r="C368" s="2"/>
@@ -10783,7 +10870,7 @@
       <c r="X368" s="2"/>
       <c r="Y368" s="2"/>
     </row>
-    <row r="369">
+    <row r="369" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A369" s="2"/>
       <c r="B369" s="2"/>
       <c r="C369" s="2"/>
@@ -10810,7 +10897,7 @@
       <c r="X369" s="2"/>
       <c r="Y369" s="2"/>
     </row>
-    <row r="370">
+    <row r="370" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A370" s="2"/>
       <c r="B370" s="2"/>
       <c r="C370" s="2"/>
@@ -10837,7 +10924,7 @@
       <c r="X370" s="2"/>
       <c r="Y370" s="2"/>
     </row>
-    <row r="371">
+    <row r="371" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A371" s="2"/>
       <c r="B371" s="2"/>
       <c r="C371" s="2"/>
@@ -10864,7 +10951,7 @@
       <c r="X371" s="2"/>
       <c r="Y371" s="2"/>
     </row>
-    <row r="372">
+    <row r="372" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A372" s="2"/>
       <c r="B372" s="2"/>
       <c r="C372" s="2"/>
@@ -10891,7 +10978,7 @@
       <c r="X372" s="2"/>
       <c r="Y372" s="2"/>
     </row>
-    <row r="373">
+    <row r="373" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A373" s="2"/>
       <c r="B373" s="2"/>
       <c r="C373" s="2"/>
@@ -10918,7 +11005,7 @@
       <c r="X373" s="2"/>
       <c r="Y373" s="2"/>
     </row>
-    <row r="374">
+    <row r="374" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A374" s="2"/>
       <c r="B374" s="2"/>
       <c r="C374" s="2"/>
@@ -10945,7 +11032,7 @@
       <c r="X374" s="2"/>
       <c r="Y374" s="2"/>
     </row>
-    <row r="375">
+    <row r="375" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A375" s="2"/>
       <c r="B375" s="2"/>
       <c r="C375" s="2"/>
@@ -10972,7 +11059,7 @@
       <c r="X375" s="2"/>
       <c r="Y375" s="2"/>
     </row>
-    <row r="376">
+    <row r="376" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A376" s="2"/>
       <c r="B376" s="2"/>
       <c r="C376" s="2"/>
@@ -10999,7 +11086,7 @@
       <c r="X376" s="2"/>
       <c r="Y376" s="2"/>
     </row>
-    <row r="377">
+    <row r="377" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A377" s="2"/>
       <c r="B377" s="2"/>
       <c r="C377" s="2"/>
@@ -11026,7 +11113,7 @@
       <c r="X377" s="2"/>
       <c r="Y377" s="2"/>
     </row>
-    <row r="378">
+    <row r="378" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A378" s="2"/>
       <c r="B378" s="2"/>
       <c r="C378" s="2"/>
@@ -11053,7 +11140,7 @@
       <c r="X378" s="2"/>
       <c r="Y378" s="2"/>
     </row>
-    <row r="379">
+    <row r="379" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A379" s="2"/>
       <c r="B379" s="2"/>
       <c r="C379" s="2"/>
@@ -11080,7 +11167,7 @@
       <c r="X379" s="2"/>
       <c r="Y379" s="2"/>
     </row>
-    <row r="380">
+    <row r="380" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A380" s="2"/>
       <c r="B380" s="2"/>
       <c r="C380" s="2"/>
@@ -11107,7 +11194,7 @@
       <c r="X380" s="2"/>
       <c r="Y380" s="2"/>
     </row>
-    <row r="381">
+    <row r="381" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A381" s="2"/>
       <c r="B381" s="2"/>
       <c r="C381" s="2"/>
@@ -11134,7 +11221,7 @@
       <c r="X381" s="2"/>
       <c r="Y381" s="2"/>
     </row>
-    <row r="382">
+    <row r="382" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A382" s="2"/>
       <c r="B382" s="2"/>
       <c r="C382" s="2"/>
@@ -11161,7 +11248,7 @@
       <c r="X382" s="2"/>
       <c r="Y382" s="2"/>
     </row>
-    <row r="383">
+    <row r="383" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A383" s="2"/>
       <c r="B383" s="2"/>
       <c r="C383" s="2"/>
@@ -11188,7 +11275,7 @@
       <c r="X383" s="2"/>
       <c r="Y383" s="2"/>
     </row>
-    <row r="384">
+    <row r="384" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A384" s="2"/>
       <c r="B384" s="2"/>
       <c r="C384" s="2"/>
@@ -11215,7 +11302,7 @@
       <c r="X384" s="2"/>
       <c r="Y384" s="2"/>
     </row>
-    <row r="385">
+    <row r="385" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A385" s="2"/>
       <c r="B385" s="2"/>
       <c r="C385" s="2"/>
@@ -11242,7 +11329,7 @@
       <c r="X385" s="2"/>
       <c r="Y385" s="2"/>
     </row>
-    <row r="386">
+    <row r="386" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A386" s="2"/>
       <c r="B386" s="2"/>
       <c r="C386" s="2"/>
@@ -11269,7 +11356,7 @@
       <c r="X386" s="2"/>
       <c r="Y386" s="2"/>
     </row>
-    <row r="387">
+    <row r="387" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A387" s="2"/>
       <c r="B387" s="2"/>
       <c r="C387" s="2"/>
@@ -11296,7 +11383,7 @@
       <c r="X387" s="2"/>
       <c r="Y387" s="2"/>
     </row>
-    <row r="388">
+    <row r="388" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A388" s="2"/>
       <c r="B388" s="2"/>
       <c r="C388" s="2"/>
@@ -11323,7 +11410,7 @@
       <c r="X388" s="2"/>
       <c r="Y388" s="2"/>
     </row>
-    <row r="389">
+    <row r="389" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A389" s="2"/>
       <c r="B389" s="2"/>
       <c r="C389" s="2"/>
@@ -11350,7 +11437,7 @@
       <c r="X389" s="2"/>
       <c r="Y389" s="2"/>
     </row>
-    <row r="390">
+    <row r="390" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A390" s="2"/>
       <c r="B390" s="2"/>
       <c r="C390" s="2"/>
@@ -11377,7 +11464,7 @@
       <c r="X390" s="2"/>
       <c r="Y390" s="2"/>
     </row>
-    <row r="391">
+    <row r="391" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A391" s="2"/>
       <c r="B391" s="2"/>
       <c r="C391" s="2"/>
@@ -11404,7 +11491,7 @@
       <c r="X391" s="2"/>
       <c r="Y391" s="2"/>
     </row>
-    <row r="392">
+    <row r="392" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A392" s="2"/>
       <c r="B392" s="2"/>
       <c r="C392" s="2"/>
@@ -11431,7 +11518,7 @@
       <c r="X392" s="2"/>
       <c r="Y392" s="2"/>
     </row>
-    <row r="393">
+    <row r="393" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A393" s="2"/>
       <c r="B393" s="2"/>
       <c r="C393" s="2"/>
@@ -11458,7 +11545,7 @@
       <c r="X393" s="2"/>
       <c r="Y393" s="2"/>
     </row>
-    <row r="394">
+    <row r="394" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A394" s="2"/>
       <c r="B394" s="2"/>
       <c r="C394" s="2"/>
@@ -11485,7 +11572,7 @@
       <c r="X394" s="2"/>
       <c r="Y394" s="2"/>
     </row>
-    <row r="395">
+    <row r="395" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A395" s="2"/>
       <c r="B395" s="2"/>
       <c r="C395" s="2"/>
@@ -11512,7 +11599,7 @@
       <c r="X395" s="2"/>
       <c r="Y395" s="2"/>
     </row>
-    <row r="396">
+    <row r="396" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A396" s="2"/>
       <c r="B396" s="2"/>
       <c r="C396" s="2"/>
@@ -11539,7 +11626,7 @@
       <c r="X396" s="2"/>
       <c r="Y396" s="2"/>
     </row>
-    <row r="397">
+    <row r="397" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A397" s="2"/>
       <c r="B397" s="2"/>
       <c r="C397" s="2"/>
@@ -11566,7 +11653,7 @@
       <c r="X397" s="2"/>
       <c r="Y397" s="2"/>
     </row>
-    <row r="398">
+    <row r="398" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A398" s="2"/>
       <c r="B398" s="2"/>
       <c r="C398" s="2"/>
@@ -11593,7 +11680,7 @@
       <c r="X398" s="2"/>
       <c r="Y398" s="2"/>
     </row>
-    <row r="399">
+    <row r="399" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A399" s="2"/>
       <c r="B399" s="2"/>
       <c r="C399" s="2"/>
@@ -11620,7 +11707,7 @@
       <c r="X399" s="2"/>
       <c r="Y399" s="2"/>
     </row>
-    <row r="400">
+    <row r="400" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A400" s="2"/>
       <c r="B400" s="2"/>
       <c r="C400" s="2"/>
@@ -11647,7 +11734,7 @@
       <c r="X400" s="2"/>
       <c r="Y400" s="2"/>
     </row>
-    <row r="401">
+    <row r="401" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A401" s="2"/>
       <c r="B401" s="2"/>
       <c r="C401" s="2"/>
@@ -11674,7 +11761,7 @@
       <c r="X401" s="2"/>
       <c r="Y401" s="2"/>
     </row>
-    <row r="402">
+    <row r="402" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A402" s="2"/>
       <c r="B402" s="2"/>
       <c r="C402" s="2"/>
@@ -11701,7 +11788,7 @@
       <c r="X402" s="2"/>
       <c r="Y402" s="2"/>
     </row>
-    <row r="403">
+    <row r="403" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A403" s="2"/>
       <c r="B403" s="2"/>
       <c r="C403" s="2"/>
@@ -11728,7 +11815,7 @@
       <c r="X403" s="2"/>
       <c r="Y403" s="2"/>
     </row>
-    <row r="404">
+    <row r="404" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A404" s="2"/>
       <c r="B404" s="2"/>
       <c r="C404" s="2"/>
@@ -11755,7 +11842,7 @@
       <c r="X404" s="2"/>
       <c r="Y404" s="2"/>
     </row>
-    <row r="405">
+    <row r="405" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A405" s="2"/>
       <c r="B405" s="2"/>
       <c r="C405" s="2"/>
@@ -11782,7 +11869,7 @@
       <c r="X405" s="2"/>
       <c r="Y405" s="2"/>
     </row>
-    <row r="406">
+    <row r="406" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A406" s="2"/>
       <c r="B406" s="2"/>
       <c r="C406" s="2"/>
@@ -11809,7 +11896,7 @@
       <c r="X406" s="2"/>
       <c r="Y406" s="2"/>
     </row>
-    <row r="407">
+    <row r="407" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A407" s="2"/>
       <c r="B407" s="2"/>
       <c r="C407" s="2"/>
@@ -11836,7 +11923,7 @@
       <c r="X407" s="2"/>
       <c r="Y407" s="2"/>
     </row>
-    <row r="408">
+    <row r="408" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A408" s="2"/>
       <c r="B408" s="2"/>
       <c r="C408" s="2"/>
@@ -11863,7 +11950,7 @@
       <c r="X408" s="2"/>
       <c r="Y408" s="2"/>
     </row>
-    <row r="409">
+    <row r="409" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A409" s="2"/>
       <c r="B409" s="2"/>
       <c r="C409" s="2"/>
@@ -11890,7 +11977,7 @@
       <c r="X409" s="2"/>
       <c r="Y409" s="2"/>
     </row>
-    <row r="410">
+    <row r="410" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A410" s="2"/>
       <c r="B410" s="2"/>
       <c r="C410" s="2"/>
@@ -11917,7 +12004,7 @@
       <c r="X410" s="2"/>
       <c r="Y410" s="2"/>
     </row>
-    <row r="411">
+    <row r="411" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A411" s="2"/>
       <c r="B411" s="2"/>
       <c r="C411" s="2"/>
@@ -11944,7 +12031,7 @@
       <c r="X411" s="2"/>
       <c r="Y411" s="2"/>
     </row>
-    <row r="412">
+    <row r="412" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A412" s="2"/>
       <c r="B412" s="2"/>
       <c r="C412" s="2"/>
@@ -11971,7 +12058,7 @@
       <c r="X412" s="2"/>
       <c r="Y412" s="2"/>
     </row>
-    <row r="413">
+    <row r="413" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A413" s="2"/>
       <c r="B413" s="2"/>
       <c r="C413" s="2"/>
@@ -11998,7 +12085,7 @@
       <c r="X413" s="2"/>
       <c r="Y413" s="2"/>
     </row>
-    <row r="414">
+    <row r="414" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A414" s="2"/>
       <c r="B414" s="2"/>
       <c r="C414" s="2"/>
@@ -12025,7 +12112,7 @@
       <c r="X414" s="2"/>
       <c r="Y414" s="2"/>
     </row>
-    <row r="415">
+    <row r="415" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A415" s="2"/>
       <c r="B415" s="2"/>
       <c r="C415" s="2"/>
@@ -12052,7 +12139,7 @@
       <c r="X415" s="2"/>
       <c r="Y415" s="2"/>
     </row>
-    <row r="416">
+    <row r="416" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A416" s="2"/>
       <c r="B416" s="2"/>
       <c r="C416" s="2"/>
@@ -12079,7 +12166,7 @@
       <c r="X416" s="2"/>
       <c r="Y416" s="2"/>
     </row>
-    <row r="417">
+    <row r="417" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A417" s="2"/>
       <c r="B417" s="2"/>
       <c r="C417" s="2"/>
@@ -12106,7 +12193,7 @@
       <c r="X417" s="2"/>
       <c r="Y417" s="2"/>
     </row>
-    <row r="418">
+    <row r="418" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A418" s="2"/>
       <c r="B418" s="2"/>
       <c r="C418" s="2"/>
@@ -12133,7 +12220,7 @@
       <c r="X418" s="2"/>
       <c r="Y418" s="2"/>
     </row>
-    <row r="419">
+    <row r="419" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A419" s="2"/>
       <c r="B419" s="2"/>
       <c r="C419" s="2"/>
@@ -12160,7 +12247,7 @@
       <c r="X419" s="2"/>
       <c r="Y419" s="2"/>
     </row>
-    <row r="420">
+    <row r="420" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A420" s="2"/>
       <c r="B420" s="2"/>
       <c r="C420" s="2"/>
@@ -12187,7 +12274,7 @@
       <c r="X420" s="2"/>
       <c r="Y420" s="2"/>
     </row>
-    <row r="421">
+    <row r="421" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A421" s="2"/>
       <c r="B421" s="2"/>
       <c r="C421" s="2"/>
@@ -12214,7 +12301,7 @@
       <c r="X421" s="2"/>
       <c r="Y421" s="2"/>
     </row>
-    <row r="422">
+    <row r="422" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A422" s="2"/>
       <c r="B422" s="2"/>
       <c r="C422" s="2"/>
@@ -12241,7 +12328,7 @@
       <c r="X422" s="2"/>
       <c r="Y422" s="2"/>
     </row>
-    <row r="423">
+    <row r="423" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A423" s="2"/>
       <c r="B423" s="2"/>
       <c r="C423" s="2"/>
@@ -12268,7 +12355,7 @@
       <c r="X423" s="2"/>
       <c r="Y423" s="2"/>
     </row>
-    <row r="424">
+    <row r="424" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A424" s="2"/>
       <c r="B424" s="2"/>
       <c r="C424" s="2"/>
@@ -12295,7 +12382,7 @@
       <c r="X424" s="2"/>
       <c r="Y424" s="2"/>
     </row>
-    <row r="425">
+    <row r="425" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A425" s="2"/>
       <c r="B425" s="2"/>
       <c r="C425" s="2"/>
@@ -12322,7 +12409,7 @@
       <c r="X425" s="2"/>
       <c r="Y425" s="2"/>
     </row>
-    <row r="426">
+    <row r="426" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A426" s="2"/>
       <c r="B426" s="2"/>
       <c r="C426" s="2"/>
@@ -12349,7 +12436,7 @@
       <c r="X426" s="2"/>
       <c r="Y426" s="2"/>
     </row>
-    <row r="427">
+    <row r="427" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A427" s="2"/>
       <c r="B427" s="2"/>
       <c r="C427" s="2"/>
@@ -12376,7 +12463,7 @@
       <c r="X427" s="2"/>
       <c r="Y427" s="2"/>
     </row>
-    <row r="428">
+    <row r="428" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A428" s="2"/>
       <c r="B428" s="2"/>
       <c r="C428" s="2"/>
@@ -12403,7 +12490,7 @@
       <c r="X428" s="2"/>
       <c r="Y428" s="2"/>
     </row>
-    <row r="429">
+    <row r="429" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A429" s="2"/>
       <c r="B429" s="2"/>
       <c r="C429" s="2"/>
@@ -12430,7 +12517,7 @@
       <c r="X429" s="2"/>
       <c r="Y429" s="2"/>
     </row>
-    <row r="430">
+    <row r="430" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A430" s="2"/>
       <c r="B430" s="2"/>
       <c r="C430" s="2"/>
@@ -12457,7 +12544,7 @@
       <c r="X430" s="2"/>
       <c r="Y430" s="2"/>
     </row>
-    <row r="431">
+    <row r="431" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A431" s="2"/>
       <c r="B431" s="2"/>
       <c r="C431" s="2"/>
@@ -12484,7 +12571,7 @@
       <c r="X431" s="2"/>
       <c r="Y431" s="2"/>
     </row>
-    <row r="432">
+    <row r="432" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A432" s="2"/>
       <c r="B432" s="2"/>
       <c r="C432" s="2"/>
@@ -12511,7 +12598,7 @@
       <c r="X432" s="2"/>
       <c r="Y432" s="2"/>
     </row>
-    <row r="433">
+    <row r="433" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A433" s="2"/>
       <c r="B433" s="2"/>
       <c r="C433" s="2"/>
@@ -12538,7 +12625,7 @@
       <c r="X433" s="2"/>
       <c r="Y433" s="2"/>
     </row>
-    <row r="434">
+    <row r="434" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A434" s="2"/>
       <c r="B434" s="2"/>
       <c r="C434" s="2"/>
@@ -12565,7 +12652,7 @@
       <c r="X434" s="2"/>
       <c r="Y434" s="2"/>
     </row>
-    <row r="435">
+    <row r="435" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A435" s="2"/>
       <c r="B435" s="2"/>
       <c r="C435" s="2"/>
@@ -12592,7 +12679,7 @@
       <c r="X435" s="2"/>
       <c r="Y435" s="2"/>
     </row>
-    <row r="436">
+    <row r="436" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A436" s="2"/>
       <c r="B436" s="2"/>
       <c r="C436" s="2"/>
@@ -12619,7 +12706,7 @@
       <c r="X436" s="2"/>
       <c r="Y436" s="2"/>
     </row>
-    <row r="437">
+    <row r="437" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A437" s="2"/>
       <c r="B437" s="2"/>
       <c r="C437" s="2"/>
@@ -12646,7 +12733,7 @@
       <c r="X437" s="2"/>
       <c r="Y437" s="2"/>
     </row>
-    <row r="438">
+    <row r="438" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A438" s="2"/>
       <c r="B438" s="2"/>
       <c r="C438" s="2"/>
@@ -12673,7 +12760,7 @@
       <c r="X438" s="2"/>
       <c r="Y438" s="2"/>
     </row>
-    <row r="439">
+    <row r="439" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A439" s="2"/>
       <c r="B439" s="2"/>
       <c r="C439" s="2"/>
@@ -12700,7 +12787,7 @@
       <c r="X439" s="2"/>
       <c r="Y439" s="2"/>
     </row>
-    <row r="440">
+    <row r="440" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A440" s="2"/>
       <c r="B440" s="2"/>
       <c r="C440" s="2"/>
@@ -12727,7 +12814,7 @@
       <c r="X440" s="2"/>
       <c r="Y440" s="2"/>
     </row>
-    <row r="441">
+    <row r="441" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A441" s="2"/>
       <c r="B441" s="2"/>
       <c r="C441" s="2"/>
@@ -12754,7 +12841,7 @@
       <c r="X441" s="2"/>
       <c r="Y441" s="2"/>
     </row>
-    <row r="442">
+    <row r="442" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A442" s="2"/>
       <c r="B442" s="2"/>
       <c r="C442" s="2"/>
@@ -12781,7 +12868,7 @@
       <c r="X442" s="2"/>
       <c r="Y442" s="2"/>
     </row>
-    <row r="443">
+    <row r="443" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A443" s="2"/>
       <c r="B443" s="2"/>
       <c r="C443" s="2"/>
@@ -12808,7 +12895,7 @@
       <c r="X443" s="2"/>
       <c r="Y443" s="2"/>
     </row>
-    <row r="444">
+    <row r="444" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A444" s="2"/>
       <c r="B444" s="2"/>
       <c r="C444" s="2"/>
@@ -12835,7 +12922,7 @@
       <c r="X444" s="2"/>
       <c r="Y444" s="2"/>
     </row>
-    <row r="445">
+    <row r="445" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A445" s="2"/>
       <c r="B445" s="2"/>
       <c r="C445" s="2"/>
@@ -12862,7 +12949,7 @@
       <c r="X445" s="2"/>
       <c r="Y445" s="2"/>
     </row>
-    <row r="446">
+    <row r="446" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A446" s="2"/>
       <c r="B446" s="2"/>
       <c r="C446" s="2"/>
@@ -12889,7 +12976,7 @@
       <c r="X446" s="2"/>
       <c r="Y446" s="2"/>
     </row>
-    <row r="447">
+    <row r="447" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A447" s="2"/>
       <c r="B447" s="2"/>
       <c r="C447" s="2"/>
@@ -12916,7 +13003,7 @@
       <c r="X447" s="2"/>
       <c r="Y447" s="2"/>
     </row>
-    <row r="448">
+    <row r="448" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A448" s="2"/>
       <c r="B448" s="2"/>
       <c r="C448" s="2"/>
@@ -12943,7 +13030,7 @@
       <c r="X448" s="2"/>
       <c r="Y448" s="2"/>
     </row>
-    <row r="449">
+    <row r="449" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A449" s="2"/>
       <c r="B449" s="2"/>
       <c r="C449" s="2"/>
@@ -12970,7 +13057,7 @@
       <c r="X449" s="2"/>
       <c r="Y449" s="2"/>
     </row>
-    <row r="450">
+    <row r="450" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A450" s="2"/>
       <c r="B450" s="2"/>
       <c r="C450" s="2"/>
@@ -12997,7 +13084,7 @@
       <c r="X450" s="2"/>
       <c r="Y450" s="2"/>
     </row>
-    <row r="451">
+    <row r="451" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A451" s="2"/>
       <c r="B451" s="2"/>
       <c r="C451" s="2"/>
@@ -13024,7 +13111,7 @@
       <c r="X451" s="2"/>
       <c r="Y451" s="2"/>
     </row>
-    <row r="452">
+    <row r="452" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A452" s="2"/>
       <c r="B452" s="2"/>
       <c r="C452" s="2"/>
@@ -13051,7 +13138,7 @@
       <c r="X452" s="2"/>
       <c r="Y452" s="2"/>
     </row>
-    <row r="453">
+    <row r="453" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A453" s="2"/>
       <c r="B453" s="2"/>
       <c r="C453" s="2"/>
@@ -13078,7 +13165,7 @@
       <c r="X453" s="2"/>
       <c r="Y453" s="2"/>
     </row>
-    <row r="454">
+    <row r="454" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A454" s="2"/>
       <c r="B454" s="2"/>
       <c r="C454" s="2"/>
@@ -13105,7 +13192,7 @@
       <c r="X454" s="2"/>
       <c r="Y454" s="2"/>
     </row>
-    <row r="455">
+    <row r="455" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A455" s="2"/>
       <c r="B455" s="2"/>
       <c r="C455" s="2"/>
@@ -13132,7 +13219,7 @@
       <c r="X455" s="2"/>
       <c r="Y455" s="2"/>
     </row>
-    <row r="456">
+    <row r="456" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A456" s="2"/>
       <c r="B456" s="2"/>
       <c r="C456" s="2"/>
@@ -13159,7 +13246,7 @@
       <c r="X456" s="2"/>
       <c r="Y456" s="2"/>
     </row>
-    <row r="457">
+    <row r="457" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A457" s="2"/>
       <c r="B457" s="2"/>
       <c r="C457" s="2"/>
@@ -13186,7 +13273,7 @@
       <c r="X457" s="2"/>
       <c r="Y457" s="2"/>
     </row>
-    <row r="458">
+    <row r="458" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A458" s="2"/>
       <c r="B458" s="2"/>
       <c r="C458" s="2"/>
@@ -13213,7 +13300,7 @@
       <c r="X458" s="2"/>
       <c r="Y458" s="2"/>
     </row>
-    <row r="459">
+    <row r="459" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A459" s="2"/>
       <c r="B459" s="2"/>
       <c r="C459" s="2"/>
@@ -13240,7 +13327,7 @@
       <c r="X459" s="2"/>
       <c r="Y459" s="2"/>
     </row>
-    <row r="460">
+    <row r="460" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A460" s="2"/>
       <c r="B460" s="2"/>
       <c r="C460" s="2"/>
@@ -13267,7 +13354,7 @@
       <c r="X460" s="2"/>
       <c r="Y460" s="2"/>
     </row>
-    <row r="461">
+    <row r="461" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A461" s="2"/>
       <c r="B461" s="2"/>
       <c r="C461" s="2"/>
@@ -13294,7 +13381,7 @@
       <c r="X461" s="2"/>
       <c r="Y461" s="2"/>
     </row>
-    <row r="462">
+    <row r="462" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A462" s="2"/>
       <c r="B462" s="2"/>
       <c r="C462" s="2"/>
@@ -13321,7 +13408,7 @@
       <c r="X462" s="2"/>
       <c r="Y462" s="2"/>
     </row>
-    <row r="463">
+    <row r="463" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A463" s="2"/>
       <c r="B463" s="2"/>
       <c r="C463" s="2"/>
@@ -13348,7 +13435,7 @@
       <c r="X463" s="2"/>
       <c r="Y463" s="2"/>
     </row>
-    <row r="464">
+    <row r="464" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A464" s="2"/>
       <c r="B464" s="2"/>
       <c r="C464" s="2"/>
@@ -13375,7 +13462,7 @@
       <c r="X464" s="2"/>
       <c r="Y464" s="2"/>
     </row>
-    <row r="465">
+    <row r="465" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A465" s="2"/>
       <c r="B465" s="2"/>
       <c r="C465" s="2"/>
@@ -13402,7 +13489,7 @@
       <c r="X465" s="2"/>
       <c r="Y465" s="2"/>
     </row>
-    <row r="466">
+    <row r="466" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A466" s="2"/>
       <c r="B466" s="2"/>
       <c r="C466" s="2"/>
@@ -13429,7 +13516,7 @@
       <c r="X466" s="2"/>
       <c r="Y466" s="2"/>
     </row>
-    <row r="467">
+    <row r="467" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A467" s="2"/>
       <c r="B467" s="2"/>
       <c r="C467" s="2"/>
@@ -13456,7 +13543,7 @@
       <c r="X467" s="2"/>
       <c r="Y467" s="2"/>
     </row>
-    <row r="468">
+    <row r="468" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A468" s="2"/>
       <c r="B468" s="2"/>
       <c r="C468" s="2"/>
@@ -13483,7 +13570,7 @@
       <c r="X468" s="2"/>
       <c r="Y468" s="2"/>
     </row>
-    <row r="469">
+    <row r="469" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A469" s="2"/>
       <c r="B469" s="2"/>
       <c r="C469" s="2"/>
@@ -13510,7 +13597,7 @@
       <c r="X469" s="2"/>
       <c r="Y469" s="2"/>
     </row>
-    <row r="470">
+    <row r="470" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A470" s="2"/>
       <c r="B470" s="2"/>
       <c r="C470" s="2"/>
@@ -13537,7 +13624,7 @@
       <c r="X470" s="2"/>
       <c r="Y470" s="2"/>
     </row>
-    <row r="471">
+    <row r="471" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A471" s="2"/>
       <c r="B471" s="2"/>
       <c r="C471" s="2"/>
@@ -13564,7 +13651,7 @@
       <c r="X471" s="2"/>
       <c r="Y471" s="2"/>
     </row>
-    <row r="472">
+    <row r="472" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A472" s="2"/>
       <c r="B472" s="2"/>
       <c r="C472" s="2"/>
@@ -13591,7 +13678,7 @@
       <c r="X472" s="2"/>
       <c r="Y472" s="2"/>
     </row>
-    <row r="473">
+    <row r="473" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A473" s="2"/>
       <c r="B473" s="2"/>
       <c r="C473" s="2"/>
@@ -13618,7 +13705,7 @@
       <c r="X473" s="2"/>
       <c r="Y473" s="2"/>
     </row>
-    <row r="474">
+    <row r="474" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A474" s="2"/>
       <c r="B474" s="2"/>
       <c r="C474" s="2"/>
@@ -13645,7 +13732,7 @@
       <c r="X474" s="2"/>
       <c r="Y474" s="2"/>
     </row>
-    <row r="475">
+    <row r="475" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A475" s="2"/>
       <c r="B475" s="2"/>
       <c r="C475" s="2"/>
@@ -13672,7 +13759,7 @@
       <c r="X475" s="2"/>
       <c r="Y475" s="2"/>
     </row>
-    <row r="476">
+    <row r="476" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A476" s="2"/>
       <c r="B476" s="2"/>
       <c r="C476" s="2"/>
@@ -13699,7 +13786,7 @@
       <c r="X476" s="2"/>
       <c r="Y476" s="2"/>
     </row>
-    <row r="477">
+    <row r="477" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A477" s="2"/>
       <c r="B477" s="2"/>
       <c r="C477" s="2"/>
@@ -13726,7 +13813,7 @@
       <c r="X477" s="2"/>
       <c r="Y477" s="2"/>
     </row>
-    <row r="478">
+    <row r="478" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A478" s="2"/>
       <c r="B478" s="2"/>
       <c r="C478" s="2"/>
@@ -13753,7 +13840,7 @@
       <c r="X478" s="2"/>
       <c r="Y478" s="2"/>
     </row>
-    <row r="479">
+    <row r="479" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A479" s="2"/>
       <c r="B479" s="2"/>
       <c r="C479" s="2"/>
@@ -13780,7 +13867,7 @@
       <c r="X479" s="2"/>
       <c r="Y479" s="2"/>
     </row>
-    <row r="480">
+    <row r="480" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A480" s="2"/>
       <c r="B480" s="2"/>
       <c r="C480" s="2"/>
@@ -13807,7 +13894,7 @@
       <c r="X480" s="2"/>
       <c r="Y480" s="2"/>
     </row>
-    <row r="481">
+    <row r="481" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A481" s="2"/>
       <c r="B481" s="2"/>
       <c r="C481" s="2"/>
@@ -13834,7 +13921,7 @@
       <c r="X481" s="2"/>
       <c r="Y481" s="2"/>
     </row>
-    <row r="482">
+    <row r="482" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A482" s="2"/>
       <c r="B482" s="2"/>
       <c r="C482" s="2"/>
@@ -13861,7 +13948,7 @@
       <c r="X482" s="2"/>
       <c r="Y482" s="2"/>
     </row>
-    <row r="483">
+    <row r="483" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A483" s="2"/>
       <c r="B483" s="2"/>
       <c r="C483" s="2"/>
@@ -13888,7 +13975,7 @@
       <c r="X483" s="2"/>
       <c r="Y483" s="2"/>
     </row>
-    <row r="484">
+    <row r="484" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A484" s="2"/>
       <c r="B484" s="2"/>
       <c r="C484" s="2"/>
@@ -13915,7 +14002,7 @@
       <c r="X484" s="2"/>
       <c r="Y484" s="2"/>
     </row>
-    <row r="485">
+    <row r="485" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A485" s="2"/>
       <c r="B485" s="2"/>
       <c r="C485" s="2"/>
@@ -13942,7 +14029,7 @@
       <c r="X485" s="2"/>
       <c r="Y485" s="2"/>
     </row>
-    <row r="486">
+    <row r="486" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A486" s="2"/>
       <c r="B486" s="2"/>
       <c r="C486" s="2"/>
@@ -13969,7 +14056,7 @@
       <c r="X486" s="2"/>
       <c r="Y486" s="2"/>
     </row>
-    <row r="487">
+    <row r="487" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A487" s="2"/>
       <c r="B487" s="2"/>
       <c r="C487" s="2"/>
@@ -13996,7 +14083,7 @@
       <c r="X487" s="2"/>
       <c r="Y487" s="2"/>
     </row>
-    <row r="488">
+    <row r="488" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A488" s="2"/>
       <c r="B488" s="2"/>
       <c r="C488" s="2"/>
@@ -14023,7 +14110,7 @@
       <c r="X488" s="2"/>
       <c r="Y488" s="2"/>
     </row>
-    <row r="489">
+    <row r="489" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A489" s="2"/>
       <c r="B489" s="2"/>
       <c r="C489" s="2"/>
@@ -14050,7 +14137,7 @@
       <c r="X489" s="2"/>
       <c r="Y489" s="2"/>
     </row>
-    <row r="490">
+    <row r="490" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A490" s="2"/>
       <c r="B490" s="2"/>
       <c r="C490" s="2"/>
@@ -14077,7 +14164,7 @@
       <c r="X490" s="2"/>
       <c r="Y490" s="2"/>
     </row>
-    <row r="491">
+    <row r="491" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A491" s="2"/>
       <c r="B491" s="2"/>
       <c r="C491" s="2"/>
@@ -14104,7 +14191,7 @@
       <c r="X491" s="2"/>
       <c r="Y491" s="2"/>
     </row>
-    <row r="492">
+    <row r="492" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A492" s="2"/>
       <c r="B492" s="2"/>
       <c r="C492" s="2"/>
@@ -14131,7 +14218,7 @@
       <c r="X492" s="2"/>
       <c r="Y492" s="2"/>
     </row>
-    <row r="493">
+    <row r="493" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A493" s="2"/>
       <c r="B493" s="2"/>
       <c r="C493" s="2"/>
@@ -14158,7 +14245,7 @@
       <c r="X493" s="2"/>
       <c r="Y493" s="2"/>
     </row>
-    <row r="494">
+    <row r="494" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A494" s="2"/>
       <c r="B494" s="2"/>
       <c r="C494" s="2"/>
@@ -14185,7 +14272,7 @@
       <c r="X494" s="2"/>
       <c r="Y494" s="2"/>
     </row>
-    <row r="495">
+    <row r="495" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A495" s="2"/>
       <c r="B495" s="2"/>
       <c r="C495" s="2"/>
@@ -14212,7 +14299,7 @@
       <c r="X495" s="2"/>
       <c r="Y495" s="2"/>
     </row>
-    <row r="496">
+    <row r="496" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A496" s="2"/>
       <c r="B496" s="2"/>
       <c r="C496" s="2"/>
@@ -14239,7 +14326,7 @@
       <c r="X496" s="2"/>
       <c r="Y496" s="2"/>
     </row>
-    <row r="497">
+    <row r="497" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A497" s="2"/>
       <c r="B497" s="2"/>
       <c r="C497" s="2"/>
@@ -14266,7 +14353,7 @@
       <c r="X497" s="2"/>
       <c r="Y497" s="2"/>
     </row>
-    <row r="498">
+    <row r="498" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A498" s="2"/>
       <c r="B498" s="2"/>
       <c r="C498" s="2"/>
@@ -14293,7 +14380,7 @@
       <c r="X498" s="2"/>
       <c r="Y498" s="2"/>
     </row>
-    <row r="499">
+    <row r="499" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A499" s="2"/>
       <c r="B499" s="2"/>
       <c r="C499" s="2"/>
@@ -14320,7 +14407,7 @@
       <c r="X499" s="2"/>
       <c r="Y499" s="2"/>
     </row>
-    <row r="500">
+    <row r="500" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A500" s="2"/>
       <c r="B500" s="2"/>
       <c r="C500" s="2"/>
@@ -14347,7 +14434,7 @@
       <c r="X500" s="2"/>
       <c r="Y500" s="2"/>
     </row>
-    <row r="501">
+    <row r="501" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A501" s="2"/>
       <c r="B501" s="2"/>
       <c r="C501" s="2"/>
@@ -14374,7 +14461,7 @@
       <c r="X501" s="2"/>
       <c r="Y501" s="2"/>
     </row>
-    <row r="502">
+    <row r="502" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A502" s="2"/>
       <c r="B502" s="2"/>
       <c r="C502" s="2"/>
@@ -14401,7 +14488,7 @@
       <c r="X502" s="2"/>
       <c r="Y502" s="2"/>
     </row>
-    <row r="503">
+    <row r="503" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A503" s="2"/>
       <c r="B503" s="2"/>
       <c r="C503" s="2"/>
@@ -14428,7 +14515,7 @@
       <c r="X503" s="2"/>
       <c r="Y503" s="2"/>
     </row>
-    <row r="504">
+    <row r="504" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A504" s="2"/>
       <c r="B504" s="2"/>
       <c r="C504" s="2"/>
@@ -14455,7 +14542,7 @@
       <c r="X504" s="2"/>
       <c r="Y504" s="2"/>
     </row>
-    <row r="505">
+    <row r="505" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A505" s="2"/>
       <c r="B505" s="2"/>
       <c r="C505" s="2"/>
@@ -14482,7 +14569,7 @@
       <c r="X505" s="2"/>
       <c r="Y505" s="2"/>
     </row>
-    <row r="506">
+    <row r="506" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A506" s="2"/>
       <c r="B506" s="2"/>
       <c r="C506" s="2"/>
@@ -14509,7 +14596,7 @@
       <c r="X506" s="2"/>
       <c r="Y506" s="2"/>
     </row>
-    <row r="507">
+    <row r="507" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A507" s="2"/>
       <c r="B507" s="2"/>
       <c r="C507" s="2"/>
@@ -14536,7 +14623,7 @@
       <c r="X507" s="2"/>
       <c r="Y507" s="2"/>
     </row>
-    <row r="508">
+    <row r="508" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A508" s="2"/>
       <c r="B508" s="2"/>
       <c r="C508" s="2"/>
@@ -14563,7 +14650,7 @@
       <c r="X508" s="2"/>
       <c r="Y508" s="2"/>
     </row>
-    <row r="509">
+    <row r="509" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A509" s="2"/>
       <c r="B509" s="2"/>
       <c r="C509" s="2"/>
@@ -14590,7 +14677,7 @@
       <c r="X509" s="2"/>
       <c r="Y509" s="2"/>
     </row>
-    <row r="510">
+    <row r="510" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A510" s="2"/>
       <c r="B510" s="2"/>
       <c r="C510" s="2"/>
@@ -14617,7 +14704,7 @@
       <c r="X510" s="2"/>
       <c r="Y510" s="2"/>
     </row>
-    <row r="511">
+    <row r="511" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A511" s="2"/>
       <c r="B511" s="2"/>
       <c r="C511" s="2"/>
@@ -14644,7 +14731,7 @@
       <c r="X511" s="2"/>
       <c r="Y511" s="2"/>
     </row>
-    <row r="512">
+    <row r="512" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A512" s="2"/>
       <c r="B512" s="2"/>
       <c r="C512" s="2"/>
@@ -14671,7 +14758,7 @@
       <c r="X512" s="2"/>
       <c r="Y512" s="2"/>
     </row>
-    <row r="513">
+    <row r="513" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A513" s="2"/>
       <c r="B513" s="2"/>
       <c r="C513" s="2"/>
@@ -14698,7 +14785,7 @@
       <c r="X513" s="2"/>
       <c r="Y513" s="2"/>
     </row>
-    <row r="514">
+    <row r="514" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A514" s="2"/>
       <c r="B514" s="2"/>
       <c r="C514" s="2"/>
@@ -14725,7 +14812,7 @@
       <c r="X514" s="2"/>
       <c r="Y514" s="2"/>
     </row>
-    <row r="515">
+    <row r="515" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A515" s="2"/>
       <c r="B515" s="2"/>
       <c r="C515" s="2"/>
@@ -14752,7 +14839,7 @@
       <c r="X515" s="2"/>
       <c r="Y515" s="2"/>
     </row>
-    <row r="516">
+    <row r="516" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A516" s="2"/>
       <c r="B516" s="2"/>
       <c r="C516" s="2"/>
@@ -14779,7 +14866,7 @@
       <c r="X516" s="2"/>
       <c r="Y516" s="2"/>
     </row>
-    <row r="517">
+    <row r="517" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A517" s="2"/>
       <c r="B517" s="2"/>
       <c r="C517" s="2"/>
@@ -14806,7 +14893,7 @@
       <c r="X517" s="2"/>
       <c r="Y517" s="2"/>
     </row>
-    <row r="518">
+    <row r="518" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A518" s="2"/>
       <c r="B518" s="2"/>
       <c r="C518" s="2"/>
@@ -14833,7 +14920,7 @@
       <c r="X518" s="2"/>
       <c r="Y518" s="2"/>
     </row>
-    <row r="519">
+    <row r="519" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A519" s="2"/>
       <c r="B519" s="2"/>
       <c r="C519" s="2"/>
@@ -14860,7 +14947,7 @@
       <c r="X519" s="2"/>
       <c r="Y519" s="2"/>
     </row>
-    <row r="520">
+    <row r="520" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A520" s="2"/>
       <c r="B520" s="2"/>
       <c r="C520" s="2"/>
@@ -14887,7 +14974,7 @@
       <c r="X520" s="2"/>
       <c r="Y520" s="2"/>
     </row>
-    <row r="521">
+    <row r="521" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A521" s="2"/>
       <c r="B521" s="2"/>
       <c r="C521" s="2"/>
@@ -14914,7 +15001,7 @@
       <c r="X521" s="2"/>
       <c r="Y521" s="2"/>
     </row>
-    <row r="522">
+    <row r="522" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A522" s="2"/>
       <c r="B522" s="2"/>
       <c r="C522" s="2"/>
@@ -14941,7 +15028,7 @@
       <c r="X522" s="2"/>
       <c r="Y522" s="2"/>
     </row>
-    <row r="523">
+    <row r="523" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A523" s="2"/>
       <c r="B523" s="2"/>
       <c r="C523" s="2"/>
@@ -14968,7 +15055,7 @@
       <c r="X523" s="2"/>
       <c r="Y523" s="2"/>
     </row>
-    <row r="524">
+    <row r="524" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A524" s="2"/>
       <c r="B524" s="2"/>
       <c r="C524" s="2"/>
@@ -14995,7 +15082,7 @@
       <c r="X524" s="2"/>
       <c r="Y524" s="2"/>
     </row>
-    <row r="525">
+    <row r="525" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A525" s="2"/>
       <c r="B525" s="2"/>
       <c r="C525" s="2"/>
@@ -15022,7 +15109,7 @@
       <c r="X525" s="2"/>
       <c r="Y525" s="2"/>
     </row>
-    <row r="526">
+    <row r="526" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A526" s="2"/>
       <c r="B526" s="2"/>
       <c r="C526" s="2"/>
@@ -15049,7 +15136,7 @@
       <c r="X526" s="2"/>
       <c r="Y526" s="2"/>
     </row>
-    <row r="527">
+    <row r="527" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A527" s="2"/>
       <c r="B527" s="2"/>
       <c r="C527" s="2"/>
@@ -15076,7 +15163,7 @@
       <c r="X527" s="2"/>
       <c r="Y527" s="2"/>
     </row>
-    <row r="528">
+    <row r="528" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A528" s="2"/>
       <c r="B528" s="2"/>
       <c r="C528" s="2"/>
@@ -15103,7 +15190,7 @@
       <c r="X528" s="2"/>
       <c r="Y528" s="2"/>
     </row>
-    <row r="529">
+    <row r="529" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A529" s="2"/>
       <c r="B529" s="2"/>
       <c r="C529" s="2"/>
@@ -15130,7 +15217,7 @@
       <c r="X529" s="2"/>
       <c r="Y529" s="2"/>
     </row>
-    <row r="530">
+    <row r="530" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A530" s="2"/>
       <c r="B530" s="2"/>
       <c r="C530" s="2"/>
@@ -15157,7 +15244,7 @@
       <c r="X530" s="2"/>
       <c r="Y530" s="2"/>
     </row>
-    <row r="531">
+    <row r="531" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A531" s="2"/>
       <c r="B531" s="2"/>
       <c r="C531" s="2"/>
@@ -15184,7 +15271,7 @@
       <c r="X531" s="2"/>
       <c r="Y531" s="2"/>
     </row>
-    <row r="532">
+    <row r="532" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A532" s="2"/>
       <c r="B532" s="2"/>
       <c r="C532" s="2"/>
@@ -15211,7 +15298,7 @@
       <c r="X532" s="2"/>
       <c r="Y532" s="2"/>
     </row>
-    <row r="533">
+    <row r="533" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A533" s="2"/>
       <c r="B533" s="2"/>
       <c r="C533" s="2"/>
@@ -15238,7 +15325,7 @@
       <c r="X533" s="2"/>
       <c r="Y533" s="2"/>
     </row>
-    <row r="534">
+    <row r="534" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A534" s="2"/>
       <c r="B534" s="2"/>
       <c r="C534" s="2"/>
@@ -15265,7 +15352,7 @@
       <c r="X534" s="2"/>
       <c r="Y534" s="2"/>
     </row>
-    <row r="535">
+    <row r="535" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A535" s="2"/>
       <c r="B535" s="2"/>
       <c r="C535" s="2"/>
@@ -15292,7 +15379,7 @@
       <c r="X535" s="2"/>
       <c r="Y535" s="2"/>
     </row>
-    <row r="536">
+    <row r="536" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A536" s="2"/>
       <c r="B536" s="2"/>
       <c r="C536" s="2"/>
@@ -15319,7 +15406,7 @@
       <c r="X536" s="2"/>
       <c r="Y536" s="2"/>
     </row>
-    <row r="537">
+    <row r="537" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A537" s="2"/>
       <c r="B537" s="2"/>
       <c r="C537" s="2"/>
@@ -15346,7 +15433,7 @@
       <c r="X537" s="2"/>
       <c r="Y537" s="2"/>
     </row>
-    <row r="538">
+    <row r="538" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A538" s="2"/>
       <c r="B538" s="2"/>
       <c r="C538" s="2"/>
@@ -15373,7 +15460,7 @@
       <c r="X538" s="2"/>
       <c r="Y538" s="2"/>
     </row>
-    <row r="539">
+    <row r="539" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A539" s="2"/>
       <c r="B539" s="2"/>
       <c r="C539" s="2"/>
@@ -15400,7 +15487,7 @@
       <c r="X539" s="2"/>
       <c r="Y539" s="2"/>
     </row>
-    <row r="540">
+    <row r="540" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A540" s="2"/>
       <c r="B540" s="2"/>
       <c r="C540" s="2"/>
@@ -15427,7 +15514,7 @@
       <c r="X540" s="2"/>
       <c r="Y540" s="2"/>
     </row>
-    <row r="541">
+    <row r="541" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A541" s="2"/>
       <c r="B541" s="2"/>
       <c r="C541" s="2"/>
@@ -15454,7 +15541,7 @@
       <c r="X541" s="2"/>
       <c r="Y541" s="2"/>
     </row>
-    <row r="542">
+    <row r="542" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A542" s="2"/>
       <c r="B542" s="2"/>
       <c r="C542" s="2"/>
@@ -15481,7 +15568,7 @@
       <c r="X542" s="2"/>
       <c r="Y542" s="2"/>
     </row>
-    <row r="543">
+    <row r="543" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A543" s="2"/>
       <c r="B543" s="2"/>
       <c r="C543" s="2"/>
@@ -15508,7 +15595,7 @@
       <c r="X543" s="2"/>
       <c r="Y543" s="2"/>
     </row>
-    <row r="544">
+    <row r="544" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A544" s="2"/>
       <c r="B544" s="2"/>
       <c r="C544" s="2"/>
@@ -15535,7 +15622,7 @@
       <c r="X544" s="2"/>
       <c r="Y544" s="2"/>
     </row>
-    <row r="545">
+    <row r="545" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A545" s="2"/>
       <c r="B545" s="2"/>
       <c r="C545" s="2"/>
@@ -15562,7 +15649,7 @@
       <c r="X545" s="2"/>
       <c r="Y545" s="2"/>
     </row>
-    <row r="546">
+    <row r="546" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A546" s="2"/>
       <c r="B546" s="2"/>
       <c r="C546" s="2"/>
@@ -15589,7 +15676,7 @@
       <c r="X546" s="2"/>
       <c r="Y546" s="2"/>
     </row>
-    <row r="547">
+    <row r="547" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A547" s="2"/>
       <c r="B547" s="2"/>
       <c r="C547" s="2"/>
@@ -15616,7 +15703,7 @@
       <c r="X547" s="2"/>
       <c r="Y547" s="2"/>
     </row>
-    <row r="548">
+    <row r="548" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A548" s="2"/>
       <c r="B548" s="2"/>
       <c r="C548" s="2"/>
@@ -15643,7 +15730,7 @@
       <c r="X548" s="2"/>
       <c r="Y548" s="2"/>
     </row>
-    <row r="549">
+    <row r="549" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A549" s="2"/>
       <c r="B549" s="2"/>
       <c r="C549" s="2"/>
@@ -15670,7 +15757,7 @@
       <c r="X549" s="2"/>
       <c r="Y549" s="2"/>
     </row>
-    <row r="550">
+    <row r="550" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A550" s="2"/>
       <c r="B550" s="2"/>
       <c r="C550" s="2"/>
@@ -15697,7 +15784,7 @@
       <c r="X550" s="2"/>
       <c r="Y550" s="2"/>
     </row>
-    <row r="551">
+    <row r="551" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A551" s="2"/>
       <c r="B551" s="2"/>
       <c r="C551" s="2"/>
@@ -15724,7 +15811,7 @@
       <c r="X551" s="2"/>
       <c r="Y551" s="2"/>
     </row>
-    <row r="552">
+    <row r="552" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A552" s="2"/>
       <c r="B552" s="2"/>
       <c r="C552" s="2"/>
@@ -15751,7 +15838,7 @@
       <c r="X552" s="2"/>
       <c r="Y552" s="2"/>
     </row>
-    <row r="553">
+    <row r="553" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A553" s="2"/>
       <c r="B553" s="2"/>
       <c r="C553" s="2"/>
@@ -15778,7 +15865,7 @@
       <c r="X553" s="2"/>
       <c r="Y553" s="2"/>
     </row>
-    <row r="554">
+    <row r="554" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A554" s="2"/>
       <c r="B554" s="2"/>
       <c r="C554" s="2"/>
@@ -15805,7 +15892,7 @@
       <c r="X554" s="2"/>
       <c r="Y554" s="2"/>
     </row>
-    <row r="555">
+    <row r="555" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A555" s="2"/>
       <c r="B555" s="2"/>
       <c r="C555" s="2"/>
@@ -15832,7 +15919,7 @@
       <c r="X555" s="2"/>
       <c r="Y555" s="2"/>
     </row>
-    <row r="556">
+    <row r="556" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A556" s="2"/>
       <c r="B556" s="2"/>
       <c r="C556" s="2"/>
@@ -15859,7 +15946,7 @@
       <c r="X556" s="2"/>
       <c r="Y556" s="2"/>
     </row>
-    <row r="557">
+    <row r="557" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A557" s="2"/>
       <c r="B557" s="2"/>
       <c r="C557" s="2"/>
@@ -15886,7 +15973,7 @@
       <c r="X557" s="2"/>
       <c r="Y557" s="2"/>
     </row>
-    <row r="558">
+    <row r="558" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A558" s="2"/>
       <c r="B558" s="2"/>
       <c r="C558" s="2"/>
@@ -15913,7 +16000,7 @@
       <c r="X558" s="2"/>
       <c r="Y558" s="2"/>
     </row>
-    <row r="559">
+    <row r="559" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A559" s="2"/>
       <c r="B559" s="2"/>
       <c r="C559" s="2"/>
@@ -15940,7 +16027,7 @@
       <c r="X559" s="2"/>
       <c r="Y559" s="2"/>
     </row>
-    <row r="560">
+    <row r="560" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A560" s="2"/>
       <c r="B560" s="2"/>
       <c r="C560" s="2"/>
@@ -15967,7 +16054,7 @@
       <c r="X560" s="2"/>
       <c r="Y560" s="2"/>
     </row>
-    <row r="561">
+    <row r="561" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A561" s="2"/>
       <c r="B561" s="2"/>
       <c r="C561" s="2"/>
@@ -15994,7 +16081,7 @@
       <c r="X561" s="2"/>
       <c r="Y561" s="2"/>
     </row>
-    <row r="562">
+    <row r="562" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A562" s="2"/>
       <c r="B562" s="2"/>
       <c r="C562" s="2"/>
@@ -16021,7 +16108,7 @@
       <c r="X562" s="2"/>
       <c r="Y562" s="2"/>
     </row>
-    <row r="563">
+    <row r="563" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A563" s="2"/>
       <c r="B563" s="2"/>
       <c r="C563" s="2"/>
@@ -16048,7 +16135,7 @@
       <c r="X563" s="2"/>
       <c r="Y563" s="2"/>
     </row>
-    <row r="564">
+    <row r="564" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A564" s="2"/>
       <c r="B564" s="2"/>
       <c r="C564" s="2"/>
@@ -16075,7 +16162,7 @@
       <c r="X564" s="2"/>
       <c r="Y564" s="2"/>
     </row>
-    <row r="565">
+    <row r="565" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A565" s="2"/>
       <c r="B565" s="2"/>
       <c r="C565" s="2"/>
@@ -16102,7 +16189,7 @@
       <c r="X565" s="2"/>
       <c r="Y565" s="2"/>
     </row>
-    <row r="566">
+    <row r="566" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A566" s="2"/>
       <c r="B566" s="2"/>
       <c r="C566" s="2"/>
@@ -16129,7 +16216,7 @@
       <c r="X566" s="2"/>
       <c r="Y566" s="2"/>
     </row>
-    <row r="567">
+    <row r="567" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A567" s="2"/>
       <c r="B567" s="2"/>
       <c r="C567" s="2"/>
@@ -16156,7 +16243,7 @@
       <c r="X567" s="2"/>
       <c r="Y567" s="2"/>
     </row>
-    <row r="568">
+    <row r="568" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A568" s="2"/>
       <c r="B568" s="2"/>
       <c r="C568" s="2"/>
@@ -16183,7 +16270,7 @@
       <c r="X568" s="2"/>
       <c r="Y568" s="2"/>
     </row>
-    <row r="569">
+    <row r="569" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A569" s="2"/>
       <c r="B569" s="2"/>
       <c r="C569" s="2"/>
@@ -16210,7 +16297,7 @@
       <c r="X569" s="2"/>
       <c r="Y569" s="2"/>
     </row>
-    <row r="570">
+    <row r="570" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A570" s="2"/>
       <c r="B570" s="2"/>
       <c r="C570" s="2"/>
@@ -16237,7 +16324,7 @@
       <c r="X570" s="2"/>
       <c r="Y570" s="2"/>
     </row>
-    <row r="571">
+    <row r="571" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A571" s="2"/>
       <c r="B571" s="2"/>
       <c r="C571" s="2"/>
@@ -16264,7 +16351,7 @@
       <c r="X571" s="2"/>
       <c r="Y571" s="2"/>
     </row>
-    <row r="572">
+    <row r="572" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A572" s="2"/>
       <c r="B572" s="2"/>
       <c r="C572" s="2"/>
@@ -16291,7 +16378,7 @@
       <c r="X572" s="2"/>
       <c r="Y572" s="2"/>
     </row>
-    <row r="573">
+    <row r="573" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A573" s="2"/>
       <c r="B573" s="2"/>
       <c r="C573" s="2"/>
@@ -16318,7 +16405,7 @@
       <c r="X573" s="2"/>
       <c r="Y573" s="2"/>
     </row>
-    <row r="574">
+    <row r="574" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A574" s="2"/>
       <c r="B574" s="2"/>
       <c r="C574" s="2"/>
@@ -16345,7 +16432,7 @@
       <c r="X574" s="2"/>
       <c r="Y574" s="2"/>
     </row>
-    <row r="575">
+    <row r="575" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A575" s="2"/>
       <c r="B575" s="2"/>
       <c r="C575" s="2"/>
@@ -16372,7 +16459,7 @@
       <c r="X575" s="2"/>
       <c r="Y575" s="2"/>
     </row>
-    <row r="576">
+    <row r="576" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A576" s="2"/>
       <c r="B576" s="2"/>
       <c r="C576" s="2"/>
@@ -16399,7 +16486,7 @@
       <c r="X576" s="2"/>
       <c r="Y576" s="2"/>
     </row>
-    <row r="577">
+    <row r="577" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A577" s="2"/>
       <c r="B577" s="2"/>
       <c r="C577" s="2"/>
@@ -16426,7 +16513,7 @@
       <c r="X577" s="2"/>
       <c r="Y577" s="2"/>
     </row>
-    <row r="578">
+    <row r="578" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A578" s="2"/>
       <c r="B578" s="2"/>
       <c r="C578" s="2"/>
@@ -16453,7 +16540,7 @@
       <c r="X578" s="2"/>
       <c r="Y578" s="2"/>
     </row>
-    <row r="579">
+    <row r="579" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A579" s="2"/>
       <c r="B579" s="2"/>
       <c r="C579" s="2"/>
@@ -16480,7 +16567,7 @@
       <c r="X579" s="2"/>
       <c r="Y579" s="2"/>
     </row>
-    <row r="580">
+    <row r="580" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A580" s="2"/>
       <c r="B580" s="2"/>
       <c r="C580" s="2"/>
@@ -16507,7 +16594,7 @@
       <c r="X580" s="2"/>
       <c r="Y580" s="2"/>
     </row>
-    <row r="581">
+    <row r="581" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A581" s="2"/>
       <c r="B581" s="2"/>
       <c r="C581" s="2"/>
@@ -16534,7 +16621,7 @@
       <c r="X581" s="2"/>
       <c r="Y581" s="2"/>
     </row>
-    <row r="582">
+    <row r="582" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A582" s="2"/>
       <c r="B582" s="2"/>
       <c r="C582" s="2"/>
@@ -16561,7 +16648,7 @@
       <c r="X582" s="2"/>
       <c r="Y582" s="2"/>
     </row>
-    <row r="583">
+    <row r="583" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A583" s="2"/>
       <c r="B583" s="2"/>
       <c r="C583" s="2"/>
@@ -16588,7 +16675,7 @@
       <c r="X583" s="2"/>
       <c r="Y583" s="2"/>
     </row>
-    <row r="584">
+    <row r="584" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A584" s="2"/>
       <c r="B584" s="2"/>
       <c r="C584" s="2"/>
@@ -16615,7 +16702,7 @@
       <c r="X584" s="2"/>
       <c r="Y584" s="2"/>
     </row>
-    <row r="585">
+    <row r="585" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A585" s="2"/>
       <c r="B585" s="2"/>
       <c r="C585" s="2"/>
@@ -16642,7 +16729,7 @@
       <c r="X585" s="2"/>
       <c r="Y585" s="2"/>
     </row>
-    <row r="586">
+    <row r="586" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A586" s="2"/>
       <c r="B586" s="2"/>
       <c r="C586" s="2"/>
@@ -16669,7 +16756,7 @@
       <c r="X586" s="2"/>
       <c r="Y586" s="2"/>
     </row>
-    <row r="587">
+    <row r="587" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A587" s="2"/>
       <c r="B587" s="2"/>
       <c r="C587" s="2"/>
@@ -16696,7 +16783,7 @@
       <c r="X587" s="2"/>
       <c r="Y587" s="2"/>
     </row>
-    <row r="588">
+    <row r="588" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A588" s="2"/>
       <c r="B588" s="2"/>
       <c r="C588" s="2"/>
@@ -16723,7 +16810,7 @@
       <c r="X588" s="2"/>
       <c r="Y588" s="2"/>
     </row>
-    <row r="589">
+    <row r="589" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A589" s="2"/>
       <c r="B589" s="2"/>
       <c r="C589" s="2"/>
@@ -16750,7 +16837,7 @@
       <c r="X589" s="2"/>
       <c r="Y589" s="2"/>
     </row>
-    <row r="590">
+    <row r="590" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A590" s="2"/>
       <c r="B590" s="2"/>
       <c r="C590" s="2"/>
@@ -16777,7 +16864,7 @@
       <c r="X590" s="2"/>
       <c r="Y590" s="2"/>
     </row>
-    <row r="591">
+    <row r="591" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A591" s="2"/>
       <c r="B591" s="2"/>
       <c r="C591" s="2"/>
@@ -16804,7 +16891,7 @@
       <c r="X591" s="2"/>
       <c r="Y591" s="2"/>
     </row>
-    <row r="592">
+    <row r="592" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A592" s="2"/>
       <c r="B592" s="2"/>
       <c r="C592" s="2"/>
@@ -16831,7 +16918,7 @@
       <c r="X592" s="2"/>
       <c r="Y592" s="2"/>
     </row>
-    <row r="593">
+    <row r="593" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A593" s="2"/>
       <c r="B593" s="2"/>
       <c r="C593" s="2"/>
@@ -16858,7 +16945,7 @@
       <c r="X593" s="2"/>
       <c r="Y593" s="2"/>
     </row>
-    <row r="594">
+    <row r="594" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A594" s="2"/>
       <c r="B594" s="2"/>
       <c r="C594" s="2"/>
@@ -16885,7 +16972,7 @@
       <c r="X594" s="2"/>
       <c r="Y594" s="2"/>
     </row>
-    <row r="595">
+    <row r="595" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A595" s="2"/>
       <c r="B595" s="2"/>
       <c r="C595" s="2"/>
@@ -16912,7 +16999,7 @@
       <c r="X595" s="2"/>
       <c r="Y595" s="2"/>
     </row>
-    <row r="596">
+    <row r="596" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A596" s="2"/>
       <c r="B596" s="2"/>
       <c r="C596" s="2"/>
@@ -16939,7 +17026,7 @@
       <c r="X596" s="2"/>
       <c r="Y596" s="2"/>
     </row>
-    <row r="597">
+    <row r="597" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A597" s="2"/>
       <c r="B597" s="2"/>
       <c r="C597" s="2"/>
@@ -16966,7 +17053,7 @@
       <c r="X597" s="2"/>
       <c r="Y597" s="2"/>
     </row>
-    <row r="598">
+    <row r="598" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A598" s="2"/>
       <c r="B598" s="2"/>
       <c r="C598" s="2"/>
@@ -16993,7 +17080,7 @@
       <c r="X598" s="2"/>
       <c r="Y598" s="2"/>
     </row>
-    <row r="599">
+    <row r="599" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A599" s="2"/>
       <c r="B599" s="2"/>
       <c r="C599" s="2"/>
@@ -17020,7 +17107,7 @@
       <c r="X599" s="2"/>
       <c r="Y599" s="2"/>
     </row>
-    <row r="600">
+    <row r="600" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A600" s="2"/>
       <c r="B600" s="2"/>
       <c r="C600" s="2"/>
@@ -17047,7 +17134,7 @@
       <c r="X600" s="2"/>
       <c r="Y600" s="2"/>
     </row>
-    <row r="601">
+    <row r="601" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A601" s="2"/>
       <c r="B601" s="2"/>
       <c r="C601" s="2"/>
@@ -17074,7 +17161,7 @@
       <c r="X601" s="2"/>
       <c r="Y601" s="2"/>
     </row>
-    <row r="602">
+    <row r="602" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A602" s="2"/>
       <c r="B602" s="2"/>
       <c r="C602" s="2"/>
@@ -17101,7 +17188,7 @@
       <c r="X602" s="2"/>
       <c r="Y602" s="2"/>
     </row>
-    <row r="603">
+    <row r="603" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A603" s="2"/>
       <c r="B603" s="2"/>
       <c r="C603" s="2"/>
@@ -17128,7 +17215,7 @@
       <c r="X603" s="2"/>
       <c r="Y603" s="2"/>
     </row>
-    <row r="604">
+    <row r="604" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A604" s="2"/>
       <c r="B604" s="2"/>
       <c r="C604" s="2"/>
@@ -17155,7 +17242,7 @@
       <c r="X604" s="2"/>
       <c r="Y604" s="2"/>
     </row>
-    <row r="605">
+    <row r="605" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A605" s="2"/>
       <c r="B605" s="2"/>
       <c r="C605" s="2"/>
@@ -17182,7 +17269,7 @@
       <c r="X605" s="2"/>
       <c r="Y605" s="2"/>
     </row>
-    <row r="606">
+    <row r="606" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A606" s="2"/>
       <c r="B606" s="2"/>
       <c r="C606" s="2"/>
@@ -17209,7 +17296,7 @@
       <c r="X606" s="2"/>
       <c r="Y606" s="2"/>
     </row>
-    <row r="607">
+    <row r="607" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A607" s="2"/>
       <c r="B607" s="2"/>
       <c r="C607" s="2"/>
@@ -17236,7 +17323,7 @@
       <c r="X607" s="2"/>
       <c r="Y607" s="2"/>
     </row>
-    <row r="608">
+    <row r="608" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A608" s="2"/>
       <c r="B608" s="2"/>
       <c r="C608" s="2"/>
@@ -17263,7 +17350,7 @@
       <c r="X608" s="2"/>
       <c r="Y608" s="2"/>
     </row>
-    <row r="609">
+    <row r="609" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A609" s="2"/>
       <c r="B609" s="2"/>
       <c r="C609" s="2"/>
@@ -17290,7 +17377,7 @@
       <c r="X609" s="2"/>
       <c r="Y609" s="2"/>
     </row>
-    <row r="610">
+    <row r="610" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A610" s="2"/>
       <c r="B610" s="2"/>
       <c r="C610" s="2"/>
@@ -17317,7 +17404,7 @@
       <c r="X610" s="2"/>
       <c r="Y610" s="2"/>
     </row>
-    <row r="611">
+    <row r="611" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A611" s="2"/>
       <c r="B611" s="2"/>
       <c r="C611" s="2"/>
@@ -17344,7 +17431,7 @@
       <c r="X611" s="2"/>
       <c r="Y611" s="2"/>
     </row>
-    <row r="612">
+    <row r="612" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A612" s="2"/>
       <c r="B612" s="2"/>
       <c r="C612" s="2"/>
@@ -17371,7 +17458,7 @@
       <c r="X612" s="2"/>
       <c r="Y612" s="2"/>
     </row>
-    <row r="613">
+    <row r="613" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A613" s="2"/>
       <c r="B613" s="2"/>
       <c r="C613" s="2"/>
@@ -17398,7 +17485,7 @@
       <c r="X613" s="2"/>
       <c r="Y613" s="2"/>
     </row>
-    <row r="614">
+    <row r="614" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A614" s="2"/>
       <c r="B614" s="2"/>
       <c r="C614" s="2"/>
@@ -17425,7 +17512,7 @@
       <c r="X614" s="2"/>
       <c r="Y614" s="2"/>
     </row>
-    <row r="615">
+    <row r="615" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A615" s="2"/>
       <c r="B615" s="2"/>
       <c r="C615" s="2"/>
@@ -17452,7 +17539,7 @@
       <c r="X615" s="2"/>
       <c r="Y615" s="2"/>
     </row>
-    <row r="616">
+    <row r="616" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A616" s="2"/>
       <c r="B616" s="2"/>
       <c r="C616" s="2"/>
@@ -17479,7 +17566,7 @@
       <c r="X616" s="2"/>
       <c r="Y616" s="2"/>
     </row>
-    <row r="617">
+    <row r="617" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A617" s="2"/>
       <c r="B617" s="2"/>
       <c r="C617" s="2"/>
@@ -17506,7 +17593,7 @@
       <c r="X617" s="2"/>
       <c r="Y617" s="2"/>
     </row>
-    <row r="618">
+    <row r="618" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A618" s="2"/>
       <c r="B618" s="2"/>
       <c r="C618" s="2"/>
@@ -17533,7 +17620,7 @@
       <c r="X618" s="2"/>
       <c r="Y618" s="2"/>
     </row>
-    <row r="619">
+    <row r="619" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A619" s="2"/>
       <c r="B619" s="2"/>
       <c r="C619" s="2"/>
@@ -17560,7 +17647,7 @@
       <c r="X619" s="2"/>
       <c r="Y619" s="2"/>
     </row>
-    <row r="620">
+    <row r="620" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A620" s="2"/>
       <c r="B620" s="2"/>
       <c r="C620" s="2"/>
@@ -17587,7 +17674,7 @@
       <c r="X620" s="2"/>
       <c r="Y620" s="2"/>
     </row>
-    <row r="621">
+    <row r="621" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A621" s="2"/>
       <c r="B621" s="2"/>
       <c r="C621" s="2"/>
@@ -17614,7 +17701,7 @@
       <c r="X621" s="2"/>
       <c r="Y621" s="2"/>
     </row>
-    <row r="622">
+    <row r="622" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A622" s="2"/>
       <c r="B622" s="2"/>
       <c r="C622" s="2"/>
@@ -17641,7 +17728,7 @@
       <c r="X622" s="2"/>
       <c r="Y622" s="2"/>
     </row>
-    <row r="623">
+    <row r="623" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A623" s="2"/>
       <c r="B623" s="2"/>
       <c r="C623" s="2"/>
@@ -17668,7 +17755,7 @@
       <c r="X623" s="2"/>
       <c r="Y623" s="2"/>
     </row>
-    <row r="624">
+    <row r="624" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A624" s="2"/>
       <c r="B624" s="2"/>
       <c r="C624" s="2"/>
@@ -17695,7 +17782,7 @@
       <c r="X624" s="2"/>
       <c r="Y624" s="2"/>
     </row>
-    <row r="625">
+    <row r="625" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A625" s="2"/>
       <c r="B625" s="2"/>
       <c r="C625" s="2"/>
@@ -17722,7 +17809,7 @@
       <c r="X625" s="2"/>
       <c r="Y625" s="2"/>
     </row>
-    <row r="626">
+    <row r="626" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A626" s="2"/>
       <c r="B626" s="2"/>
       <c r="C626" s="2"/>
@@ -17749,7 +17836,7 @@
       <c r="X626" s="2"/>
       <c r="Y626" s="2"/>
     </row>
-    <row r="627">
+    <row r="627" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A627" s="2"/>
       <c r="B627" s="2"/>
       <c r="C627" s="2"/>
@@ -17776,7 +17863,7 @@
       <c r="X627" s="2"/>
       <c r="Y627" s="2"/>
     </row>
-    <row r="628">
+    <row r="628" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A628" s="2"/>
       <c r="B628" s="2"/>
       <c r="C628" s="2"/>
@@ -17803,7 +17890,7 @@
       <c r="X628" s="2"/>
       <c r="Y628" s="2"/>
     </row>
-    <row r="629">
+    <row r="629" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A629" s="2"/>
       <c r="B629" s="2"/>
       <c r="C629" s="2"/>
@@ -17830,7 +17917,7 @@
       <c r="X629" s="2"/>
       <c r="Y629" s="2"/>
     </row>
-    <row r="630">
+    <row r="630" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A630" s="2"/>
       <c r="B630" s="2"/>
       <c r="C630" s="2"/>
@@ -17857,7 +17944,7 @@
       <c r="X630" s="2"/>
       <c r="Y630" s="2"/>
     </row>
-    <row r="631">
+    <row r="631" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A631" s="2"/>
       <c r="B631" s="2"/>
       <c r="C631" s="2"/>
@@ -17884,7 +17971,7 @@
       <c r="X631" s="2"/>
       <c r="Y631" s="2"/>
     </row>
-    <row r="632">
+    <row r="632" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A632" s="2"/>
       <c r="B632" s="2"/>
       <c r="C632" s="2"/>
@@ -17911,7 +17998,7 @@
       <c r="X632" s="2"/>
       <c r="Y632" s="2"/>
     </row>
-    <row r="633">
+    <row r="633" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A633" s="2"/>
       <c r="B633" s="2"/>
       <c r="C633" s="2"/>
@@ -17938,7 +18025,7 @@
       <c r="X633" s="2"/>
       <c r="Y633" s="2"/>
     </row>
-    <row r="634">
+    <row r="634" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A634" s="2"/>
       <c r="B634" s="2"/>
       <c r="C634" s="2"/>
@@ -17965,7 +18052,7 @@
       <c r="X634" s="2"/>
       <c r="Y634" s="2"/>
     </row>
-    <row r="635">
+    <row r="635" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A635" s="2"/>
       <c r="B635" s="2"/>
       <c r="C635" s="2"/>
@@ -17992,7 +18079,7 @@
       <c r="X635" s="2"/>
       <c r="Y635" s="2"/>
     </row>
-    <row r="636">
+    <row r="636" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A636" s="2"/>
       <c r="B636" s="2"/>
       <c r="C636" s="2"/>
@@ -18019,7 +18106,7 @@
       <c r="X636" s="2"/>
       <c r="Y636" s="2"/>
     </row>
-    <row r="637">
+    <row r="637" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A637" s="2"/>
       <c r="B637" s="2"/>
       <c r="C637" s="2"/>
@@ -18046,7 +18133,7 @@
       <c r="X637" s="2"/>
       <c r="Y637" s="2"/>
     </row>
-    <row r="638">
+    <row r="638" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A638" s="2"/>
       <c r="B638" s="2"/>
       <c r="C638" s="2"/>
@@ -18073,7 +18160,7 @@
       <c r="X638" s="2"/>
       <c r="Y638" s="2"/>
     </row>
-    <row r="639">
+    <row r="639" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A639" s="2"/>
       <c r="B639" s="2"/>
       <c r="C639" s="2"/>
@@ -18100,7 +18187,7 @@
       <c r="X639" s="2"/>
       <c r="Y639" s="2"/>
     </row>
-    <row r="640">
+    <row r="640" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A640" s="2"/>
       <c r="B640" s="2"/>
       <c r="C640" s="2"/>
@@ -18127,7 +18214,7 @@
       <c r="X640" s="2"/>
       <c r="Y640" s="2"/>
     </row>
-    <row r="641">
+    <row r="641" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A641" s="2"/>
       <c r="B641" s="2"/>
       <c r="C641" s="2"/>
@@ -18154,7 +18241,7 @@
       <c r="X641" s="2"/>
       <c r="Y641" s="2"/>
     </row>
-    <row r="642">
+    <row r="642" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A642" s="2"/>
       <c r="B642" s="2"/>
       <c r="C642" s="2"/>
@@ -18181,7 +18268,7 @@
       <c r="X642" s="2"/>
       <c r="Y642" s="2"/>
     </row>
-    <row r="643">
+    <row r="643" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A643" s="2"/>
       <c r="B643" s="2"/>
       <c r="C643" s="2"/>
@@ -18208,7 +18295,7 @@
       <c r="X643" s="2"/>
       <c r="Y643" s="2"/>
     </row>
-    <row r="644">
+    <row r="644" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A644" s="2"/>
       <c r="B644" s="2"/>
       <c r="C644" s="2"/>
@@ -18235,7 +18322,7 @@
       <c r="X644" s="2"/>
       <c r="Y644" s="2"/>
     </row>
-    <row r="645">
+    <row r="645" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A645" s="2"/>
       <c r="B645" s="2"/>
       <c r="C645" s="2"/>
@@ -18262,7 +18349,7 @@
       <c r="X645" s="2"/>
       <c r="Y645" s="2"/>
     </row>
-    <row r="646">
+    <row r="646" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A646" s="2"/>
       <c r="B646" s="2"/>
       <c r="C646" s="2"/>
@@ -18289,7 +18376,7 @@
       <c r="X646" s="2"/>
       <c r="Y646" s="2"/>
     </row>
-    <row r="647">
+    <row r="647" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A647" s="2"/>
       <c r="B647" s="2"/>
       <c r="C647" s="2"/>
@@ -18316,7 +18403,7 @@
       <c r="X647" s="2"/>
       <c r="Y647" s="2"/>
     </row>
-    <row r="648">
+    <row r="648" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A648" s="2"/>
       <c r="B648" s="2"/>
       <c r="C648" s="2"/>
@@ -18343,7 +18430,7 @@
       <c r="X648" s="2"/>
       <c r="Y648" s="2"/>
     </row>
-    <row r="649">
+    <row r="649" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A649" s="2"/>
       <c r="B649" s="2"/>
       <c r="C649" s="2"/>
@@ -18370,7 +18457,7 @@
       <c r="X649" s="2"/>
       <c r="Y649" s="2"/>
     </row>
-    <row r="650">
+    <row r="650" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A650" s="2"/>
       <c r="B650" s="2"/>
       <c r="C650" s="2"/>
@@ -18397,7 +18484,7 @@
       <c r="X650" s="2"/>
       <c r="Y650" s="2"/>
     </row>
-    <row r="651">
+    <row r="651" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A651" s="2"/>
       <c r="B651" s="2"/>
       <c r="C651" s="2"/>
@@ -18424,7 +18511,7 @@
       <c r="X651" s="2"/>
       <c r="Y651" s="2"/>
     </row>
-    <row r="652">
+    <row r="652" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A652" s="2"/>
       <c r="B652" s="2"/>
       <c r="C652" s="2"/>
@@ -18451,7 +18538,7 @@
       <c r="X652" s="2"/>
       <c r="Y652" s="2"/>
     </row>
-    <row r="653">
+    <row r="653" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A653" s="2"/>
       <c r="B653" s="2"/>
       <c r="C653" s="2"/>
@@ -18478,7 +18565,7 @@
       <c r="X653" s="2"/>
       <c r="Y653" s="2"/>
     </row>
-    <row r="654">
+    <row r="654" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A654" s="2"/>
       <c r="B654" s="2"/>
       <c r="C654" s="2"/>
@@ -18505,7 +18592,7 @@
       <c r="X654" s="2"/>
       <c r="Y654" s="2"/>
     </row>
-    <row r="655">
+    <row r="655" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A655" s="2"/>
       <c r="B655" s="2"/>
       <c r="C655" s="2"/>
@@ -18532,7 +18619,7 @@
       <c r="X655" s="2"/>
       <c r="Y655" s="2"/>
     </row>
-    <row r="656">
+    <row r="656" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A656" s="2"/>
       <c r="B656" s="2"/>
       <c r="C656" s="2"/>
@@ -18559,7 +18646,7 @@
       <c r="X656" s="2"/>
       <c r="Y656" s="2"/>
     </row>
-    <row r="657">
+    <row r="657" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A657" s="2"/>
       <c r="B657" s="2"/>
       <c r="C657" s="2"/>
@@ -18586,7 +18673,7 @@
       <c r="X657" s="2"/>
       <c r="Y657" s="2"/>
     </row>
-    <row r="658">
+    <row r="658" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A658" s="2"/>
       <c r="B658" s="2"/>
       <c r="C658" s="2"/>
@@ -18613,7 +18700,7 @@
       <c r="X658" s="2"/>
       <c r="Y658" s="2"/>
     </row>
-    <row r="659">
+    <row r="659" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A659" s="2"/>
       <c r="B659" s="2"/>
       <c r="C659" s="2"/>
@@ -18640,7 +18727,7 @@
       <c r="X659" s="2"/>
       <c r="Y659" s="2"/>
     </row>
-    <row r="660">
+    <row r="660" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A660" s="2"/>
       <c r="B660" s="2"/>
       <c r="C660" s="2"/>
@@ -18667,7 +18754,7 @@
       <c r="X660" s="2"/>
       <c r="Y660" s="2"/>
     </row>
-    <row r="661">
+    <row r="661" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A661" s="2"/>
       <c r="B661" s="2"/>
       <c r="C661" s="2"/>
@@ -18694,7 +18781,7 @@
       <c r="X661" s="2"/>
       <c r="Y661" s="2"/>
     </row>
-    <row r="662">
+    <row r="662" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A662" s="2"/>
       <c r="B662" s="2"/>
       <c r="C662" s="2"/>
@@ -18721,7 +18808,7 @@
       <c r="X662" s="2"/>
       <c r="Y662" s="2"/>
     </row>
-    <row r="663">
+    <row r="663" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A663" s="2"/>
       <c r="B663" s="2"/>
       <c r="C663" s="2"/>
@@ -18748,7 +18835,7 @@
       <c r="X663" s="2"/>
       <c r="Y663" s="2"/>
     </row>
-    <row r="664">
+    <row r="664" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A664" s="2"/>
       <c r="B664" s="2"/>
       <c r="C664" s="2"/>
@@ -18775,7 +18862,7 @@
       <c r="X664" s="2"/>
       <c r="Y664" s="2"/>
     </row>
-    <row r="665">
+    <row r="665" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A665" s="2"/>
       <c r="B665" s="2"/>
       <c r="C665" s="2"/>
@@ -18802,7 +18889,7 @@
       <c r="X665" s="2"/>
       <c r="Y665" s="2"/>
     </row>
-    <row r="666">
+    <row r="666" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A666" s="2"/>
       <c r="B666" s="2"/>
       <c r="C666" s="2"/>
@@ -18829,7 +18916,7 @@
       <c r="X666" s="2"/>
       <c r="Y666" s="2"/>
     </row>
-    <row r="667">
+    <row r="667" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A667" s="2"/>
       <c r="B667" s="2"/>
       <c r="C667" s="2"/>
@@ -18856,7 +18943,7 @@
       <c r="X667" s="2"/>
       <c r="Y667" s="2"/>
     </row>
-    <row r="668">
+    <row r="668" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A668" s="2"/>
       <c r="B668" s="2"/>
       <c r="C668" s="2"/>
@@ -18883,7 +18970,7 @@
       <c r="X668" s="2"/>
       <c r="Y668" s="2"/>
     </row>
-    <row r="669">
+    <row r="669" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A669" s="2"/>
       <c r="B669" s="2"/>
       <c r="C669" s="2"/>
@@ -18910,7 +18997,7 @@
       <c r="X669" s="2"/>
       <c r="Y669" s="2"/>
     </row>
-    <row r="670">
+    <row r="670" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A670" s="2"/>
       <c r="B670" s="2"/>
       <c r="C670" s="2"/>
@@ -18937,7 +19024,7 @@
       <c r="X670" s="2"/>
       <c r="Y670" s="2"/>
     </row>
-    <row r="671">
+    <row r="671" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A671" s="2"/>
       <c r="B671" s="2"/>
       <c r="C671" s="2"/>
@@ -18964,7 +19051,7 @@
       <c r="X671" s="2"/>
       <c r="Y671" s="2"/>
     </row>
-    <row r="672">
+    <row r="672" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A672" s="2"/>
       <c r="B672" s="2"/>
       <c r="C672" s="2"/>
@@ -18991,7 +19078,7 @@
       <c r="X672" s="2"/>
       <c r="Y672" s="2"/>
     </row>
-    <row r="673">
+    <row r="673" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A673" s="2"/>
       <c r="B673" s="2"/>
       <c r="C673" s="2"/>
@@ -19018,7 +19105,7 @@
       <c r="X673" s="2"/>
       <c r="Y673" s="2"/>
     </row>
-    <row r="674">
+    <row r="674" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A674" s="2"/>
       <c r="B674" s="2"/>
       <c r="C674" s="2"/>
@@ -19045,7 +19132,7 @@
       <c r="X674" s="2"/>
       <c r="Y674" s="2"/>
     </row>
-    <row r="675">
+    <row r="675" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A675" s="2"/>
       <c r="B675" s="2"/>
       <c r="C675" s="2"/>
@@ -19072,7 +19159,7 @@
       <c r="X675" s="2"/>
       <c r="Y675" s="2"/>
     </row>
-    <row r="676">
+    <row r="676" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A676" s="2"/>
       <c r="B676" s="2"/>
       <c r="C676" s="2"/>
@@ -19099,7 +19186,7 @@
       <c r="X676" s="2"/>
       <c r="Y676" s="2"/>
     </row>
-    <row r="677">
+    <row r="677" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A677" s="2"/>
       <c r="B677" s="2"/>
       <c r="C677" s="2"/>
@@ -19126,7 +19213,7 @@
       <c r="X677" s="2"/>
       <c r="Y677" s="2"/>
     </row>
-    <row r="678">
+    <row r="678" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A678" s="2"/>
       <c r="B678" s="2"/>
       <c r="C678" s="2"/>
@@ -19153,7 +19240,7 @@
       <c r="X678" s="2"/>
       <c r="Y678" s="2"/>
     </row>
-    <row r="679">
+    <row r="679" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A679" s="2"/>
       <c r="B679" s="2"/>
       <c r="C679" s="2"/>
@@ -19180,7 +19267,7 @@
       <c r="X679" s="2"/>
       <c r="Y679" s="2"/>
     </row>
-    <row r="680">
+    <row r="680" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A680" s="2"/>
       <c r="B680" s="2"/>
       <c r="C680" s="2"/>
@@ -19207,7 +19294,7 @@
       <c r="X680" s="2"/>
       <c r="Y680" s="2"/>
     </row>
-    <row r="681">
+    <row r="681" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A681" s="2"/>
       <c r="B681" s="2"/>
       <c r="C681" s="2"/>
@@ -19234,7 +19321,7 @@
       <c r="X681" s="2"/>
       <c r="Y681" s="2"/>
     </row>
-    <row r="682">
+    <row r="682" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A682" s="2"/>
       <c r="B682" s="2"/>
       <c r="C682" s="2"/>
@@ -19261,7 +19348,7 @@
       <c r="X682" s="2"/>
       <c r="Y682" s="2"/>
     </row>
-    <row r="683">
+    <row r="683" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A683" s="2"/>
       <c r="B683" s="2"/>
       <c r="C683" s="2"/>
@@ -19288,7 +19375,7 @@
       <c r="X683" s="2"/>
       <c r="Y683" s="2"/>
     </row>
-    <row r="684">
+    <row r="684" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A684" s="2"/>
       <c r="B684" s="2"/>
       <c r="C684" s="2"/>
@@ -19315,7 +19402,7 @@
       <c r="X684" s="2"/>
       <c r="Y684" s="2"/>
     </row>
-    <row r="685">
+    <row r="685" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A685" s="2"/>
       <c r="B685" s="2"/>
       <c r="C685" s="2"/>
@@ -19342,7 +19429,7 @@
       <c r="X685" s="2"/>
       <c r="Y685" s="2"/>
     </row>
-    <row r="686">
+    <row r="686" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A686" s="2"/>
       <c r="B686" s="2"/>
       <c r="C686" s="2"/>
@@ -19369,7 +19456,7 @@
       <c r="X686" s="2"/>
       <c r="Y686" s="2"/>
     </row>
-    <row r="687">
+    <row r="687" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A687" s="2"/>
       <c r="B687" s="2"/>
       <c r="C687" s="2"/>
@@ -19396,7 +19483,7 @@
       <c r="X687" s="2"/>
       <c r="Y687" s="2"/>
     </row>
-    <row r="688">
+    <row r="688" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A688" s="2"/>
       <c r="B688" s="2"/>
       <c r="C688" s="2"/>
@@ -19423,7 +19510,7 @@
       <c r="X688" s="2"/>
       <c r="Y688" s="2"/>
     </row>
-    <row r="689">
+    <row r="689" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A689" s="2"/>
       <c r="B689" s="2"/>
       <c r="C689" s="2"/>
@@ -19450,7 +19537,7 @@
       <c r="X689" s="2"/>
       <c r="Y689" s="2"/>
     </row>
-    <row r="690">
+    <row r="690" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A690" s="2"/>
       <c r="B690" s="2"/>
       <c r="C690" s="2"/>
@@ -19477,7 +19564,7 @@
       <c r="X690" s="2"/>
       <c r="Y690" s="2"/>
     </row>
-    <row r="691">
+    <row r="691" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A691" s="2"/>
       <c r="B691" s="2"/>
       <c r="C691" s="2"/>
@@ -19504,7 +19591,7 @@
       <c r="X691" s="2"/>
       <c r="Y691" s="2"/>
     </row>
-    <row r="692">
+    <row r="692" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A692" s="2"/>
       <c r="B692" s="2"/>
       <c r="C692" s="2"/>
@@ -19531,7 +19618,7 @@
       <c r="X692" s="2"/>
       <c r="Y692" s="2"/>
     </row>
-    <row r="693">
+    <row r="693" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A693" s="2"/>
       <c r="B693" s="2"/>
       <c r="C693" s="2"/>
@@ -19558,7 +19645,7 @@
       <c r="X693" s="2"/>
       <c r="Y693" s="2"/>
     </row>
-    <row r="694">
+    <row r="694" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A694" s="2"/>
       <c r="B694" s="2"/>
       <c r="C694" s="2"/>
@@ -19585,7 +19672,7 @@
       <c r="X694" s="2"/>
       <c r="Y694" s="2"/>
     </row>
-    <row r="695">
+    <row r="695" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A695" s="2"/>
       <c r="B695" s="2"/>
       <c r="C695" s="2"/>
@@ -19612,7 +19699,7 @@
       <c r="X695" s="2"/>
       <c r="Y695" s="2"/>
     </row>
-    <row r="696">
+    <row r="696" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A696" s="2"/>
       <c r="B696" s="2"/>
       <c r="C696" s="2"/>
@@ -19639,7 +19726,7 @@
       <c r="X696" s="2"/>
       <c r="Y696" s="2"/>
     </row>
-    <row r="697">
+    <row r="697" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A697" s="2"/>
       <c r="B697" s="2"/>
       <c r="C697" s="2"/>
@@ -19666,7 +19753,7 @@
       <c r="X697" s="2"/>
       <c r="Y697" s="2"/>
     </row>
-    <row r="698">
+    <row r="698" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A698" s="2"/>
       <c r="B698" s="2"/>
       <c r="C698" s="2"/>
@@ -19693,7 +19780,7 @@
       <c r="X698" s="2"/>
       <c r="Y698" s="2"/>
     </row>
-    <row r="699">
+    <row r="699" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A699" s="2"/>
       <c r="B699" s="2"/>
       <c r="C699" s="2"/>
@@ -19720,7 +19807,7 @@
       <c r="X699" s="2"/>
       <c r="Y699" s="2"/>
     </row>
-    <row r="700">
+    <row r="700" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A700" s="2"/>
       <c r="B700" s="2"/>
       <c r="C700" s="2"/>
@@ -19747,7 +19834,7 @@
       <c r="X700" s="2"/>
       <c r="Y700" s="2"/>
     </row>
-    <row r="701">
+    <row r="701" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A701" s="2"/>
       <c r="B701" s="2"/>
       <c r="C701" s="2"/>
@@ -19774,7 +19861,7 @@
       <c r="X701" s="2"/>
       <c r="Y701" s="2"/>
     </row>
-    <row r="702">
+    <row r="702" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A702" s="2"/>
       <c r="B702" s="2"/>
       <c r="C702" s="2"/>
@@ -19801,7 +19888,7 @@
       <c r="X702" s="2"/>
       <c r="Y702" s="2"/>
     </row>
-    <row r="703">
+    <row r="703" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A703" s="2"/>
       <c r="B703" s="2"/>
       <c r="C703" s="2"/>
@@ -19828,7 +19915,7 @@
       <c r="X703" s="2"/>
       <c r="Y703" s="2"/>
     </row>
-    <row r="704">
+    <row r="704" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A704" s="2"/>
       <c r="B704" s="2"/>
       <c r="C704" s="2"/>
@@ -19855,7 +19942,7 @@
       <c r="X704" s="2"/>
       <c r="Y704" s="2"/>
     </row>
-    <row r="705">
+    <row r="705" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A705" s="2"/>
       <c r="B705" s="2"/>
       <c r="C705" s="2"/>
@@ -19882,7 +19969,7 @@
       <c r="X705" s="2"/>
       <c r="Y705" s="2"/>
     </row>
-    <row r="706">
+    <row r="706" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A706" s="2"/>
       <c r="B706" s="2"/>
       <c r="C706" s="2"/>
@@ -19909,7 +19996,7 @@
       <c r="X706" s="2"/>
       <c r="Y706" s="2"/>
     </row>
-    <row r="707">
+    <row r="707" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A707" s="2"/>
       <c r="B707" s="2"/>
       <c r="C707" s="2"/>
@@ -19936,7 +20023,7 @@
       <c r="X707" s="2"/>
       <c r="Y707" s="2"/>
     </row>
-    <row r="708">
+    <row r="708" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A708" s="2"/>
       <c r="B708" s="2"/>
       <c r="C708" s="2"/>
@@ -19963,7 +20050,7 @@
       <c r="X708" s="2"/>
       <c r="Y708" s="2"/>
     </row>
-    <row r="709">
+    <row r="709" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A709" s="2"/>
       <c r="B709" s="2"/>
       <c r="C709" s="2"/>
@@ -19990,7 +20077,7 @@
       <c r="X709" s="2"/>
       <c r="Y709" s="2"/>
     </row>
-    <row r="710">
+    <row r="710" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A710" s="2"/>
       <c r="B710" s="2"/>
       <c r="C710" s="2"/>
@@ -20017,7 +20104,7 @@
       <c r="X710" s="2"/>
       <c r="Y710" s="2"/>
     </row>
-    <row r="711">
+    <row r="711" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A711" s="2"/>
       <c r="B711" s="2"/>
       <c r="C711" s="2"/>
@@ -20044,7 +20131,7 @@
       <c r="X711" s="2"/>
       <c r="Y711" s="2"/>
     </row>
-    <row r="712">
+    <row r="712" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A712" s="2"/>
       <c r="B712" s="2"/>
       <c r="C712" s="2"/>
@@ -20071,7 +20158,7 @@
       <c r="X712" s="2"/>
       <c r="Y712" s="2"/>
     </row>
-    <row r="713">
+    <row r="713" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A713" s="2"/>
       <c r="B713" s="2"/>
       <c r="C713" s="2"/>
@@ -20098,7 +20185,7 @@
       <c r="X713" s="2"/>
       <c r="Y713" s="2"/>
     </row>
-    <row r="714">
+    <row r="714" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A714" s="2"/>
       <c r="B714" s="2"/>
       <c r="C714" s="2"/>
@@ -20125,7 +20212,7 @@
       <c r="X714" s="2"/>
       <c r="Y714" s="2"/>
     </row>
-    <row r="715">
+    <row r="715" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A715" s="2"/>
       <c r="B715" s="2"/>
       <c r="C715" s="2"/>
@@ -20152,7 +20239,7 @@
       <c r="X715" s="2"/>
       <c r="Y715" s="2"/>
     </row>
-    <row r="716">
+    <row r="716" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A716" s="2"/>
       <c r="B716" s="2"/>
       <c r="C716" s="2"/>
@@ -20179,7 +20266,7 @@
       <c r="X716" s="2"/>
       <c r="Y716" s="2"/>
     </row>
-    <row r="717">
+    <row r="717" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A717" s="2"/>
       <c r="B717" s="2"/>
       <c r="C717" s="2"/>
@@ -20206,7 +20293,7 @@
       <c r="X717" s="2"/>
       <c r="Y717" s="2"/>
     </row>
-    <row r="718">
+    <row r="718" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A718" s="2"/>
       <c r="B718" s="2"/>
       <c r="C718" s="2"/>
@@ -20233,7 +20320,7 @@
       <c r="X718" s="2"/>
       <c r="Y718" s="2"/>
     </row>
-    <row r="719">
+    <row r="719" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A719" s="2"/>
       <c r="B719" s="2"/>
       <c r="C719" s="2"/>
@@ -20260,7 +20347,7 @@
       <c r="X719" s="2"/>
       <c r="Y719" s="2"/>
     </row>
-    <row r="720">
+    <row r="720" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A720" s="2"/>
       <c r="B720" s="2"/>
       <c r="C720" s="2"/>
@@ -20287,7 +20374,7 @@
       <c r="X720" s="2"/>
       <c r="Y720" s="2"/>
     </row>
-    <row r="721">
+    <row r="721" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A721" s="2"/>
       <c r="B721" s="2"/>
       <c r="C721" s="2"/>
@@ -20314,7 +20401,7 @@
       <c r="X721" s="2"/>
       <c r="Y721" s="2"/>
     </row>
-    <row r="722">
+    <row r="722" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A722" s="2"/>
       <c r="B722" s="2"/>
       <c r="C722" s="2"/>
@@ -20341,7 +20428,7 @@
       <c r="X722" s="2"/>
       <c r="Y722" s="2"/>
     </row>
-    <row r="723">
+    <row r="723" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A723" s="2"/>
       <c r="B723" s="2"/>
       <c r="C723" s="2"/>
@@ -20368,7 +20455,7 @@
       <c r="X723" s="2"/>
       <c r="Y723" s="2"/>
     </row>
-    <row r="724">
+    <row r="724" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A724" s="2"/>
       <c r="B724" s="2"/>
       <c r="C724" s="2"/>
@@ -20395,7 +20482,7 @@
       <c r="X724" s="2"/>
       <c r="Y724" s="2"/>
     </row>
-    <row r="725">
+    <row r="725" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A725" s="2"/>
       <c r="B725" s="2"/>
       <c r="C725" s="2"/>
@@ -20422,7 +20509,7 @@
       <c r="X725" s="2"/>
       <c r="Y725" s="2"/>
     </row>
-    <row r="726">
+    <row r="726" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A726" s="2"/>
       <c r="B726" s="2"/>
       <c r="C726" s="2"/>
@@ -20449,7 +20536,7 @@
       <c r="X726" s="2"/>
       <c r="Y726" s="2"/>
     </row>
-    <row r="727">
+    <row r="727" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A727" s="2"/>
       <c r="B727" s="2"/>
       <c r="C727" s="2"/>
@@ -20476,7 +20563,7 @@
       <c r="X727" s="2"/>
       <c r="Y727" s="2"/>
     </row>
-    <row r="728">
+    <row r="728" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A728" s="2"/>
       <c r="B728" s="2"/>
       <c r="C728" s="2"/>
@@ -20503,7 +20590,7 @@
       <c r="X728" s="2"/>
       <c r="Y728" s="2"/>
     </row>
-    <row r="729">
+    <row r="729" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A729" s="2"/>
       <c r="B729" s="2"/>
       <c r="C729" s="2"/>
@@ -20530,7 +20617,7 @@
       <c r="X729" s="2"/>
       <c r="Y729" s="2"/>
     </row>
-    <row r="730">
+    <row r="730" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A730" s="2"/>
       <c r="B730" s="2"/>
       <c r="C730" s="2"/>
@@ -20557,7 +20644,7 @@
       <c r="X730" s="2"/>
       <c r="Y730" s="2"/>
     </row>
-    <row r="731">
+    <row r="731" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A731" s="2"/>
       <c r="B731" s="2"/>
       <c r="C731" s="2"/>
@@ -20584,7 +20671,7 @@
       <c r="X731" s="2"/>
       <c r="Y731" s="2"/>
     </row>
-    <row r="732">
+    <row r="732" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A732" s="2"/>
       <c r="B732" s="2"/>
       <c r="C732" s="2"/>
@@ -20611,7 +20698,7 @@
       <c r="X732" s="2"/>
       <c r="Y732" s="2"/>
     </row>
-    <row r="733">
+    <row r="733" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A733" s="2"/>
       <c r="B733" s="2"/>
       <c r="C733" s="2"/>
@@ -20638,7 +20725,7 @@
       <c r="X733" s="2"/>
       <c r="Y733" s="2"/>
     </row>
-    <row r="734">
+    <row r="734" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A734" s="2"/>
       <c r="B734" s="2"/>
       <c r="C734" s="2"/>
@@ -20665,7 +20752,7 @@
       <c r="X734" s="2"/>
       <c r="Y734" s="2"/>
     </row>
-    <row r="735">
+    <row r="735" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A735" s="2"/>
       <c r="B735" s="2"/>
       <c r="C735" s="2"/>
@@ -20692,7 +20779,7 @@
       <c r="X735" s="2"/>
       <c r="Y735" s="2"/>
     </row>
-    <row r="736">
+    <row r="736" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A736" s="2"/>
       <c r="B736" s="2"/>
       <c r="C736" s="2"/>
@@ -20719,7 +20806,7 @@
       <c r="X736" s="2"/>
       <c r="Y736" s="2"/>
     </row>
-    <row r="737">
+    <row r="737" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A737" s="2"/>
       <c r="B737" s="2"/>
       <c r="C737" s="2"/>
@@ -20746,7 +20833,7 @@
       <c r="X737" s="2"/>
       <c r="Y737" s="2"/>
     </row>
-    <row r="738">
+    <row r="738" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A738" s="2"/>
       <c r="B738" s="2"/>
       <c r="C738" s="2"/>
@@ -20773,7 +20860,7 @@
       <c r="X738" s="2"/>
       <c r="Y738" s="2"/>
     </row>
-    <row r="739">
+    <row r="739" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A739" s="2"/>
       <c r="B739" s="2"/>
       <c r="C739" s="2"/>
@@ -20800,7 +20887,7 @@
       <c r="X739" s="2"/>
       <c r="Y739" s="2"/>
     </row>
-    <row r="740">
+    <row r="740" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A740" s="2"/>
       <c r="B740" s="2"/>
       <c r="C740" s="2"/>
@@ -20827,7 +20914,7 @@
       <c r="X740" s="2"/>
       <c r="Y740" s="2"/>
     </row>
-    <row r="741">
+    <row r="741" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A741" s="2"/>
       <c r="B741" s="2"/>
       <c r="C741" s="2"/>
@@ -20854,7 +20941,7 @@
       <c r="X741" s="2"/>
       <c r="Y741" s="2"/>
     </row>
-    <row r="742">
+    <row r="742" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A742" s="2"/>
       <c r="B742" s="2"/>
       <c r="C742" s="2"/>
@@ -20881,7 +20968,7 @@
       <c r="X742" s="2"/>
       <c r="Y742" s="2"/>
     </row>
-    <row r="743">
+    <row r="743" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A743" s="2"/>
       <c r="B743" s="2"/>
       <c r="C743" s="2"/>
@@ -20908,7 +20995,7 @@
       <c r="X743" s="2"/>
       <c r="Y743" s="2"/>
     </row>
-    <row r="744">
+    <row r="744" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A744" s="2"/>
       <c r="B744" s="2"/>
       <c r="C744" s="2"/>
@@ -20935,7 +21022,7 @@
       <c r="X744" s="2"/>
       <c r="Y744" s="2"/>
     </row>
-    <row r="745">
+    <row r="745" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A745" s="2"/>
       <c r="B745" s="2"/>
       <c r="C745" s="2"/>
@@ -20962,7 +21049,7 @@
       <c r="X745" s="2"/>
       <c r="Y745" s="2"/>
     </row>
-    <row r="746">
+    <row r="746" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A746" s="2"/>
       <c r="B746" s="2"/>
       <c r="C746" s="2"/>
@@ -20989,7 +21076,7 @@
       <c r="X746" s="2"/>
       <c r="Y746" s="2"/>
     </row>
-    <row r="747">
+    <row r="747" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A747" s="2"/>
       <c r="B747" s="2"/>
       <c r="C747" s="2"/>
@@ -21016,7 +21103,7 @@
       <c r="X747" s="2"/>
       <c r="Y747" s="2"/>
     </row>
-    <row r="748">
+    <row r="748" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A748" s="2"/>
       <c r="B748" s="2"/>
       <c r="C748" s="2"/>
@@ -21043,7 +21130,7 @@
       <c r="X748" s="2"/>
       <c r="Y748" s="2"/>
     </row>
-    <row r="749">
+    <row r="749" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A749" s="2"/>
       <c r="B749" s="2"/>
       <c r="C749" s="2"/>
@@ -21070,7 +21157,7 @@
       <c r="X749" s="2"/>
       <c r="Y749" s="2"/>
     </row>
-    <row r="750">
+    <row r="750" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A750" s="2"/>
       <c r="B750" s="2"/>
       <c r="C750" s="2"/>
@@ -21097,7 +21184,7 @@
       <c r="X750" s="2"/>
       <c r="Y750" s="2"/>
     </row>
-    <row r="751">
+    <row r="751" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A751" s="2"/>
       <c r="B751" s="2"/>
       <c r="C751" s="2"/>
@@ -21124,7 +21211,7 @@
       <c r="X751" s="2"/>
       <c r="Y751" s="2"/>
     </row>
-    <row r="752">
+    <row r="752" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A752" s="2"/>
       <c r="B752" s="2"/>
       <c r="C752" s="2"/>
@@ -21151,7 +21238,7 @@
       <c r="X752" s="2"/>
       <c r="Y752" s="2"/>
     </row>
-    <row r="753">
+    <row r="753" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A753" s="2"/>
       <c r="B753" s="2"/>
       <c r="C753" s="2"/>
@@ -21178,7 +21265,7 @@
       <c r="X753" s="2"/>
       <c r="Y753" s="2"/>
     </row>
-    <row r="754">
+    <row r="754" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A754" s="2"/>
       <c r="B754" s="2"/>
       <c r="C754" s="2"/>
@@ -21205,7 +21292,7 @@
       <c r="X754" s="2"/>
       <c r="Y754" s="2"/>
     </row>
-    <row r="755">
+    <row r="755" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A755" s="2"/>
       <c r="B755" s="2"/>
       <c r="C755" s="2"/>
@@ -21232,7 +21319,7 @@
       <c r="X755" s="2"/>
       <c r="Y755" s="2"/>
     </row>
-    <row r="756">
+    <row r="756" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A756" s="2"/>
       <c r="B756" s="2"/>
       <c r="C756" s="2"/>
@@ -21259,7 +21346,7 @@
       <c r="X756" s="2"/>
       <c r="Y756" s="2"/>
     </row>
-    <row r="757">
+    <row r="757" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A757" s="2"/>
       <c r="B757" s="2"/>
       <c r="C757" s="2"/>
@@ -21286,7 +21373,7 @@
       <c r="X757" s="2"/>
       <c r="Y757" s="2"/>
     </row>
-    <row r="758">
+    <row r="758" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A758" s="2"/>
       <c r="B758" s="2"/>
       <c r="C758" s="2"/>
@@ -21313,7 +21400,7 @@
       <c r="X758" s="2"/>
       <c r="Y758" s="2"/>
     </row>
-    <row r="759">
+    <row r="759" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A759" s="2"/>
       <c r="B759" s="2"/>
       <c r="C759" s="2"/>
@@ -21340,7 +21427,7 @@
       <c r="X759" s="2"/>
       <c r="Y759" s="2"/>
     </row>
-    <row r="760">
+    <row r="760" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A760" s="2"/>
       <c r="B760" s="2"/>
       <c r="C760" s="2"/>
@@ -21367,7 +21454,7 @@
       <c r="X760" s="2"/>
       <c r="Y760" s="2"/>
     </row>
-    <row r="761">
+    <row r="761" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A761" s="2"/>
       <c r="B761" s="2"/>
       <c r="C761" s="2"/>
@@ -21394,7 +21481,7 @@
       <c r="X761" s="2"/>
       <c r="Y761" s="2"/>
     </row>
-    <row r="762">
+    <row r="762" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A762" s="2"/>
       <c r="B762" s="2"/>
       <c r="C762" s="2"/>
@@ -21421,7 +21508,7 @@
       <c r="X762" s="2"/>
       <c r="Y762" s="2"/>
     </row>
-    <row r="763">
+    <row r="763" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A763" s="2"/>
       <c r="B763" s="2"/>
       <c r="C763" s="2"/>
@@ -21448,7 +21535,7 @@
       <c r="X763" s="2"/>
       <c r="Y763" s="2"/>
     </row>
-    <row r="764">
+    <row r="764" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A764" s="2"/>
       <c r="B764" s="2"/>
       <c r="C764" s="2"/>
@@ -21475,7 +21562,7 @@
       <c r="X764" s="2"/>
       <c r="Y764" s="2"/>
     </row>
-    <row r="765">
+    <row r="765" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A765" s="2"/>
       <c r="B765" s="2"/>
       <c r="C765" s="2"/>
@@ -21502,7 +21589,7 @@
       <c r="X765" s="2"/>
       <c r="Y765" s="2"/>
     </row>
-    <row r="766">
+    <row r="766" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A766" s="2"/>
       <c r="B766" s="2"/>
       <c r="C766" s="2"/>
@@ -21529,7 +21616,7 @@
       <c r="X766" s="2"/>
       <c r="Y766" s="2"/>
     </row>
-    <row r="767">
+    <row r="767" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A767" s="2"/>
       <c r="B767" s="2"/>
       <c r="C767" s="2"/>
@@ -21556,7 +21643,7 @@
       <c r="X767" s="2"/>
       <c r="Y767" s="2"/>
     </row>
-    <row r="768">
+    <row r="768" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A768" s="2"/>
       <c r="B768" s="2"/>
       <c r="C768" s="2"/>
@@ -21583,7 +21670,7 @@
       <c r="X768" s="2"/>
       <c r="Y768" s="2"/>
     </row>
-    <row r="769">
+    <row r="769" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A769" s="2"/>
       <c r="B769" s="2"/>
       <c r="C769" s="2"/>
@@ -21610,7 +21697,7 @@
       <c r="X769" s="2"/>
       <c r="Y769" s="2"/>
     </row>
-    <row r="770">
+    <row r="770" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A770" s="2"/>
       <c r="B770" s="2"/>
       <c r="C770" s="2"/>
@@ -21637,7 +21724,7 @@
       <c r="X770" s="2"/>
       <c r="Y770" s="2"/>
     </row>
-    <row r="771">
+    <row r="771" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A771" s="2"/>
       <c r="B771" s="2"/>
       <c r="C771" s="2"/>
@@ -21664,7 +21751,7 @@
       <c r="X771" s="2"/>
       <c r="Y771" s="2"/>
     </row>
-    <row r="772">
+    <row r="772" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A772" s="2"/>
       <c r="B772" s="2"/>
       <c r="C772" s="2"/>
@@ -21691,7 +21778,7 @@
       <c r="X772" s="2"/>
       <c r="Y772" s="2"/>
     </row>
-    <row r="773">
+    <row r="773" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A773" s="2"/>
       <c r="B773" s="2"/>
       <c r="C773" s="2"/>
@@ -21718,7 +21805,7 @@
       <c r="X773" s="2"/>
       <c r="Y773" s="2"/>
     </row>
-    <row r="774">
+    <row r="774" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A774" s="2"/>
       <c r="B774" s="2"/>
       <c r="C774" s="2"/>
@@ -21745,7 +21832,7 @@
       <c r="X774" s="2"/>
       <c r="Y774" s="2"/>
     </row>
-    <row r="775">
+    <row r="775" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A775" s="2"/>
       <c r="B775" s="2"/>
       <c r="C775" s="2"/>
@@ -21772,7 +21859,7 @@
       <c r="X775" s="2"/>
       <c r="Y775" s="2"/>
     </row>
-    <row r="776">
+    <row r="776" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A776" s="2"/>
       <c r="B776" s="2"/>
       <c r="C776" s="2"/>
@@ -21799,7 +21886,7 @@
       <c r="X776" s="2"/>
       <c r="Y776" s="2"/>
     </row>
-    <row r="777">
+    <row r="777" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A777" s="2"/>
       <c r="B777" s="2"/>
       <c r="C777" s="2"/>
@@ -21826,7 +21913,7 @@
       <c r="X777" s="2"/>
       <c r="Y777" s="2"/>
     </row>
-    <row r="778">
+    <row r="778" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A778" s="2"/>
       <c r="B778" s="2"/>
       <c r="C778" s="2"/>
@@ -21853,7 +21940,7 @@
       <c r="X778" s="2"/>
       <c r="Y778" s="2"/>
     </row>
-    <row r="779">
+    <row r="779" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A779" s="2"/>
       <c r="B779" s="2"/>
       <c r="C779" s="2"/>
@@ -21880,7 +21967,7 @@
       <c r="X779" s="2"/>
       <c r="Y779" s="2"/>
     </row>
-    <row r="780">
+    <row r="780" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A780" s="2"/>
       <c r="B780" s="2"/>
       <c r="C780" s="2"/>
@@ -21907,7 +21994,7 @@
       <c r="X780" s="2"/>
       <c r="Y780" s="2"/>
     </row>
-    <row r="781">
+    <row r="781" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A781" s="2"/>
       <c r="B781" s="2"/>
       <c r="C781" s="2"/>
@@ -21934,7 +22021,7 @@
       <c r="X781" s="2"/>
       <c r="Y781" s="2"/>
     </row>
-    <row r="782">
+    <row r="782" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A782" s="2"/>
       <c r="B782" s="2"/>
       <c r="C782" s="2"/>
@@ -21961,7 +22048,7 @@
       <c r="X782" s="2"/>
       <c r="Y782" s="2"/>
     </row>
-    <row r="783">
+    <row r="783" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A783" s="2"/>
       <c r="B783" s="2"/>
       <c r="C783" s="2"/>
@@ -21988,7 +22075,7 @@
       <c r="X783" s="2"/>
       <c r="Y783" s="2"/>
     </row>
-    <row r="784">
+    <row r="784" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A784" s="2"/>
       <c r="B784" s="2"/>
       <c r="C784" s="2"/>
@@ -22015,7 +22102,7 @@
       <c r="X784" s="2"/>
       <c r="Y784" s="2"/>
     </row>
-    <row r="785">
+    <row r="785" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A785" s="2"/>
       <c r="B785" s="2"/>
       <c r="C785" s="2"/>
@@ -22042,7 +22129,7 @@
       <c r="X785" s="2"/>
       <c r="Y785" s="2"/>
     </row>
-    <row r="786">
+    <row r="786" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A786" s="2"/>
       <c r="B786" s="2"/>
       <c r="C786" s="2"/>
@@ -22069,7 +22156,7 @@
       <c r="X786" s="2"/>
       <c r="Y786" s="2"/>
     </row>
-    <row r="787">
+    <row r="787" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A787" s="2"/>
       <c r="B787" s="2"/>
       <c r="C787" s="2"/>
@@ -22096,7 +22183,7 @@
       <c r="X787" s="2"/>
       <c r="Y787" s="2"/>
     </row>
-    <row r="788">
+    <row r="788" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A788" s="2"/>
       <c r="B788" s="2"/>
       <c r="C788" s="2"/>
@@ -22123,7 +22210,7 @@
       <c r="X788" s="2"/>
       <c r="Y788" s="2"/>
     </row>
-    <row r="789">
+    <row r="789" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A789" s="2"/>
       <c r="B789" s="2"/>
       <c r="C789" s="2"/>
@@ -22150,7 +22237,7 @@
       <c r="X789" s="2"/>
       <c r="Y789" s="2"/>
     </row>
-    <row r="790">
+    <row r="790" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A790" s="2"/>
       <c r="B790" s="2"/>
       <c r="C790" s="2"/>
@@ -22177,7 +22264,7 @@
       <c r="X790" s="2"/>
       <c r="Y790" s="2"/>
     </row>
-    <row r="791">
+    <row r="791" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A791" s="2"/>
       <c r="B791" s="2"/>
       <c r="C791" s="2"/>
@@ -22204,7 +22291,7 @@
       <c r="X791" s="2"/>
       <c r="Y791" s="2"/>
     </row>
-    <row r="792">
+    <row r="792" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A792" s="2"/>
       <c r="B792" s="2"/>
       <c r="C792" s="2"/>
@@ -22231,7 +22318,7 @@
       <c r="X792" s="2"/>
       <c r="Y792" s="2"/>
     </row>
-    <row r="793">
+    <row r="793" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A793" s="2"/>
       <c r="B793" s="2"/>
       <c r="C793" s="2"/>
@@ -22258,7 +22345,7 @@
       <c r="X793" s="2"/>
       <c r="Y793" s="2"/>
     </row>
-    <row r="794">
+    <row r="794" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A794" s="2"/>
       <c r="B794" s="2"/>
       <c r="C794" s="2"/>
@@ -22285,7 +22372,7 @@
       <c r="X794" s="2"/>
       <c r="Y794" s="2"/>
     </row>
-    <row r="795">
+    <row r="795" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A795" s="2"/>
       <c r="B795" s="2"/>
       <c r="C795" s="2"/>
@@ -22312,7 +22399,7 @@
       <c r="X795" s="2"/>
       <c r="Y795" s="2"/>
     </row>
-    <row r="796">
+    <row r="796" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A796" s="2"/>
       <c r="B796" s="2"/>
       <c r="C796" s="2"/>
@@ -22339,7 +22426,7 @@
       <c r="X796" s="2"/>
       <c r="Y796" s="2"/>
     </row>
-    <row r="797">
+    <row r="797" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A797" s="2"/>
       <c r="B797" s="2"/>
       <c r="C797" s="2"/>
@@ -22366,7 +22453,7 @@
       <c r="X797" s="2"/>
       <c r="Y797" s="2"/>
     </row>
-    <row r="798">
+    <row r="798" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A798" s="2"/>
       <c r="B798" s="2"/>
       <c r="C798" s="2"/>
@@ -22393,7 +22480,7 @@
       <c r="X798" s="2"/>
       <c r="Y798" s="2"/>
     </row>
-    <row r="799">
+    <row r="799" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A799" s="2"/>
       <c r="B799" s="2"/>
       <c r="C799" s="2"/>
@@ -22420,7 +22507,7 @@
       <c r="X799" s="2"/>
       <c r="Y799" s="2"/>
     </row>
-    <row r="800">
+    <row r="800" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A800" s="2"/>
       <c r="B800" s="2"/>
       <c r="C800" s="2"/>
@@ -22447,7 +22534,7 @@
       <c r="X800" s="2"/>
       <c r="Y800" s="2"/>
     </row>
-    <row r="801">
+    <row r="801" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A801" s="2"/>
       <c r="B801" s="2"/>
       <c r="C801" s="2"/>
@@ -22474,7 +22561,7 @@
       <c r="X801" s="2"/>
       <c r="Y801" s="2"/>
     </row>
-    <row r="802">
+    <row r="802" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A802" s="2"/>
       <c r="B802" s="2"/>
       <c r="C802" s="2"/>
@@ -22501,7 +22588,7 @@
       <c r="X802" s="2"/>
       <c r="Y802" s="2"/>
     </row>
-    <row r="803">
+    <row r="803" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A803" s="2"/>
       <c r="B803" s="2"/>
       <c r="C803" s="2"/>
@@ -22528,7 +22615,7 @@
       <c r="X803" s="2"/>
       <c r="Y803" s="2"/>
     </row>
-    <row r="804">
+    <row r="804" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A804" s="2"/>
       <c r="B804" s="2"/>
       <c r="C804" s="2"/>
@@ -22555,7 +22642,7 @@
       <c r="X804" s="2"/>
       <c r="Y804" s="2"/>
     </row>
-    <row r="805">
+    <row r="805" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A805" s="2"/>
       <c r="B805" s="2"/>
       <c r="C805" s="2"/>
@@ -22582,7 +22669,7 @@
       <c r="X805" s="2"/>
       <c r="Y805" s="2"/>
     </row>
-    <row r="806">
+    <row r="806" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A806" s="2"/>
       <c r="B806" s="2"/>
       <c r="C806" s="2"/>
@@ -22609,7 +22696,7 @@
       <c r="X806" s="2"/>
       <c r="Y806" s="2"/>
     </row>
-    <row r="807">
+    <row r="807" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A807" s="2"/>
       <c r="B807" s="2"/>
       <c r="C807" s="2"/>
@@ -22636,7 +22723,7 @@
       <c r="X807" s="2"/>
       <c r="Y807" s="2"/>
     </row>
-    <row r="808">
+    <row r="808" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A808" s="2"/>
       <c r="B808" s="2"/>
       <c r="C808" s="2"/>
@@ -22663,7 +22750,7 @@
       <c r="X808" s="2"/>
       <c r="Y808" s="2"/>
     </row>
-    <row r="809">
+    <row r="809" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A809" s="2"/>
       <c r="B809" s="2"/>
       <c r="C809" s="2"/>
@@ -22690,7 +22777,7 @@
       <c r="X809" s="2"/>
       <c r="Y809" s="2"/>
     </row>
-    <row r="810">
+    <row r="810" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A810" s="2"/>
       <c r="B810" s="2"/>
       <c r="C810" s="2"/>
@@ -22717,7 +22804,7 @@
       <c r="X810" s="2"/>
       <c r="Y810" s="2"/>
     </row>
-    <row r="811">
+    <row r="811" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A811" s="2"/>
       <c r="B811" s="2"/>
       <c r="C811" s="2"/>
@@ -22744,7 +22831,7 @@
       <c r="X811" s="2"/>
       <c r="Y811" s="2"/>
     </row>
-    <row r="812">
+    <row r="812" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A812" s="2"/>
       <c r="B812" s="2"/>
       <c r="C812" s="2"/>
@@ -22771,7 +22858,7 @@
       <c r="X812" s="2"/>
       <c r="Y812" s="2"/>
     </row>
-    <row r="813">
+    <row r="813" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A813" s="2"/>
       <c r="B813" s="2"/>
       <c r="C813" s="2"/>
@@ -22798,7 +22885,7 @@
       <c r="X813" s="2"/>
       <c r="Y813" s="2"/>
     </row>
-    <row r="814">
+    <row r="814" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A814" s="2"/>
       <c r="B814" s="2"/>
       <c r="C814" s="2"/>
@@ -22825,7 +22912,7 @@
       <c r="X814" s="2"/>
       <c r="Y814" s="2"/>
     </row>
-    <row r="815">
+    <row r="815" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A815" s="2"/>
       <c r="B815" s="2"/>
       <c r="C815" s="2"/>
@@ -22852,7 +22939,7 @@
       <c r="X815" s="2"/>
       <c r="Y815" s="2"/>
     </row>
-    <row r="816">
+    <row r="816" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A816" s="2"/>
       <c r="B816" s="2"/>
       <c r="C816" s="2"/>
@@ -22879,7 +22966,7 @@
       <c r="X816" s="2"/>
       <c r="Y816" s="2"/>
     </row>
-    <row r="817">
+    <row r="817" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A817" s="2"/>
       <c r="B817" s="2"/>
       <c r="C817" s="2"/>
@@ -22906,7 +22993,7 @@
       <c r="X817" s="2"/>
       <c r="Y817" s="2"/>
     </row>
-    <row r="818">
+    <row r="818" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A818" s="2"/>
       <c r="B818" s="2"/>
       <c r="C818" s="2"/>
@@ -22933,7 +23020,7 @@
       <c r="X818" s="2"/>
       <c r="Y818" s="2"/>
     </row>
-    <row r="819">
+    <row r="819" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A819" s="2"/>
       <c r="B819" s="2"/>
       <c r="C819" s="2"/>
@@ -22960,7 +23047,7 @@
       <c r="X819" s="2"/>
       <c r="Y819" s="2"/>
     </row>
-    <row r="820">
+    <row r="820" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A820" s="2"/>
       <c r="B820" s="2"/>
       <c r="C820" s="2"/>
@@ -22987,7 +23074,7 @@
       <c r="X820" s="2"/>
       <c r="Y820" s="2"/>
     </row>
-    <row r="821">
+    <row r="821" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A821" s="2"/>
       <c r="B821" s="2"/>
       <c r="C821" s="2"/>
@@ -23014,7 +23101,7 @@
       <c r="X821" s="2"/>
       <c r="Y821" s="2"/>
     </row>
-    <row r="822">
+    <row r="822" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A822" s="2"/>
       <c r="B822" s="2"/>
       <c r="C822" s="2"/>
@@ -23041,7 +23128,7 @@
       <c r="X822" s="2"/>
       <c r="Y822" s="2"/>
     </row>
-    <row r="823">
+    <row r="823" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A823" s="2"/>
       <c r="B823" s="2"/>
       <c r="C823" s="2"/>
@@ -23068,7 +23155,7 @@
       <c r="X823" s="2"/>
       <c r="Y823" s="2"/>
     </row>
-    <row r="824">
+    <row r="824" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A824" s="2"/>
       <c r="B824" s="2"/>
       <c r="C824" s="2"/>
@@ -23095,7 +23182,7 @@
       <c r="X824" s="2"/>
       <c r="Y824" s="2"/>
     </row>
-    <row r="825">
+    <row r="825" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A825" s="2"/>
       <c r="B825" s="2"/>
       <c r="C825" s="2"/>
@@ -23122,7 +23209,7 @@
       <c r="X825" s="2"/>
       <c r="Y825" s="2"/>
     </row>
-    <row r="826">
+    <row r="826" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A826" s="2"/>
       <c r="B826" s="2"/>
       <c r="C826" s="2"/>
@@ -23149,7 +23236,7 @@
       <c r="X826" s="2"/>
       <c r="Y826" s="2"/>
     </row>
-    <row r="827">
+    <row r="827" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A827" s="2"/>
       <c r="B827" s="2"/>
       <c r="C827" s="2"/>
@@ -23176,7 +23263,7 @@
       <c r="X827" s="2"/>
       <c r="Y827" s="2"/>
     </row>
-    <row r="828">
+    <row r="828" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A828" s="2"/>
       <c r="B828" s="2"/>
       <c r="C828" s="2"/>
@@ -23203,7 +23290,7 @@
       <c r="X828" s="2"/>
       <c r="Y828" s="2"/>
     </row>
-    <row r="829">
+    <row r="829" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A829" s="2"/>
       <c r="B829" s="2"/>
       <c r="C829" s="2"/>
@@ -23230,7 +23317,7 @@
       <c r="X829" s="2"/>
       <c r="Y829" s="2"/>
     </row>
-    <row r="830">
+    <row r="830" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A830" s="2"/>
       <c r="B830" s="2"/>
       <c r="C830" s="2"/>
@@ -23257,7 +23344,7 @@
       <c r="X830" s="2"/>
       <c r="Y830" s="2"/>
     </row>
-    <row r="831">
+    <row r="831" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A831" s="2"/>
       <c r="B831" s="2"/>
       <c r="C831" s="2"/>
@@ -23284,7 +23371,7 @@
       <c r="X831" s="2"/>
       <c r="Y831" s="2"/>
     </row>
-    <row r="832">
+    <row r="832" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A832" s="2"/>
       <c r="B832" s="2"/>
       <c r="C832" s="2"/>
@@ -23311,7 +23398,7 @@
       <c r="X832" s="2"/>
       <c r="Y832" s="2"/>
     </row>
-    <row r="833">
+    <row r="833" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A833" s="2"/>
       <c r="B833" s="2"/>
       <c r="C833" s="2"/>
@@ -23338,7 +23425,7 @@
       <c r="X833" s="2"/>
       <c r="Y833" s="2"/>
     </row>
-    <row r="834">
+    <row r="834" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A834" s="2"/>
       <c r="B834" s="2"/>
       <c r="C834" s="2"/>
@@ -23365,7 +23452,7 @@
       <c r="X834" s="2"/>
       <c r="Y834" s="2"/>
     </row>
-    <row r="835">
+    <row r="835" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A835" s="2"/>
       <c r="B835" s="2"/>
       <c r="C835" s="2"/>
@@ -23392,7 +23479,7 @@
       <c r="X835" s="2"/>
       <c r="Y835" s="2"/>
     </row>
-    <row r="836">
+    <row r="836" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A836" s="2"/>
       <c r="B836" s="2"/>
       <c r="C836" s="2"/>
@@ -23419,7 +23506,7 @@
       <c r="X836" s="2"/>
       <c r="Y836" s="2"/>
     </row>
-    <row r="837">
+    <row r="837" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A837" s="2"/>
       <c r="B837" s="2"/>
       <c r="C837" s="2"/>
@@ -23446,7 +23533,7 @@
       <c r="X837" s="2"/>
       <c r="Y837" s="2"/>
     </row>
-    <row r="838">
+    <row r="838" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A838" s="2"/>
       <c r="B838" s="2"/>
       <c r="C838" s="2"/>
@@ -23473,7 +23560,7 @@
       <c r="X838" s="2"/>
       <c r="Y838" s="2"/>
     </row>
-    <row r="839">
+    <row r="839" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A839" s="2"/>
       <c r="B839" s="2"/>
       <c r="C839" s="2"/>
@@ -23500,7 +23587,7 @@
       <c r="X839" s="2"/>
       <c r="Y839" s="2"/>
     </row>
-    <row r="840">
+    <row r="840" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A840" s="2"/>
       <c r="B840" s="2"/>
       <c r="C840" s="2"/>
@@ -23527,7 +23614,7 @@
       <c r="X840" s="2"/>
       <c r="Y840" s="2"/>
     </row>
-    <row r="841">
+    <row r="841" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A841" s="2"/>
       <c r="B841" s="2"/>
       <c r="C841" s="2"/>
@@ -23554,7 +23641,7 @@
       <c r="X841" s="2"/>
       <c r="Y841" s="2"/>
     </row>
-    <row r="842">
+    <row r="842" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A842" s="2"/>
       <c r="B842" s="2"/>
       <c r="C842" s="2"/>
@@ -23581,7 +23668,7 @@
       <c r="X842" s="2"/>
       <c r="Y842" s="2"/>
     </row>
-    <row r="843">
+    <row r="843" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A843" s="2"/>
       <c r="B843" s="2"/>
       <c r="C843" s="2"/>
@@ -23608,7 +23695,7 @@
       <c r="X843" s="2"/>
       <c r="Y843" s="2"/>
     </row>
-    <row r="844">
+    <row r="844" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A844" s="2"/>
       <c r="B844" s="2"/>
       <c r="C844" s="2"/>
@@ -23635,7 +23722,7 @@
       <c r="X844" s="2"/>
       <c r="Y844" s="2"/>
     </row>
-    <row r="845">
+    <row r="845" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A845" s="2"/>
       <c r="B845" s="2"/>
       <c r="C845" s="2"/>
@@ -23662,7 +23749,7 @@
       <c r="X845" s="2"/>
       <c r="Y845" s="2"/>
     </row>
-    <row r="846">
+    <row r="846" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A846" s="2"/>
       <c r="B846" s="2"/>
       <c r="C846" s="2"/>
@@ -23689,7 +23776,7 @@
       <c r="X846" s="2"/>
       <c r="Y846" s="2"/>
     </row>
-    <row r="847">
+    <row r="847" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A847" s="2"/>
       <c r="B847" s="2"/>
       <c r="C847" s="2"/>
@@ -23716,7 +23803,7 @@
       <c r="X847" s="2"/>
       <c r="Y847" s="2"/>
     </row>
-    <row r="848">
+    <row r="848" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A848" s="2"/>
       <c r="B848" s="2"/>
       <c r="C848" s="2"/>
@@ -23743,7 +23830,7 @@
       <c r="X848" s="2"/>
       <c r="Y848" s="2"/>
     </row>
-    <row r="849">
+    <row r="849" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A849" s="2"/>
       <c r="B849" s="2"/>
       <c r="C849" s="2"/>
@@ -23770,7 +23857,7 @@
       <c r="X849" s="2"/>
       <c r="Y849" s="2"/>
     </row>
-    <row r="850">
+    <row r="850" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A850" s="2"/>
       <c r="B850" s="2"/>
       <c r="C850" s="2"/>
@@ -23797,7 +23884,7 @@
       <c r="X850" s="2"/>
       <c r="Y850" s="2"/>
     </row>
-    <row r="851">
+    <row r="851" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A851" s="2"/>
       <c r="B851" s="2"/>
       <c r="C851" s="2"/>
@@ -23824,7 +23911,7 @@
       <c r="X851" s="2"/>
       <c r="Y851" s="2"/>
     </row>
-    <row r="852">
+    <row r="852" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A852" s="2"/>
       <c r="B852" s="2"/>
       <c r="C852" s="2"/>
@@ -23851,7 +23938,7 @@
       <c r="X852" s="2"/>
       <c r="Y852" s="2"/>
     </row>
-    <row r="853">
+    <row r="853" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A853" s="2"/>
       <c r="B853" s="2"/>
       <c r="C853" s="2"/>
@@ -23878,7 +23965,7 @@
       <c r="X853" s="2"/>
       <c r="Y853" s="2"/>
     </row>
-    <row r="854">
+    <row r="854" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A854" s="2"/>
       <c r="B854" s="2"/>
       <c r="C854" s="2"/>
@@ -23905,7 +23992,7 @@
       <c r="X854" s="2"/>
       <c r="Y854" s="2"/>
     </row>
-    <row r="855">
+    <row r="855" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A855" s="2"/>
       <c r="B855" s="2"/>
       <c r="C855" s="2"/>
@@ -23932,7 +24019,7 @@
       <c r="X855" s="2"/>
       <c r="Y855" s="2"/>
     </row>
-    <row r="856">
+    <row r="856" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A856" s="2"/>
       <c r="B856" s="2"/>
       <c r="C856" s="2"/>
@@ -23959,7 +24046,7 @@
       <c r="X856" s="2"/>
       <c r="Y856" s="2"/>
     </row>
-    <row r="857">
+    <row r="857" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A857" s="2"/>
       <c r="B857" s="2"/>
       <c r="C857" s="2"/>
@@ -23986,7 +24073,7 @@
       <c r="X857" s="2"/>
       <c r="Y857" s="2"/>
     </row>
-    <row r="858">
+    <row r="858" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A858" s="2"/>
       <c r="B858" s="2"/>
       <c r="C858" s="2"/>
@@ -24013,7 +24100,7 @@
       <c r="X858" s="2"/>
       <c r="Y858" s="2"/>
     </row>
-    <row r="859">
+    <row r="859" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A859" s="2"/>
       <c r="B859" s="2"/>
       <c r="C859" s="2"/>
@@ -24040,7 +24127,7 @@
       <c r="X859" s="2"/>
       <c r="Y859" s="2"/>
     </row>
-    <row r="860">
+    <row r="860" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A860" s="2"/>
       <c r="B860" s="2"/>
       <c r="C860" s="2"/>
@@ -24067,7 +24154,7 @@
       <c r="X860" s="2"/>
       <c r="Y860" s="2"/>
     </row>
-    <row r="861">
+    <row r="861" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A861" s="2"/>
       <c r="B861" s="2"/>
       <c r="C861" s="2"/>
@@ -24094,7 +24181,7 @@
       <c r="X861" s="2"/>
       <c r="Y861" s="2"/>
     </row>
-    <row r="862">
+    <row r="862" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A862" s="2"/>
       <c r="B862" s="2"/>
       <c r="C862" s="2"/>
@@ -24121,7 +24208,7 @@
       <c r="X862" s="2"/>
       <c r="Y862" s="2"/>
     </row>
-    <row r="863">
+    <row r="863" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A863" s="2"/>
       <c r="B863" s="2"/>
       <c r="C863" s="2"/>
@@ -24148,7 +24235,7 @@
       <c r="X863" s="2"/>
       <c r="Y863" s="2"/>
     </row>
-    <row r="864">
+    <row r="864" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A864" s="2"/>
       <c r="B864" s="2"/>
       <c r="C864" s="2"/>
@@ -24175,7 +24262,7 @@
       <c r="X864" s="2"/>
       <c r="Y864" s="2"/>
     </row>
-    <row r="865">
+    <row r="865" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A865" s="2"/>
       <c r="B865" s="2"/>
       <c r="C865" s="2"/>
@@ -24202,7 +24289,7 @@
       <c r="X865" s="2"/>
       <c r="Y865" s="2"/>
     </row>
-    <row r="866">
+    <row r="866" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A866" s="2"/>
       <c r="B866" s="2"/>
       <c r="C866" s="2"/>
@@ -24229,7 +24316,7 @@
       <c r="X866" s="2"/>
       <c r="Y866" s="2"/>
     </row>
-    <row r="867">
+    <row r="867" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A867" s="2"/>
       <c r="B867" s="2"/>
       <c r="C867" s="2"/>
@@ -24256,7 +24343,7 @@
       <c r="X867" s="2"/>
       <c r="Y867" s="2"/>
     </row>
-    <row r="868">
+    <row r="868" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A868" s="2"/>
       <c r="B868" s="2"/>
       <c r="C868" s="2"/>
@@ -24283,7 +24370,7 @@
       <c r="X868" s="2"/>
       <c r="Y868" s="2"/>
     </row>
-    <row r="869">
+    <row r="869" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A869" s="2"/>
       <c r="B869" s="2"/>
       <c r="C869" s="2"/>
@@ -24310,7 +24397,7 @@
       <c r="X869" s="2"/>
       <c r="Y869" s="2"/>
     </row>
-    <row r="870">
+    <row r="870" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A870" s="2"/>
       <c r="B870" s="2"/>
       <c r="C870" s="2"/>
@@ -24337,7 +24424,7 @@
       <c r="X870" s="2"/>
       <c r="Y870" s="2"/>
     </row>
-    <row r="871">
+    <row r="871" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A871" s="2"/>
       <c r="B871" s="2"/>
       <c r="C871" s="2"/>
@@ -24364,7 +24451,7 @@
       <c r="X871" s="2"/>
       <c r="Y871" s="2"/>
     </row>
-    <row r="872">
+    <row r="872" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A872" s="2"/>
       <c r="B872" s="2"/>
       <c r="C872" s="2"/>
@@ -24391,7 +24478,7 @@
       <c r="X872" s="2"/>
       <c r="Y872" s="2"/>
     </row>
-    <row r="873">
+    <row r="873" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A873" s="2"/>
       <c r="B873" s="2"/>
       <c r="C873" s="2"/>
@@ -24418,7 +24505,7 @@
       <c r="X873" s="2"/>
       <c r="Y873" s="2"/>
     </row>
-    <row r="874">
+    <row r="874" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A874" s="2"/>
       <c r="B874" s="2"/>
       <c r="C874" s="2"/>
@@ -24445,7 +24532,7 @@
       <c r="X874" s="2"/>
       <c r="Y874" s="2"/>
     </row>
-    <row r="875">
+    <row r="875" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A875" s="2"/>
       <c r="B875" s="2"/>
       <c r="C875" s="2"/>
@@ -24472,7 +24559,7 @@
       <c r="X875" s="2"/>
       <c r="Y875" s="2"/>
     </row>
-    <row r="876">
+    <row r="876" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A876" s="2"/>
       <c r="B876" s="2"/>
       <c r="C876" s="2"/>
@@ -24499,7 +24586,7 @@
       <c r="X876" s="2"/>
       <c r="Y876" s="2"/>
     </row>
-    <row r="877">
+    <row r="877" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A877" s="2"/>
       <c r="B877" s="2"/>
       <c r="C877" s="2"/>
@@ -24526,7 +24613,7 @@
       <c r="X877" s="2"/>
       <c r="Y877" s="2"/>
     </row>
-    <row r="878">
+    <row r="878" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A878" s="2"/>
       <c r="B878" s="2"/>
       <c r="C878" s="2"/>
@@ -24553,7 +24640,7 @@
       <c r="X878" s="2"/>
       <c r="Y878" s="2"/>
     </row>
-    <row r="879">
+    <row r="879" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A879" s="2"/>
       <c r="B879" s="2"/>
       <c r="C879" s="2"/>
@@ -24580,7 +24667,7 @@
       <c r="X879" s="2"/>
       <c r="Y879" s="2"/>
     </row>
-    <row r="880">
+    <row r="880" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A880" s="2"/>
       <c r="B880" s="2"/>
       <c r="C880" s="2"/>
@@ -24607,7 +24694,7 @@
       <c r="X880" s="2"/>
       <c r="Y880" s="2"/>
     </row>
-    <row r="881">
+    <row r="881" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A881" s="2"/>
       <c r="B881" s="2"/>
       <c r="C881" s="2"/>
@@ -24634,7 +24721,7 @@
       <c r="X881" s="2"/>
       <c r="Y881" s="2"/>
     </row>
-    <row r="882">
+    <row r="882" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A882" s="2"/>
       <c r="B882" s="2"/>
       <c r="C882" s="2"/>
@@ -24661,7 +24748,7 @@
       <c r="X882" s="2"/>
       <c r="Y882" s="2"/>
     </row>
-    <row r="883">
+    <row r="883" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A883" s="2"/>
       <c r="B883" s="2"/>
       <c r="C883" s="2"/>
@@ -24688,7 +24775,7 @@
       <c r="X883" s="2"/>
       <c r="Y883" s="2"/>
     </row>
-    <row r="884">
+    <row r="884" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A884" s="2"/>
       <c r="B884" s="2"/>
       <c r="C884" s="2"/>
@@ -24715,7 +24802,7 @@
       <c r="X884" s="2"/>
       <c r="Y884" s="2"/>
     </row>
-    <row r="885">
+    <row r="885" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A885" s="2"/>
       <c r="B885" s="2"/>
       <c r="C885" s="2"/>
@@ -24742,7 +24829,7 @@
       <c r="X885" s="2"/>
       <c r="Y885" s="2"/>
     </row>
-    <row r="886">
+    <row r="886" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A886" s="2"/>
       <c r="B886" s="2"/>
       <c r="C886" s="2"/>
@@ -24769,7 +24856,7 @@
       <c r="X886" s="2"/>
       <c r="Y886" s="2"/>
     </row>
-    <row r="887">
+    <row r="887" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A887" s="2"/>
       <c r="B887" s="2"/>
       <c r="C887" s="2"/>
@@ -24796,7 +24883,7 @@
       <c r="X887" s="2"/>
       <c r="Y887" s="2"/>
     </row>
-    <row r="888">
+    <row r="888" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A888" s="2"/>
       <c r="B888" s="2"/>
       <c r="C888" s="2"/>
@@ -24823,7 +24910,7 @@
       <c r="X888" s="2"/>
       <c r="Y888" s="2"/>
     </row>
-    <row r="889">
+    <row r="889" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A889" s="2"/>
       <c r="B889" s="2"/>
       <c r="C889" s="2"/>
@@ -24850,7 +24937,7 @@
       <c r="X889" s="2"/>
       <c r="Y889" s="2"/>
     </row>
-    <row r="890">
+    <row r="890" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A890" s="2"/>
       <c r="B890" s="2"/>
       <c r="C890" s="2"/>
@@ -24877,7 +24964,7 @@
       <c r="X890" s="2"/>
       <c r="Y890" s="2"/>
     </row>
-    <row r="891">
+    <row r="891" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A891" s="2"/>
       <c r="B891" s="2"/>
       <c r="C891" s="2"/>
@@ -24904,7 +24991,7 @@
       <c r="X891" s="2"/>
       <c r="Y891" s="2"/>
     </row>
-    <row r="892">
+    <row r="892" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A892" s="2"/>
       <c r="B892" s="2"/>
       <c r="C892" s="2"/>
@@ -24931,7 +25018,7 @@
       <c r="X892" s="2"/>
       <c r="Y892" s="2"/>
     </row>
-    <row r="893">
+    <row r="893" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A893" s="2"/>
       <c r="B893" s="2"/>
       <c r="C893" s="2"/>
@@ -24958,7 +25045,7 @@
       <c r="X893" s="2"/>
       <c r="Y893" s="2"/>
     </row>
-    <row r="894">
+    <row r="894" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A894" s="2"/>
       <c r="B894" s="2"/>
       <c r="C894" s="2"/>
@@ -24985,7 +25072,7 @@
       <c r="X894" s="2"/>
       <c r="Y894" s="2"/>
     </row>
-    <row r="895">
+    <row r="895" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A895" s="2"/>
       <c r="B895" s="2"/>
       <c r="C895" s="2"/>
@@ -25012,7 +25099,7 @@
       <c r="X895" s="2"/>
       <c r="Y895" s="2"/>
     </row>
-    <row r="896">
+    <row r="896" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A896" s="2"/>
       <c r="B896" s="2"/>
       <c r="C896" s="2"/>
@@ -25039,7 +25126,7 @@
       <c r="X896" s="2"/>
       <c r="Y896" s="2"/>
     </row>
-    <row r="897">
+    <row r="897" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A897" s="2"/>
       <c r="B897" s="2"/>
       <c r="C897" s="2"/>
@@ -25066,7 +25153,7 @@
       <c r="X897" s="2"/>
       <c r="Y897" s="2"/>
     </row>
-    <row r="898">
+    <row r="898" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A898" s="2"/>
       <c r="B898" s="2"/>
       <c r="C898" s="2"/>
@@ -25093,7 +25180,7 @@
       <c r="X898" s="2"/>
       <c r="Y898" s="2"/>
     </row>
-    <row r="899">
+    <row r="899" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A899" s="2"/>
       <c r="B899" s="2"/>
       <c r="C899" s="2"/>
@@ -25120,7 +25207,7 @@
       <c r="X899" s="2"/>
       <c r="Y899" s="2"/>
     </row>
-    <row r="900">
+    <row r="900" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A900" s="2"/>
       <c r="B900" s="2"/>
       <c r="C900" s="2"/>
@@ -25147,7 +25234,7 @@
       <c r="X900" s="2"/>
       <c r="Y900" s="2"/>
     </row>
-    <row r="901">
+    <row r="901" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A901" s="2"/>
       <c r="B901" s="2"/>
       <c r="C901" s="2"/>
@@ -25174,7 +25261,7 @@
       <c r="X901" s="2"/>
       <c r="Y901" s="2"/>
     </row>
-    <row r="902">
+    <row r="902" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A902" s="2"/>
       <c r="B902" s="2"/>
       <c r="C902" s="2"/>
@@ -25201,7 +25288,7 @@
       <c r="X902" s="2"/>
       <c r="Y902" s="2"/>
     </row>
-    <row r="903">
+    <row r="903" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A903" s="2"/>
       <c r="B903" s="2"/>
       <c r="C903" s="2"/>
@@ -25228,7 +25315,7 @@
       <c r="X903" s="2"/>
       <c r="Y903" s="2"/>
     </row>
-    <row r="904">
+    <row r="904" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A904" s="2"/>
       <c r="B904" s="2"/>
       <c r="C904" s="2"/>
@@ -25255,7 +25342,7 @@
       <c r="X904" s="2"/>
       <c r="Y904" s="2"/>
     </row>
-    <row r="905">
+    <row r="905" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A905" s="2"/>
       <c r="B905" s="2"/>
       <c r="C905" s="2"/>
@@ -25282,7 +25369,7 @@
       <c r="X905" s="2"/>
       <c r="Y905" s="2"/>
     </row>
-    <row r="906">
+    <row r="906" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A906" s="2"/>
       <c r="B906" s="2"/>
       <c r="C906" s="2"/>
@@ -25309,7 +25396,7 @@
       <c r="X906" s="2"/>
       <c r="Y906" s="2"/>
     </row>
-    <row r="907">
+    <row r="907" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A907" s="2"/>
       <c r="B907" s="2"/>
       <c r="C907" s="2"/>
@@ -25336,7 +25423,7 @@
       <c r="X907" s="2"/>
       <c r="Y907" s="2"/>
     </row>
-    <row r="908">
+    <row r="908" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A908" s="2"/>
       <c r="B908" s="2"/>
       <c r="C908" s="2"/>
@@ -25363,7 +25450,7 @@
       <c r="X908" s="2"/>
       <c r="Y908" s="2"/>
     </row>
-    <row r="909">
+    <row r="909" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A909" s="2"/>
       <c r="B909" s="2"/>
       <c r="C909" s="2"/>
@@ -25390,7 +25477,7 @@
       <c r="X909" s="2"/>
       <c r="Y909" s="2"/>
     </row>
-    <row r="910">
+    <row r="910" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A910" s="2"/>
       <c r="B910" s="2"/>
       <c r="C910" s="2"/>
@@ -25417,7 +25504,7 @@
       <c r="X910" s="2"/>
       <c r="Y910" s="2"/>
     </row>
-    <row r="911">
+    <row r="911" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A911" s="2"/>
       <c r="B911" s="2"/>
       <c r="C911" s="2"/>
@@ -25444,7 +25531,7 @@
       <c r="X911" s="2"/>
       <c r="Y911" s="2"/>
     </row>
-    <row r="912">
+    <row r="912" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A912" s="2"/>
       <c r="B912" s="2"/>
       <c r="C912" s="2"/>
@@ -25471,7 +25558,7 @@
       <c r="X912" s="2"/>
       <c r="Y912" s="2"/>
     </row>
-    <row r="913">
+    <row r="913" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A913" s="2"/>
       <c r="B913" s="2"/>
       <c r="C913" s="2"/>
@@ -25498,7 +25585,7 @@
       <c r="X913" s="2"/>
       <c r="Y913" s="2"/>
     </row>
-    <row r="914">
+    <row r="914" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A914" s="2"/>
       <c r="B914" s="2"/>
       <c r="C914" s="2"/>
@@ -25525,7 +25612,7 @@
       <c r="X914" s="2"/>
       <c r="Y914" s="2"/>
     </row>
-    <row r="915">
+    <row r="915" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A915" s="2"/>
       <c r="B915" s="2"/>
       <c r="C915" s="2"/>
@@ -25552,7 +25639,7 @@
       <c r="X915" s="2"/>
       <c r="Y915" s="2"/>
     </row>
-    <row r="916">
+    <row r="916" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A916" s="2"/>
       <c r="B916" s="2"/>
       <c r="C916" s="2"/>
@@ -25579,7 +25666,7 @@
       <c r="X916" s="2"/>
       <c r="Y916" s="2"/>
     </row>
-    <row r="917">
+    <row r="917" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A917" s="2"/>
       <c r="B917" s="2"/>
       <c r="C917" s="2"/>
@@ -25606,7 +25693,7 @@
       <c r="X917" s="2"/>
       <c r="Y917" s="2"/>
     </row>
-    <row r="918">
+    <row r="918" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A918" s="2"/>
       <c r="B918" s="2"/>
       <c r="C918" s="2"/>
@@ -25633,7 +25720,7 @@
       <c r="X918" s="2"/>
       <c r="Y918" s="2"/>
     </row>
-    <row r="919">
+    <row r="919" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A919" s="2"/>
       <c r="B919" s="2"/>
       <c r="C919" s="2"/>
@@ -25660,7 +25747,7 @@
       <c r="X919" s="2"/>
       <c r="Y919" s="2"/>
     </row>
-    <row r="920">
+    <row r="920" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A920" s="2"/>
       <c r="B920" s="2"/>
       <c r="C920" s="2"/>
@@ -25687,7 +25774,7 @@
       <c r="X920" s="2"/>
       <c r="Y920" s="2"/>
     </row>
-    <row r="921">
+    <row r="921" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A921" s="2"/>
       <c r="B921" s="2"/>
       <c r="C921" s="2"/>
@@ -25714,7 +25801,7 @@
       <c r="X921" s="2"/>
       <c r="Y921" s="2"/>
     </row>
-    <row r="922">
+    <row r="922" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A922" s="2"/>
       <c r="B922" s="2"/>
       <c r="C922" s="2"/>
@@ -25741,7 +25828,7 @@
       <c r="X922" s="2"/>
       <c r="Y922" s="2"/>
     </row>
-    <row r="923">
+    <row r="923" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A923" s="2"/>
       <c r="B923" s="2"/>
       <c r="C923" s="2"/>
@@ -25768,7 +25855,7 @@
       <c r="X923" s="2"/>
       <c r="Y923" s="2"/>
     </row>
-    <row r="924">
+    <row r="924" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A924" s="2"/>
       <c r="B924" s="2"/>
       <c r="C924" s="2"/>
@@ -25795,7 +25882,7 @@
       <c r="X924" s="2"/>
       <c r="Y924" s="2"/>
     </row>
-    <row r="925">
+    <row r="925" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A925" s="2"/>
       <c r="B925" s="2"/>
       <c r="C925" s="2"/>
@@ -25822,7 +25909,7 @@
       <c r="X925" s="2"/>
       <c r="Y925" s="2"/>
     </row>
-    <row r="926">
+    <row r="926" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A926" s="2"/>
       <c r="B926" s="2"/>
       <c r="C926" s="2"/>
@@ -25849,7 +25936,7 @@
       <c r="X926" s="2"/>
       <c r="Y926" s="2"/>
     </row>
-    <row r="927">
+    <row r="927" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A927" s="2"/>
       <c r="B927" s="2"/>
       <c r="C927" s="2"/>
@@ -25876,7 +25963,7 @@
       <c r="X927" s="2"/>
       <c r="Y927" s="2"/>
     </row>
-    <row r="928">
+    <row r="928" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A928" s="2"/>
       <c r="B928" s="2"/>
       <c r="C928" s="2"/>
@@ -25903,7 +25990,7 @@
       <c r="X928" s="2"/>
       <c r="Y928" s="2"/>
     </row>
-    <row r="929">
+    <row r="929" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A929" s="2"/>
       <c r="B929" s="2"/>
       <c r="C929" s="2"/>
@@ -25930,7 +26017,7 @@
       <c r="X929" s="2"/>
       <c r="Y929" s="2"/>
     </row>
-    <row r="930">
+    <row r="930" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A930" s="2"/>
       <c r="B930" s="2"/>
       <c r="C930" s="2"/>
@@ -25957,7 +26044,7 @@
       <c r="X930" s="2"/>
       <c r="Y930" s="2"/>
     </row>
-    <row r="931">
+    <row r="931" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A931" s="2"/>
       <c r="B931" s="2"/>
       <c r="C931" s="2"/>
@@ -25984,7 +26071,7 @@
       <c r="X931" s="2"/>
       <c r="Y931" s="2"/>
     </row>
-    <row r="932">
+    <row r="932" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A932" s="2"/>
       <c r="B932" s="2"/>
       <c r="C932" s="2"/>
@@ -26011,7 +26098,7 @@
       <c r="X932" s="2"/>
       <c r="Y932" s="2"/>
     </row>
-    <row r="933">
+    <row r="933" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A933" s="2"/>
       <c r="B933" s="2"/>
       <c r="C933" s="2"/>
@@ -26038,7 +26125,7 @@
       <c r="X933" s="2"/>
       <c r="Y933" s="2"/>
     </row>
-    <row r="934">
+    <row r="934" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A934" s="2"/>
       <c r="B934" s="2"/>
       <c r="C934" s="2"/>
@@ -26065,7 +26152,7 @@
       <c r="X934" s="2"/>
       <c r="Y934" s="2"/>
     </row>
-    <row r="935">
+    <row r="935" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A935" s="2"/>
       <c r="B935" s="2"/>
       <c r="C935" s="2"/>
@@ -26092,7 +26179,7 @@
       <c r="X935" s="2"/>
       <c r="Y935" s="2"/>
     </row>
-    <row r="936">
+    <row r="936" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A936" s="2"/>
       <c r="B936" s="2"/>
       <c r="C936" s="2"/>
@@ -26119,7 +26206,7 @@
       <c r="X936" s="2"/>
       <c r="Y936" s="2"/>
     </row>
-    <row r="937">
+    <row r="937" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A937" s="2"/>
       <c r="B937" s="2"/>
       <c r="C937" s="2"/>
@@ -26146,7 +26233,7 @@
       <c r="X937" s="2"/>
       <c r="Y937" s="2"/>
     </row>
-    <row r="938">
+    <row r="938" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A938" s="2"/>
       <c r="B938" s="2"/>
       <c r="C938" s="2"/>
@@ -26173,7 +26260,7 @@
       <c r="X938" s="2"/>
       <c r="Y938" s="2"/>
     </row>
-    <row r="939">
+    <row r="939" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A939" s="2"/>
       <c r="B939" s="2"/>
       <c r="C939" s="2"/>
@@ -26200,7 +26287,7 @@
       <c r="X939" s="2"/>
       <c r="Y939" s="2"/>
     </row>
-    <row r="940">
+    <row r="940" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A940" s="2"/>
       <c r="B940" s="2"/>
       <c r="C940" s="2"/>
@@ -26227,7 +26314,7 @@
       <c r="X940" s="2"/>
       <c r="Y940" s="2"/>
     </row>
-    <row r="941">
+    <row r="941" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A941" s="2"/>
       <c r="B941" s="2"/>
       <c r="C941" s="2"/>
@@ -26254,7 +26341,7 @@
       <c r="X941" s="2"/>
       <c r="Y941" s="2"/>
     </row>
-    <row r="942">
+    <row r="942" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A942" s="2"/>
       <c r="B942" s="2"/>
       <c r="C942" s="2"/>
@@ -26281,7 +26368,7 @@
       <c r="X942" s="2"/>
       <c r="Y942" s="2"/>
     </row>
-    <row r="943">
+    <row r="943" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A943" s="2"/>
       <c r="B943" s="2"/>
       <c r="C943" s="2"/>
@@ -26308,7 +26395,7 @@
       <c r="X943" s="2"/>
       <c r="Y943" s="2"/>
     </row>
-    <row r="944">
+    <row r="944" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A944" s="2"/>
       <c r="B944" s="2"/>
       <c r="C944" s="2"/>
@@ -26335,7 +26422,7 @@
       <c r="X944" s="2"/>
       <c r="Y944" s="2"/>
     </row>
-    <row r="945">
+    <row r="945" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A945" s="2"/>
       <c r="B945" s="2"/>
       <c r="C945" s="2"/>
@@ -26362,7 +26449,7 @@
       <c r="X945" s="2"/>
       <c r="Y945" s="2"/>
     </row>
-    <row r="946">
+    <row r="946" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A946" s="2"/>
       <c r="B946" s="2"/>
       <c r="C946" s="2"/>
@@ -26389,7 +26476,7 @@
       <c r="X946" s="2"/>
       <c r="Y946" s="2"/>
     </row>
-    <row r="947">
+    <row r="947" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A947" s="2"/>
       <c r="B947" s="2"/>
       <c r="C947" s="2"/>
@@ -26416,7 +26503,7 @@
       <c r="X947" s="2"/>
       <c r="Y947" s="2"/>
     </row>
-    <row r="948">
+    <row r="948" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A948" s="2"/>
       <c r="B948" s="2"/>
       <c r="C948" s="2"/>
@@ -26443,7 +26530,7 @@
       <c r="X948" s="2"/>
       <c r="Y948" s="2"/>
     </row>
-    <row r="949">
+    <row r="949" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A949" s="2"/>
       <c r="B949" s="2"/>
       <c r="C949" s="2"/>
@@ -26470,7 +26557,7 @@
       <c r="X949" s="2"/>
       <c r="Y949" s="2"/>
     </row>
-    <row r="950">
+    <row r="950" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A950" s="2"/>
       <c r="B950" s="2"/>
       <c r="C950" s="2"/>
@@ -26497,7 +26584,7 @@
       <c r="X950" s="2"/>
       <c r="Y950" s="2"/>
     </row>
-    <row r="951">
+    <row r="951" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A951" s="2"/>
       <c r="B951" s="2"/>
       <c r="C951" s="2"/>
@@ -26524,7 +26611,7 @@
       <c r="X951" s="2"/>
       <c r="Y951" s="2"/>
     </row>
-    <row r="952">
+    <row r="952" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A952" s="2"/>
       <c r="B952" s="2"/>
       <c r="C952" s="2"/>
@@ -26551,7 +26638,7 @@
       <c r="X952" s="2"/>
       <c r="Y952" s="2"/>
     </row>
-    <row r="953">
+    <row r="953" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A953" s="2"/>
       <c r="B953" s="2"/>
       <c r="C953" s="2"/>
@@ -26578,7 +26665,7 @@
       <c r="X953" s="2"/>
       <c r="Y953" s="2"/>
     </row>
-    <row r="954">
+    <row r="954" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A954" s="2"/>
       <c r="B954" s="2"/>
       <c r="C954" s="2"/>
@@ -26605,7 +26692,7 @@
       <c r="X954" s="2"/>
       <c r="Y954" s="2"/>
     </row>
-    <row r="955">
+    <row r="955" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A955" s="2"/>
       <c r="B955" s="2"/>
       <c r="C955" s="2"/>
@@ -26632,7 +26719,7 @@
       <c r="X955" s="2"/>
       <c r="Y955" s="2"/>
     </row>
-    <row r="956">
+    <row r="956" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A956" s="2"/>
       <c r="B956" s="2"/>
       <c r="C956" s="2"/>
@@ -26659,7 +26746,7 @@
       <c r="X956" s="2"/>
       <c r="Y956" s="2"/>
     </row>
-    <row r="957">
+    <row r="957" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A957" s="2"/>
       <c r="B957" s="2"/>
       <c r="C957" s="2"/>
@@ -26686,7 +26773,7 @@
       <c r="X957" s="2"/>
       <c r="Y957" s="2"/>
     </row>
-    <row r="958">
+    <row r="958" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A958" s="2"/>
       <c r="B958" s="2"/>
       <c r="C958" s="2"/>
@@ -26713,7 +26800,7 @@
       <c r="X958" s="2"/>
       <c r="Y958" s="2"/>
     </row>
-    <row r="959">
+    <row r="959" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A959" s="2"/>
       <c r="B959" s="2"/>
       <c r="C959" s="2"/>
@@ -26740,7 +26827,7 @@
       <c r="X959" s="2"/>
       <c r="Y959" s="2"/>
     </row>
-    <row r="960">
+    <row r="960" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A960" s="2"/>
       <c r="B960" s="2"/>
       <c r="C960" s="2"/>
@@ -26767,7 +26854,7 @@
       <c r="X960" s="2"/>
       <c r="Y960" s="2"/>
     </row>
-    <row r="961">
+    <row r="961" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A961" s="2"/>
       <c r="B961" s="2"/>
       <c r="C961" s="2"/>
@@ -26794,7 +26881,7 @@
       <c r="X961" s="2"/>
       <c r="Y961" s="2"/>
     </row>
-    <row r="962">
+    <row r="962" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A962" s="2"/>
       <c r="B962" s="2"/>
       <c r="C962" s="2"/>
@@ -26821,7 +26908,7 @@
       <c r="X962" s="2"/>
       <c r="Y962" s="2"/>
     </row>
-    <row r="963">
+    <row r="963" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A963" s="2"/>
       <c r="B963" s="2"/>
       <c r="C963" s="2"/>
@@ -26848,7 +26935,7 @@
       <c r="X963" s="2"/>
       <c r="Y963" s="2"/>
     </row>
-    <row r="964">
+    <row r="964" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A964" s="2"/>
       <c r="B964" s="2"/>
       <c r="C964" s="2"/>
@@ -26875,7 +26962,7 @@
       <c r="X964" s="2"/>
       <c r="Y964" s="2"/>
     </row>
-    <row r="965">
+    <row r="965" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A965" s="2"/>
       <c r="B965" s="2"/>
       <c r="C965" s="2"/>
@@ -26902,7 +26989,7 @@
       <c r="X965" s="2"/>
       <c r="Y965" s="2"/>
     </row>
-    <row r="966">
+    <row r="966" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A966" s="2"/>
       <c r="B966" s="2"/>
       <c r="C966" s="2"/>
@@ -26929,7 +27016,7 @@
       <c r="X966" s="2"/>
       <c r="Y966" s="2"/>
     </row>
-    <row r="967">
+    <row r="967" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A967" s="2"/>
       <c r="B967" s="2"/>
       <c r="C967" s="2"/>
@@ -26956,7 +27043,7 @@
       <c r="X967" s="2"/>
       <c r="Y967" s="2"/>
     </row>
-    <row r="968">
+    <row r="968" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A968" s="2"/>
       <c r="B968" s="2"/>
       <c r="C968" s="2"/>
@@ -26983,7 +27070,7 @@
       <c r="X968" s="2"/>
       <c r="Y968" s="2"/>
     </row>
-    <row r="969">
+    <row r="969" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A969" s="2"/>
       <c r="B969" s="2"/>
       <c r="C969" s="2"/>
@@ -27010,7 +27097,7 @@
       <c r="X969" s="2"/>
       <c r="Y969" s="2"/>
     </row>
-    <row r="970">
+    <row r="970" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A970" s="2"/>
       <c r="B970" s="2"/>
       <c r="C970" s="2"/>
@@ -27037,7 +27124,7 @@
       <c r="X970" s="2"/>
       <c r="Y970" s="2"/>
     </row>
-    <row r="971">
+    <row r="971" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A971" s="2"/>
       <c r="B971" s="2"/>
       <c r="C971" s="2"/>
@@ -27064,7 +27151,7 @@
       <c r="X971" s="2"/>
       <c r="Y971" s="2"/>
     </row>
-    <row r="972">
+    <row r="972" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A972" s="2"/>
       <c r="B972" s="2"/>
       <c r="C972" s="2"/>
@@ -27091,7 +27178,7 @@
       <c r="X972" s="2"/>
       <c r="Y972" s="2"/>
     </row>
-    <row r="973">
+    <row r="973" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A973" s="2"/>
       <c r="B973" s="2"/>
       <c r="C973" s="2"/>
@@ -27118,7 +27205,7 @@
       <c r="X973" s="2"/>
       <c r="Y973" s="2"/>
     </row>
-    <row r="974">
+    <row r="974" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A974" s="2"/>
       <c r="B974" s="2"/>
       <c r="C974" s="2"/>
@@ -27145,7 +27232,7 @@
       <c r="X974" s="2"/>
       <c r="Y974" s="2"/>
     </row>
-    <row r="975">
+    <row r="975" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A975" s="2"/>
       <c r="B975" s="2"/>
       <c r="C975" s="2"/>
@@ -27172,7 +27259,7 @@
       <c r="X975" s="2"/>
       <c r="Y975" s="2"/>
     </row>
-    <row r="976">
+    <row r="976" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A976" s="2"/>
       <c r="B976" s="2"/>
       <c r="C976" s="2"/>
@@ -27199,7 +27286,7 @@
       <c r="X976" s="2"/>
       <c r="Y976" s="2"/>
     </row>
-    <row r="977">
+    <row r="977" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A977" s="2"/>
       <c r="B977" s="2"/>
       <c r="C977" s="2"/>
@@ -27226,7 +27313,7 @@
       <c r="X977" s="2"/>
       <c r="Y977" s="2"/>
     </row>
-    <row r="978">
+    <row r="978" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A978" s="2"/>
       <c r="B978" s="2"/>
       <c r="C978" s="2"/>
@@ -27253,7 +27340,7 @@
       <c r="X978" s="2"/>
       <c r="Y978" s="2"/>
     </row>
-    <row r="979">
+    <row r="979" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A979" s="2"/>
       <c r="B979" s="2"/>
       <c r="C979" s="2"/>
@@ -27280,7 +27367,7 @@
       <c r="X979" s="2"/>
       <c r="Y979" s="2"/>
     </row>
-    <row r="980">
+    <row r="980" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A980" s="2"/>
       <c r="B980" s="2"/>
       <c r="C980" s="2"/>
@@ -27307,7 +27394,7 @@
       <c r="X980" s="2"/>
       <c r="Y980" s="2"/>
     </row>
-    <row r="981">
+    <row r="981" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A981" s="2"/>
       <c r="B981" s="2"/>
       <c r="C981" s="2"/>
@@ -27334,7 +27421,7 @@
       <c r="X981" s="2"/>
       <c r="Y981" s="2"/>
     </row>
-    <row r="982">
+    <row r="982" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A982" s="2"/>
       <c r="B982" s="2"/>
       <c r="C982" s="2"/>
@@ -27361,7 +27448,7 @@
       <c r="X982" s="2"/>
       <c r="Y982" s="2"/>
     </row>
-    <row r="983">
+    <row r="983" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A983" s="2"/>
       <c r="B983" s="2"/>
       <c r="C983" s="2"/>
@@ -27388,7 +27475,7 @@
       <c r="X983" s="2"/>
       <c r="Y983" s="2"/>
     </row>
-    <row r="984">
+    <row r="984" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A984" s="2"/>
       <c r="B984" s="2"/>
       <c r="C984" s="2"/>
@@ -27415,7 +27502,7 @@
       <c r="X984" s="2"/>
       <c r="Y984" s="2"/>
     </row>
-    <row r="985">
+    <row r="985" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A985" s="2"/>
       <c r="B985" s="2"/>
       <c r="C985" s="2"/>
@@ -27442,7 +27529,7 @@
       <c r="X985" s="2"/>
       <c r="Y985" s="2"/>
     </row>
-    <row r="986">
+    <row r="986" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A986" s="2"/>
       <c r="B986" s="2"/>
       <c r="C986" s="2"/>
@@ -27469,7 +27556,7 @@
       <c r="X986" s="2"/>
       <c r="Y986" s="2"/>
     </row>
-    <row r="987">
+    <row r="987" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A987" s="2"/>
       <c r="B987" s="2"/>
       <c r="C987" s="2"/>
@@ -27496,7 +27583,7 @@
       <c r="X987" s="2"/>
       <c r="Y987" s="2"/>
     </row>
-    <row r="988">
+    <row r="988" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A988" s="2"/>
       <c r="B988" s="2"/>
       <c r="C988" s="2"/>
@@ -27523,7 +27610,7 @@
       <c r="X988" s="2"/>
       <c r="Y988" s="2"/>
     </row>
-    <row r="989">
+    <row r="989" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A989" s="2"/>
       <c r="B989" s="2"/>
       <c r="C989" s="2"/>
@@ -27550,7 +27637,7 @@
       <c r="X989" s="2"/>
       <c r="Y989" s="2"/>
     </row>
-    <row r="990">
+    <row r="990" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A990" s="2"/>
       <c r="B990" s="2"/>
       <c r="C990" s="2"/>
@@ -27577,7 +27664,7 @@
       <c r="X990" s="2"/>
       <c r="Y990" s="2"/>
     </row>
-    <row r="991">
+    <row r="991" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A991" s="2"/>
       <c r="B991" s="2"/>
       <c r="C991" s="2"/>
@@ -27604,7 +27691,7 @@
       <c r="X991" s="2"/>
       <c r="Y991" s="2"/>
     </row>
-    <row r="992">
+    <row r="992" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A992" s="2"/>
       <c r="B992" s="2"/>
       <c r="C992" s="2"/>
@@ -27631,7 +27718,7 @@
       <c r="X992" s="2"/>
       <c r="Y992" s="2"/>
     </row>
-    <row r="993">
+    <row r="993" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A993" s="2"/>
       <c r="B993" s="2"/>
       <c r="C993" s="2"/>
@@ -27658,7 +27745,7 @@
       <c r="X993" s="2"/>
       <c r="Y993" s="2"/>
     </row>
-    <row r="994">
+    <row r="994" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A994" s="2"/>
       <c r="B994" s="2"/>
       <c r="C994" s="2"/>
@@ -27685,7 +27772,7 @@
       <c r="X994" s="2"/>
       <c r="Y994" s="2"/>
     </row>
-    <row r="995">
+    <row r="995" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A995" s="2"/>
       <c r="B995" s="2"/>
       <c r="C995" s="2"/>
@@ -27712,7 +27799,7 @@
       <c r="X995" s="2"/>
       <c r="Y995" s="2"/>
     </row>
-    <row r="996">
+    <row r="996" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A996" s="2"/>
       <c r="B996" s="2"/>
       <c r="C996" s="2"/>
@@ -27739,7 +27826,7 @@
       <c r="X996" s="2"/>
       <c r="Y996" s="2"/>
     </row>
-    <row r="997">
+    <row r="997" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A997" s="2"/>
       <c r="B997" s="2"/>
       <c r="C997" s="2"/>
@@ -27766,7 +27853,7 @@
       <c r="X997" s="2"/>
       <c r="Y997" s="2"/>
     </row>
-    <row r="998">
+    <row r="998" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A998" s="2"/>
       <c r="B998" s="2"/>
       <c r="C998" s="2"/>
@@ -27793,7 +27880,7 @@
       <c r="X998" s="2"/>
       <c r="Y998" s="2"/>
     </row>
-    <row r="999">
+    <row r="999" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A999" s="2"/>
       <c r="B999" s="2"/>
       <c r="C999" s="2"/>
@@ -27820,7 +27907,7 @@
       <c r="X999" s="2"/>
       <c r="Y999" s="2"/>
     </row>
-    <row r="1000">
+    <row r="1000" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1000" s="2"/>
       <c r="B1000" s="2"/>
       <c r="C1000" s="2"/>
@@ -27862,6 +27949,6 @@
     <mergeCell ref="A27:F27"/>
     <mergeCell ref="A29:F29"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>